--- a/Report/TasksheetFinal.xlsx
+++ b/Report/TasksheetFinal.xlsx
@@ -979,27 +979,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1021,6 +1000,27 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1326,8 +1326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I223"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
+      <selection activeCell="F141" sqref="F141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1370,10 +1370,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="24">
+      <c r="A2" s="37">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="37" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1389,8 +1389,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="25"/>
-      <c r="B3" s="25"/>
+      <c r="A3" s="38"/>
+      <c r="B3" s="38"/>
       <c r="C3" s="4" t="s">
         <v>39</v>
       </c>
@@ -1404,8 +1404,8 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="25"/>
-      <c r="B4" s="25"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="38"/>
       <c r="C4" s="4" t="s">
         <v>40</v>
       </c>
@@ -1419,8 +1419,8 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="25"/>
-      <c r="B5" s="25"/>
+      <c r="A5" s="38"/>
+      <c r="B5" s="38"/>
       <c r="C5" s="4" t="s">
         <v>22</v>
       </c>
@@ -1434,8 +1434,8 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="25"/>
-      <c r="B6" s="25"/>
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
       <c r="C6" s="4" t="s">
         <v>203</v>
       </c>
@@ -1447,8 +1447,8 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="25"/>
-      <c r="B7" s="25"/>
+      <c r="A7" s="38"/>
+      <c r="B7" s="38"/>
       <c r="C7" s="7" t="s">
         <v>41</v>
       </c>
@@ -1462,8 +1462,8 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="25"/>
-      <c r="B8" s="25"/>
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
       <c r="C8" s="7" t="s">
         <v>42</v>
       </c>
@@ -1477,9 +1477,9 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="25"/>
-      <c r="B9" s="25"/>
-      <c r="C9" s="31" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38"/>
+      <c r="C9" s="24" t="s">
         <v>43</v>
       </c>
       <c r="D9" s="2"/>
@@ -1490,8 +1490,8 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="25"/>
-      <c r="B10" s="25"/>
+      <c r="A10" s="38"/>
+      <c r="B10" s="38"/>
       <c r="C10" s="7" t="s">
         <v>44</v>
       </c>
@@ -1505,8 +1505,8 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="25"/>
-      <c r="B11" s="25"/>
+      <c r="A11" s="38"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="7" t="s">
         <v>45</v>
       </c>
@@ -1520,8 +1520,8 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="25"/>
-      <c r="B12" s="25"/>
+      <c r="A12" s="38"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="7" t="s">
         <v>46</v>
       </c>
@@ -1535,8 +1535,8 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="25"/>
-      <c r="B13" s="25"/>
+      <c r="A13" s="38"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="7" t="s">
         <v>47</v>
       </c>
@@ -1550,8 +1550,8 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="25"/>
-      <c r="B14" s="25"/>
+      <c r="A14" s="38"/>
+      <c r="B14" s="38"/>
       <c r="C14" s="7" t="s">
         <v>48</v>
       </c>
@@ -1565,8 +1565,8 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="25"/>
-      <c r="B15" s="25"/>
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
       <c r="C15" s="7" t="s">
         <v>49</v>
       </c>
@@ -1580,8 +1580,8 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="9" t="s">
         <v>50</v>
       </c>
@@ -1595,13 +1595,13 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="25">
+      <c r="A17" s="38">
         <v>2</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="25" t="s">
         <v>22</v>
       </c>
       <c r="D17" s="2"/>
@@ -1612,8 +1612,8 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="25"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
       <c r="C18" s="7" t="s">
         <v>51</v>
       </c>
@@ -1627,8 +1627,8 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="25"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="7" t="s">
         <v>52</v>
       </c>
@@ -1642,9 +1642,9 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="25"/>
-      <c r="B20" s="25"/>
-      <c r="C20" s="33" t="s">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="26" t="s">
         <v>53</v>
       </c>
       <c r="D20" s="2"/>
@@ -1655,8 +1655,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="25"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="20" t="s">
         <v>61</v>
       </c>
@@ -1670,9 +1670,9 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="25"/>
-      <c r="B22" s="25"/>
-      <c r="C22" s="34" t="s">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D22" s="2"/>
@@ -1685,8 +1685,8 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="25"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="21" t="s">
         <v>48</v>
       </c>
@@ -1700,8 +1700,8 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="25"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="21" t="s">
         <v>63</v>
       </c>
@@ -1715,8 +1715,8 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="25"/>
-      <c r="B25" s="25"/>
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
       <c r="C25" s="21" t="s">
         <v>64</v>
       </c>
@@ -1730,8 +1730,8 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="25"/>
-      <c r="B26" s="25"/>
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
       <c r="C26" s="21" t="s">
         <v>65</v>
       </c>
@@ -1745,8 +1745,8 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="25"/>
-      <c r="B27" s="25"/>
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
       <c r="C27" s="20" t="s">
         <v>204</v>
       </c>
@@ -1758,8 +1758,8 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="25"/>
-      <c r="B28" s="25"/>
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
       <c r="C28" s="21" t="s">
         <v>66</v>
       </c>
@@ -1773,8 +1773,8 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="25"/>
-      <c r="B29" s="25"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="21" t="s">
         <v>67</v>
       </c>
@@ -1788,9 +1788,9 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="25"/>
-      <c r="B30" s="25"/>
-      <c r="C30" s="34" t="s">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="27" t="s">
         <v>68</v>
       </c>
       <c r="D30" s="2"/>
@@ -1801,8 +1801,8 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="25"/>
-      <c r="B31" s="25"/>
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
       <c r="C31" s="21" t="s">
         <v>70</v>
       </c>
@@ -1816,8 +1816,8 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="25"/>
-      <c r="B32" s="25"/>
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
       <c r="C32" s="21" t="s">
         <v>69</v>
       </c>
@@ -1831,9 +1831,9 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="25"/>
-      <c r="B33" s="25"/>
-      <c r="C33" s="32" t="s">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="25" t="s">
         <v>10</v>
       </c>
       <c r="D33" s="2"/>
@@ -1844,9 +1844,9 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="25"/>
-      <c r="B34" s="25"/>
-      <c r="C34" s="33" t="s">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="26" t="s">
         <v>54</v>
       </c>
       <c r="D34" s="2"/>
@@ -1857,8 +1857,8 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="25"/>
-      <c r="B35" s="25"/>
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
       <c r="C35" s="20" t="s">
         <v>71</v>
       </c>
@@ -1872,8 +1872,8 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="25"/>
-      <c r="B36" s="25"/>
+      <c r="A36" s="38"/>
+      <c r="B36" s="38"/>
       <c r="C36" s="20" t="s">
         <v>72</v>
       </c>
@@ -1887,8 +1887,8 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="25"/>
-      <c r="B37" s="25"/>
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
       <c r="C37" s="20" t="s">
         <v>73</v>
       </c>
@@ -1902,8 +1902,8 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="25"/>
-      <c r="B38" s="25"/>
+      <c r="A38" s="38"/>
+      <c r="B38" s="38"/>
       <c r="C38" s="7" t="s">
         <v>55</v>
       </c>
@@ -1917,8 +1917,8 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="25"/>
-      <c r="B39" s="25"/>
+      <c r="A39" s="38"/>
+      <c r="B39" s="38"/>
       <c r="C39" s="7" t="s">
         <v>56</v>
       </c>
@@ -1932,9 +1932,9 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="25"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="31" t="s">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38"/>
+      <c r="C40" s="24" t="s">
         <v>57</v>
       </c>
       <c r="D40" s="2"/>
@@ -1945,8 +1945,8 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="25"/>
-      <c r="B41" s="25"/>
+      <c r="A41" s="38"/>
+      <c r="B41" s="38"/>
       <c r="C41" s="7" t="s">
         <v>58</v>
       </c>
@@ -1960,8 +1960,8 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="25"/>
-      <c r="B42" s="25"/>
+      <c r="A42" s="38"/>
+      <c r="B42" s="38"/>
       <c r="C42" s="7" t="s">
         <v>59</v>
       </c>
@@ -1975,8 +1975,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="25"/>
-      <c r="B43" s="25"/>
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
       <c r="C43" s="7" t="s">
         <v>60</v>
       </c>
@@ -1990,8 +1990,8 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="25"/>
-      <c r="B44" s="25"/>
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
@@ -2005,10 +2005,10 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="25">
+      <c r="A45" s="38">
         <v>3</v>
       </c>
-      <c r="B45" s="25" t="s">
+      <c r="B45" s="38" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2024,9 +2024,9 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="25"/>
-      <c r="B46" s="25"/>
-      <c r="C46" s="32" t="s">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="25" t="s">
         <v>13</v>
       </c>
       <c r="D46" s="2"/>
@@ -2037,9 +2037,9 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="25"/>
-      <c r="B47" s="25"/>
-      <c r="C47" s="35" t="s">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="28" t="s">
         <v>14</v>
       </c>
       <c r="D47" s="2"/>
@@ -2050,8 +2050,8 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="25"/>
-      <c r="B48" s="25"/>
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
       <c r="C48" s="6" t="s">
         <v>74</v>
       </c>
@@ -2065,8 +2065,8 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="25"/>
-      <c r="B49" s="25"/>
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
       <c r="C49" s="6" t="s">
         <v>75</v>
       </c>
@@ -2080,8 +2080,8 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="25"/>
-      <c r="B50" s="25"/>
+      <c r="A50" s="38"/>
+      <c r="B50" s="38"/>
       <c r="C50" s="6" t="s">
         <v>76</v>
       </c>
@@ -2095,8 +2095,8 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="25"/>
-      <c r="B51" s="25"/>
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
       <c r="C51" s="5" t="s">
         <v>77</v>
       </c>
@@ -2110,9 +2110,9 @@
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="25"/>
-      <c r="B52" s="25"/>
-      <c r="C52" s="35" t="s">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="28" t="s">
         <v>78</v>
       </c>
       <c r="D52" s="2"/>
@@ -2123,8 +2123,8 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="25"/>
-      <c r="B53" s="25"/>
+      <c r="A53" s="38"/>
+      <c r="B53" s="38"/>
       <c r="C53" s="6" t="s">
         <v>79</v>
       </c>
@@ -2138,8 +2138,8 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="25"/>
-      <c r="B54" s="25"/>
+      <c r="A54" s="38"/>
+      <c r="B54" s="38"/>
       <c r="C54" s="6" t="s">
         <v>80</v>
       </c>
@@ -2153,8 +2153,8 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="25"/>
-      <c r="B55" s="25"/>
+      <c r="A55" s="38"/>
+      <c r="B55" s="38"/>
       <c r="C55" s="6" t="s">
         <v>81</v>
       </c>
@@ -2168,8 +2168,8 @@
       <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="25"/>
-      <c r="B56" s="25"/>
+      <c r="A56" s="38"/>
+      <c r="B56" s="38"/>
       <c r="C56" s="6" t="s">
         <v>82</v>
       </c>
@@ -2183,8 +2183,8 @@
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="25"/>
-      <c r="B57" s="25"/>
+      <c r="A57" s="38"/>
+      <c r="B57" s="38"/>
       <c r="C57" s="6" t="s">
         <v>83</v>
       </c>
@@ -2198,8 +2198,8 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="25"/>
-      <c r="B58" s="25"/>
+      <c r="A58" s="38"/>
+      <c r="B58" s="38"/>
       <c r="C58" s="6" t="s">
         <v>84</v>
       </c>
@@ -2213,9 +2213,9 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="25"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="36" t="s">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="29" t="s">
         <v>85</v>
       </c>
       <c r="D59" s="2"/>
@@ -2226,9 +2226,9 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="25"/>
-      <c r="B60" s="25"/>
-      <c r="C60" s="35" t="s">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="28" t="s">
         <v>86</v>
       </c>
       <c r="D60" s="2"/>
@@ -2239,8 +2239,8 @@
       <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="25"/>
-      <c r="B61" s="25"/>
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
       <c r="C61" s="6" t="s">
         <v>87</v>
       </c>
@@ -2254,8 +2254,8 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="25"/>
-      <c r="B62" s="25"/>
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
       <c r="C62" s="6" t="s">
         <v>86</v>
       </c>
@@ -2269,8 +2269,8 @@
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="25"/>
-      <c r="B63" s="25"/>
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
       <c r="C63" s="6" t="s">
         <v>88</v>
       </c>
@@ -2284,8 +2284,8 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="25"/>
-      <c r="B64" s="25"/>
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
@@ -2299,8 +2299,8 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="25"/>
-      <c r="B65" s="25"/>
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
       <c r="C65" s="5" t="s">
         <v>16</v>
       </c>
@@ -2314,8 +2314,8 @@
       <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="25"/>
-      <c r="B66" s="25"/>
+      <c r="A66" s="38"/>
+      <c r="B66" s="38"/>
       <c r="C66" s="5" t="s">
         <v>89</v>
       </c>
@@ -2329,8 +2329,8 @@
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="25"/>
-      <c r="B67" s="25"/>
+      <c r="A67" s="38"/>
+      <c r="B67" s="38"/>
       <c r="C67" s="5" t="s">
         <v>90</v>
       </c>
@@ -2344,8 +2344,8 @@
       <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="25"/>
-      <c r="B68" s="25"/>
+      <c r="A68" s="38"/>
+      <c r="B68" s="38"/>
       <c r="C68" s="5" t="s">
         <v>91</v>
       </c>
@@ -2359,10 +2359,10 @@
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="29">
+      <c r="A69" s="35">
         <v>4</v>
       </c>
-      <c r="B69" s="29" t="s">
+      <c r="B69" s="35" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2378,8 +2378,8 @@
       <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="30"/>
-      <c r="B70" s="30"/>
+      <c r="A70" s="36"/>
+      <c r="B70" s="36"/>
       <c r="C70" s="4" t="s">
         <v>93</v>
       </c>
@@ -2393,8 +2393,8 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="30"/>
-      <c r="B71" s="30"/>
+      <c r="A71" s="36"/>
+      <c r="B71" s="36"/>
       <c r="C71" s="8" t="s">
         <v>17</v>
       </c>
@@ -2408,9 +2408,9 @@
       <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="30"/>
-      <c r="B72" s="30"/>
-      <c r="C72" s="31" t="s">
+      <c r="A72" s="36"/>
+      <c r="B72" s="36"/>
+      <c r="C72" s="24" t="s">
         <v>94</v>
       </c>
       <c r="D72" s="2"/>
@@ -2421,9 +2421,9 @@
       <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="30"/>
-      <c r="B73" s="30"/>
-      <c r="C73" s="33" t="s">
+      <c r="A73" s="36"/>
+      <c r="B73" s="36"/>
+      <c r="C73" s="26" t="s">
         <v>95</v>
       </c>
       <c r="D73" s="2"/>
@@ -2434,8 +2434,8 @@
       <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="30"/>
-      <c r="B74" s="30"/>
+      <c r="A74" s="36"/>
+      <c r="B74" s="36"/>
       <c r="C74" s="20" t="s">
         <v>96</v>
       </c>
@@ -2449,9 +2449,9 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="30"/>
-      <c r="B75" s="30"/>
-      <c r="C75" s="37" t="s">
+      <c r="A75" s="36"/>
+      <c r="B75" s="36"/>
+      <c r="C75" s="30" t="s">
         <v>97</v>
       </c>
       <c r="D75" s="2"/>
@@ -2462,8 +2462,8 @@
       <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="30"/>
-      <c r="B76" s="30"/>
+      <c r="A76" s="36"/>
+      <c r="B76" s="36"/>
       <c r="C76" s="22" t="s">
         <v>99</v>
       </c>
@@ -2477,8 +2477,8 @@
       <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="30"/>
-      <c r="B77" s="30"/>
+      <c r="A77" s="36"/>
+      <c r="B77" s="36"/>
       <c r="C77" s="22" t="s">
         <v>100</v>
       </c>
@@ -2492,8 +2492,8 @@
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="30"/>
-      <c r="B78" s="30"/>
+      <c r="A78" s="36"/>
+      <c r="B78" s="36"/>
       <c r="C78" s="22" t="s">
         <v>101</v>
       </c>
@@ -2507,8 +2507,8 @@
       <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="30"/>
-      <c r="B79" s="30"/>
+      <c r="A79" s="36"/>
+      <c r="B79" s="36"/>
       <c r="C79" s="22" t="s">
         <v>102</v>
       </c>
@@ -2522,8 +2522,8 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="30"/>
-      <c r="B80" s="30"/>
+      <c r="A80" s="36"/>
+      <c r="B80" s="36"/>
       <c r="C80" s="22" t="s">
         <v>103</v>
       </c>
@@ -2537,8 +2537,8 @@
       <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="30"/>
-      <c r="B81" s="30"/>
+      <c r="A81" s="36"/>
+      <c r="B81" s="36"/>
       <c r="C81" s="22" t="s">
         <v>104</v>
       </c>
@@ -2552,8 +2552,8 @@
       <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="30"/>
-      <c r="B82" s="30"/>
+      <c r="A82" s="36"/>
+      <c r="B82" s="36"/>
       <c r="C82" s="22" t="s">
         <v>105</v>
       </c>
@@ -2567,8 +2567,8 @@
       <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="30"/>
-      <c r="B83" s="30"/>
+      <c r="A83" s="36"/>
+      <c r="B83" s="36"/>
       <c r="C83" s="22" t="s">
         <v>106</v>
       </c>
@@ -2582,8 +2582,8 @@
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="30"/>
-      <c r="B84" s="30"/>
+      <c r="A84" s="36"/>
+      <c r="B84" s="36"/>
       <c r="C84" s="22" t="s">
         <v>107</v>
       </c>
@@ -2597,8 +2597,8 @@
       <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="30"/>
-      <c r="B85" s="30"/>
+      <c r="A85" s="36"/>
+      <c r="B85" s="36"/>
       <c r="C85" s="22" t="s">
         <v>108</v>
       </c>
@@ -2612,8 +2612,8 @@
       <c r="I85" s="11"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="30"/>
-      <c r="B86" s="30"/>
+      <c r="A86" s="36"/>
+      <c r="B86" s="36"/>
       <c r="C86" s="22" t="s">
         <v>109</v>
       </c>
@@ -2627,8 +2627,8 @@
       <c r="I86" s="11"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="30"/>
-      <c r="B87" s="30"/>
+      <c r="A87" s="36"/>
+      <c r="B87" s="36"/>
       <c r="C87" s="22" t="s">
         <v>110</v>
       </c>
@@ -2642,8 +2642,8 @@
       <c r="I87" s="11"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="30"/>
-      <c r="B88" s="30"/>
+      <c r="A88" s="36"/>
+      <c r="B88" s="36"/>
       <c r="C88" s="22" t="s">
         <v>111</v>
       </c>
@@ -2657,8 +2657,8 @@
       <c r="I88" s="11"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="30"/>
-      <c r="B89" s="30"/>
+      <c r="A89" s="36"/>
+      <c r="B89" s="36"/>
       <c r="C89" s="22" t="s">
         <v>112</v>
       </c>
@@ -2672,8 +2672,8 @@
       <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="30"/>
-      <c r="B90" s="30"/>
+      <c r="A90" s="36"/>
+      <c r="B90" s="36"/>
       <c r="C90" s="22" t="s">
         <v>113</v>
       </c>
@@ -2687,8 +2687,8 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="30"/>
-      <c r="B91" s="30"/>
+      <c r="A91" s="36"/>
+      <c r="B91" s="36"/>
       <c r="C91" s="22" t="s">
         <v>114</v>
       </c>
@@ -2702,8 +2702,8 @@
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="30"/>
-      <c r="B92" s="30"/>
+      <c r="A92" s="36"/>
+      <c r="B92" s="36"/>
       <c r="C92" s="22" t="s">
         <v>98</v>
       </c>
@@ -2717,9 +2717,9 @@
       <c r="I92" s="11"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="30"/>
-      <c r="B93" s="30"/>
-      <c r="C93" s="37" t="s">
+      <c r="A93" s="36"/>
+      <c r="B93" s="36"/>
+      <c r="C93" s="30" t="s">
         <v>18</v>
       </c>
       <c r="D93" s="2"/>
@@ -2730,8 +2730,8 @@
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="30"/>
-      <c r="B94" s="30"/>
+      <c r="A94" s="36"/>
+      <c r="B94" s="36"/>
       <c r="C94" s="22" t="s">
         <v>119</v>
       </c>
@@ -2745,8 +2745,8 @@
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="30"/>
-      <c r="B95" s="30"/>
+      <c r="A95" s="36"/>
+      <c r="B95" s="36"/>
       <c r="C95" s="22" t="s">
         <v>120</v>
       </c>
@@ -2760,8 +2760,8 @@
       <c r="I95" s="11"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="30"/>
-      <c r="B96" s="30"/>
+      <c r="A96" s="36"/>
+      <c r="B96" s="36"/>
       <c r="C96" s="22" t="s">
         <v>121</v>
       </c>
@@ -2775,8 +2775,8 @@
       <c r="I96" s="11"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="30"/>
-      <c r="B97" s="30"/>
+      <c r="A97" s="36"/>
+      <c r="B97" s="36"/>
       <c r="C97" s="22" t="s">
         <v>83</v>
       </c>
@@ -2790,8 +2790,8 @@
       <c r="I97" s="11"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="30"/>
-      <c r="B98" s="30"/>
+      <c r="A98" s="36"/>
+      <c r="B98" s="36"/>
       <c r="C98" s="22" t="s">
         <v>82</v>
       </c>
@@ -2805,8 +2805,8 @@
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="30"/>
-      <c r="B99" s="30"/>
+      <c r="A99" s="36"/>
+      <c r="B99" s="36"/>
       <c r="C99" s="22" t="s">
         <v>122</v>
       </c>
@@ -2820,9 +2820,9 @@
       <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="30"/>
-      <c r="B100" s="30"/>
-      <c r="C100" s="38" t="s">
+      <c r="A100" s="36"/>
+      <c r="B100" s="36"/>
+      <c r="C100" s="31" t="s">
         <v>115</v>
       </c>
       <c r="D100" s="2"/>
@@ -2833,8 +2833,8 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="30"/>
-      <c r="B101" s="30"/>
+      <c r="A101" s="36"/>
+      <c r="B101" s="36"/>
       <c r="C101" s="20" t="s">
         <v>116</v>
       </c>
@@ -2848,8 +2848,8 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="30"/>
-      <c r="B102" s="30"/>
+      <c r="A102" s="36"/>
+      <c r="B102" s="36"/>
       <c r="C102" s="20" t="s">
         <v>117</v>
       </c>
@@ -2863,9 +2863,9 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="30"/>
-      <c r="B103" s="30"/>
-      <c r="C103" s="34" t="s">
+      <c r="A103" s="36"/>
+      <c r="B103" s="36"/>
+      <c r="C103" s="27" t="s">
         <v>118</v>
       </c>
       <c r="D103" s="2"/>
@@ -2876,8 +2876,8 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="30"/>
-      <c r="B104" s="30"/>
+      <c r="A104" s="36"/>
+      <c r="B104" s="36"/>
       <c r="C104" s="22" t="s">
         <v>129</v>
       </c>
@@ -2891,8 +2891,8 @@
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="30"/>
-      <c r="B105" s="30"/>
+      <c r="A105" s="36"/>
+      <c r="B105" s="36"/>
       <c r="C105" s="22" t="s">
         <v>128</v>
       </c>
@@ -2906,8 +2906,8 @@
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="30"/>
-      <c r="B106" s="30"/>
+      <c r="A106" s="36"/>
+      <c r="B106" s="36"/>
       <c r="C106" s="22" t="s">
         <v>127</v>
       </c>
@@ -2921,8 +2921,8 @@
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="30"/>
-      <c r="B107" s="30"/>
+      <c r="A107" s="36"/>
+      <c r="B107" s="36"/>
       <c r="C107" s="20" t="s">
         <v>123</v>
       </c>
@@ -2936,9 +2936,9 @@
       <c r="I107" s="11"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="30"/>
-      <c r="B108" s="30"/>
-      <c r="C108" s="31" t="s">
+      <c r="A108" s="36"/>
+      <c r="B108" s="36"/>
+      <c r="C108" s="24" t="s">
         <v>124</v>
       </c>
       <c r="D108" s="2"/>
@@ -2949,9 +2949,9 @@
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="30"/>
-      <c r="B109" s="30"/>
-      <c r="C109" s="33" t="s">
+      <c r="A109" s="36"/>
+      <c r="B109" s="36"/>
+      <c r="C109" s="26" t="s">
         <v>125</v>
       </c>
       <c r="D109" s="2"/>
@@ -2962,8 +2962,8 @@
       <c r="I109" s="11"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="30"/>
-      <c r="B110" s="30"/>
+      <c r="A110" s="36"/>
+      <c r="B110" s="36"/>
       <c r="C110" s="20" t="s">
         <v>126</v>
       </c>
@@ -2977,8 +2977,8 @@
       <c r="I110" s="11"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="30"/>
-      <c r="B111" s="30"/>
+      <c r="A111" s="36"/>
+      <c r="B111" s="36"/>
       <c r="C111" s="20" t="s">
         <v>80</v>
       </c>
@@ -2992,8 +2992,8 @@
       <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="30"/>
-      <c r="B112" s="30"/>
+      <c r="A112" s="36"/>
+      <c r="B112" s="36"/>
       <c r="C112" s="20" t="s">
         <v>130</v>
       </c>
@@ -3007,8 +3007,8 @@
       <c r="I112" s="11"/>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="30"/>
-      <c r="B113" s="30"/>
+      <c r="A113" s="36"/>
+      <c r="B113" s="36"/>
       <c r="C113" s="20" t="s">
         <v>131</v>
       </c>
@@ -3022,8 +3022,8 @@
       <c r="I113" s="11"/>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="30"/>
-      <c r="B114" s="30"/>
+      <c r="A114" s="36"/>
+      <c r="B114" s="36"/>
       <c r="C114" s="20" t="s">
         <v>132</v>
       </c>
@@ -3037,8 +3037,8 @@
       <c r="I114" s="11"/>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="30"/>
-      <c r="B115" s="30"/>
+      <c r="A115" s="36"/>
+      <c r="B115" s="36"/>
       <c r="C115" s="7" t="s">
         <v>75</v>
       </c>
@@ -3052,9 +3052,9 @@
       <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="30"/>
-      <c r="B116" s="30"/>
-      <c r="C116" s="31" t="s">
+      <c r="A116" s="36"/>
+      <c r="B116" s="36"/>
+      <c r="C116" s="24" t="s">
         <v>133</v>
       </c>
       <c r="D116" s="2"/>
@@ -3065,8 +3065,8 @@
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="30"/>
-      <c r="B117" s="30"/>
+      <c r="A117" s="36"/>
+      <c r="B117" s="36"/>
       <c r="C117" s="7" t="s">
         <v>134</v>
       </c>
@@ -3080,8 +3080,8 @@
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="30"/>
-      <c r="B118" s="30"/>
+      <c r="A118" s="36"/>
+      <c r="B118" s="36"/>
       <c r="C118" s="7" t="s">
         <v>135</v>
       </c>
@@ -3095,9 +3095,9 @@
       <c r="I118" s="11"/>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="30"/>
-      <c r="B119" s="30"/>
-      <c r="C119" s="31" t="s">
+      <c r="A119" s="36"/>
+      <c r="B119" s="36"/>
+      <c r="C119" s="24" t="s">
         <v>23</v>
       </c>
       <c r="D119" s="2"/>
@@ -3108,9 +3108,9 @@
       <c r="I119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="30"/>
-      <c r="B120" s="30"/>
-      <c r="C120" s="33" t="s">
+      <c r="A120" s="36"/>
+      <c r="B120" s="36"/>
+      <c r="C120" s="26" t="s">
         <v>136</v>
       </c>
       <c r="D120" s="2"/>
@@ -3121,8 +3121,8 @@
       <c r="I120" s="11"/>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="30"/>
-      <c r="B121" s="30"/>
+      <c r="A121" s="36"/>
+      <c r="B121" s="36"/>
       <c r="C121" s="20" t="s">
         <v>139</v>
       </c>
@@ -3136,8 +3136,8 @@
       <c r="I121" s="11"/>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="30"/>
-      <c r="B122" s="30"/>
+      <c r="A122" s="36"/>
+      <c r="B122" s="36"/>
       <c r="C122" s="20" t="s">
         <v>140</v>
       </c>
@@ -3151,8 +3151,8 @@
       <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="30"/>
-      <c r="B123" s="30"/>
+      <c r="A123" s="36"/>
+      <c r="B123" s="36"/>
       <c r="C123" s="20" t="s">
         <v>141</v>
       </c>
@@ -3166,8 +3166,8 @@
       <c r="I123" s="11"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="30"/>
-      <c r="B124" s="30"/>
+      <c r="A124" s="36"/>
+      <c r="B124" s="36"/>
       <c r="C124" s="20" t="s">
         <v>142</v>
       </c>
@@ -3181,8 +3181,8 @@
       <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="30"/>
-      <c r="B125" s="30"/>
+      <c r="A125" s="36"/>
+      <c r="B125" s="36"/>
       <c r="C125" s="20" t="s">
         <v>137</v>
       </c>
@@ -3196,9 +3196,9 @@
       <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="30"/>
-      <c r="B126" s="30"/>
-      <c r="C126" s="34" t="s">
+      <c r="A126" s="36"/>
+      <c r="B126" s="36"/>
+      <c r="C126" s="27" t="s">
         <v>138</v>
       </c>
       <c r="D126" s="2"/>
@@ -3209,8 +3209,8 @@
       <c r="I126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="30"/>
-      <c r="B127" s="30"/>
+      <c r="A127" s="36"/>
+      <c r="B127" s="36"/>
       <c r="C127" s="21" t="s">
         <v>143</v>
       </c>
@@ -3224,8 +3224,8 @@
       <c r="I127" s="11"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="30"/>
-      <c r="B128" s="30"/>
+      <c r="A128" s="36"/>
+      <c r="B128" s="36"/>
       <c r="C128" s="21" t="s">
         <v>144</v>
       </c>
@@ -3239,8 +3239,8 @@
       <c r="I128" s="11"/>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="30"/>
-      <c r="B129" s="30"/>
+      <c r="A129" s="36"/>
+      <c r="B129" s="36"/>
       <c r="C129" s="21" t="s">
         <v>145</v>
       </c>
@@ -3254,8 +3254,8 @@
       <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="30"/>
-      <c r="B130" s="30"/>
+      <c r="A130" s="36"/>
+      <c r="B130" s="36"/>
       <c r="C130" s="21" t="s">
         <v>146</v>
       </c>
@@ -3269,8 +3269,8 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="30"/>
-      <c r="B131" s="30"/>
+      <c r="A131" s="36"/>
+      <c r="B131" s="36"/>
       <c r="C131" s="20" t="s">
         <v>147</v>
       </c>
@@ -3284,8 +3284,8 @@
       <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="30"/>
-      <c r="B132" s="30"/>
+      <c r="A132" s="36"/>
+      <c r="B132" s="36"/>
       <c r="C132" s="20" t="s">
         <v>148</v>
       </c>
@@ -3299,9 +3299,9 @@
       <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="30"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="33" t="s">
+      <c r="A133" s="36"/>
+      <c r="B133" s="36"/>
+      <c r="C133" s="26" t="s">
         <v>149</v>
       </c>
       <c r="D133" s="2"/>
@@ -3312,8 +3312,8 @@
       <c r="I133" s="11"/>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
+      <c r="A134" s="36"/>
+      <c r="B134" s="36"/>
       <c r="C134" s="20" t="s">
         <v>139</v>
       </c>
@@ -3327,8 +3327,8 @@
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="30"/>
-      <c r="B135" s="30"/>
+      <c r="A135" s="36"/>
+      <c r="B135" s="36"/>
       <c r="C135" s="20" t="s">
         <v>140</v>
       </c>
@@ -3342,8 +3342,8 @@
       <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
+      <c r="A136" s="36"/>
+      <c r="B136" s="36"/>
       <c r="C136" s="20" t="s">
         <v>141</v>
       </c>
@@ -3357,8 +3357,8 @@
       <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="30"/>
-      <c r="B137" s="30"/>
+      <c r="A137" s="36"/>
+      <c r="B137" s="36"/>
       <c r="C137" s="20" t="s">
         <v>142</v>
       </c>
@@ -3372,8 +3372,8 @@
       <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
+      <c r="A138" s="36"/>
+      <c r="B138" s="36"/>
       <c r="C138" s="20" t="s">
         <v>137</v>
       </c>
@@ -3387,23 +3387,23 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="30"/>
-      <c r="B139" s="30"/>
+      <c r="A139" s="36"/>
+      <c r="B139" s="36"/>
       <c r="C139" s="21" t="s">
         <v>150</v>
       </c>
       <c r="D139" s="2"/>
-      <c r="E139" s="2"/>
+      <c r="E139" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F139" s="2"/>
-      <c r="G139" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G139" s="2"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="30"/>
-      <c r="B140" s="30"/>
+      <c r="A140" s="36"/>
+      <c r="B140" s="36"/>
       <c r="C140" s="21" t="s">
         <v>151</v>
       </c>
@@ -3417,23 +3417,23 @@
       <c r="I140" s="11"/>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="30"/>
-      <c r="B141" s="30"/>
+      <c r="A141" s="36"/>
+      <c r="B141" s="36"/>
       <c r="C141" s="21" t="s">
         <v>152</v>
       </c>
       <c r="D141" s="2"/>
-      <c r="E141" s="2"/>
-      <c r="F141" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="30"/>
-      <c r="B142" s="30"/>
+      <c r="A142" s="36"/>
+      <c r="B142" s="36"/>
       <c r="C142" s="21" t="s">
         <v>153</v>
       </c>
@@ -3447,8 +3447,8 @@
       <c r="I142" s="11"/>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="30"/>
-      <c r="B143" s="30"/>
+      <c r="A143" s="36"/>
+      <c r="B143" s="36"/>
       <c r="C143" s="21" t="s">
         <v>154</v>
       </c>
@@ -3462,8 +3462,8 @@
       <c r="I143" s="11"/>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="30"/>
-      <c r="B144" s="30"/>
+      <c r="A144" s="36"/>
+      <c r="B144" s="36"/>
       <c r="C144" s="20" t="s">
         <v>148</v>
       </c>
@@ -3477,9 +3477,9 @@
       <c r="I144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="30"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="33" t="s">
+      <c r="A145" s="36"/>
+      <c r="B145" s="36"/>
+      <c r="C145" s="26" t="s">
         <v>155</v>
       </c>
       <c r="D145" s="2"/>
@@ -3490,8 +3490,8 @@
       <c r="I145" s="11"/>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="30"/>
-      <c r="B146" s="30"/>
+      <c r="A146" s="36"/>
+      <c r="B146" s="36"/>
       <c r="C146" s="20" t="s">
         <v>139</v>
       </c>
@@ -3505,8 +3505,8 @@
       <c r="I146" s="11"/>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="30"/>
-      <c r="B147" s="30"/>
+      <c r="A147" s="36"/>
+      <c r="B147" s="36"/>
       <c r="C147" s="20" t="s">
         <v>156</v>
       </c>
@@ -3520,8 +3520,8 @@
       <c r="I147" s="11"/>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="30"/>
-      <c r="B148" s="30"/>
+      <c r="A148" s="36"/>
+      <c r="B148" s="36"/>
       <c r="C148" s="20" t="s">
         <v>141</v>
       </c>
@@ -3535,8 +3535,8 @@
       <c r="I148" s="11"/>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="30"/>
-      <c r="B149" s="30"/>
+      <c r="A149" s="36"/>
+      <c r="B149" s="36"/>
       <c r="C149" s="20" t="s">
         <v>157</v>
       </c>
@@ -3550,13 +3550,13 @@
       <c r="I149" s="11"/>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="26">
+      <c r="A150" s="32">
         <v>5</v>
       </c>
-      <c r="B150" s="25" t="s">
+      <c r="B150" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="C150" s="32" t="s">
+      <c r="C150" s="25" t="s">
         <v>39</v>
       </c>
       <c r="D150" s="2"/>
@@ -3567,8 +3567,8 @@
       <c r="I150" s="11"/>
     </row>
     <row r="151" spans="1:9" ht="15.75">
-      <c r="A151" s="27"/>
-      <c r="B151" s="25"/>
+      <c r="A151" s="33"/>
+      <c r="B151" s="38"/>
       <c r="C151" s="7" t="s">
         <v>158</v>
       </c>
@@ -3582,8 +3582,8 @@
       <c r="I151" s="11"/>
     </row>
     <row r="152" spans="1:9" ht="15.75">
-      <c r="A152" s="27"/>
-      <c r="B152" s="25"/>
+      <c r="A152" s="33"/>
+      <c r="B152" s="38"/>
       <c r="C152" s="7" t="s">
         <v>159</v>
       </c>
@@ -3597,8 +3597,8 @@
       <c r="I152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="15.75">
-      <c r="A153" s="27"/>
-      <c r="B153" s="25"/>
+      <c r="A153" s="33"/>
+      <c r="B153" s="38"/>
       <c r="C153" s="9" t="s">
         <v>160</v>
       </c>
@@ -3612,9 +3612,9 @@
       <c r="I153" s="11"/>
     </row>
     <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="27"/>
-      <c r="B154" s="25"/>
-      <c r="C154" s="32" t="s">
+      <c r="A154" s="33"/>
+      <c r="B154" s="38"/>
+      <c r="C154" s="25" t="s">
         <v>161</v>
       </c>
       <c r="D154" s="2"/>
@@ -3625,8 +3625,8 @@
       <c r="I154" s="11"/>
     </row>
     <row r="155" spans="1:9" ht="15.75">
-      <c r="A155" s="27"/>
-      <c r="B155" s="25"/>
+      <c r="A155" s="33"/>
+      <c r="B155" s="38"/>
       <c r="C155" s="7" t="s">
         <v>162</v>
       </c>
@@ -3640,8 +3640,8 @@
       <c r="I155" s="11"/>
     </row>
     <row r="156" spans="1:9" ht="15.75">
-      <c r="A156" s="27"/>
-      <c r="B156" s="25"/>
+      <c r="A156" s="33"/>
+      <c r="B156" s="38"/>
       <c r="C156" s="7" t="s">
         <v>163</v>
       </c>
@@ -3655,8 +3655,8 @@
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:9" ht="15.75">
-      <c r="A157" s="27"/>
-      <c r="B157" s="25"/>
+      <c r="A157" s="33"/>
+      <c r="B157" s="38"/>
       <c r="C157" s="7" t="s">
         <v>164</v>
       </c>
@@ -3670,8 +3670,8 @@
       <c r="I157" s="11"/>
     </row>
     <row r="158" spans="1:9" ht="15.75">
-      <c r="A158" s="27"/>
-      <c r="B158" s="25"/>
+      <c r="A158" s="33"/>
+      <c r="B158" s="38"/>
       <c r="C158" s="7" t="s">
         <v>165</v>
       </c>
@@ -3685,9 +3685,9 @@
       <c r="I158" s="11"/>
     </row>
     <row r="159" spans="1:9" ht="15.75">
-      <c r="A159" s="27"/>
-      <c r="B159" s="25"/>
-      <c r="C159" s="31" t="s">
+      <c r="A159" s="33"/>
+      <c r="B159" s="38"/>
+      <c r="C159" s="24" t="s">
         <v>166</v>
       </c>
       <c r="D159" s="2"/>
@@ -3698,8 +3698,8 @@
       <c r="I159" s="11"/>
     </row>
     <row r="160" spans="1:9" ht="15.75">
-      <c r="A160" s="27"/>
-      <c r="B160" s="25"/>
+      <c r="A160" s="33"/>
+      <c r="B160" s="38"/>
       <c r="C160" s="7" t="s">
         <v>167</v>
       </c>
@@ -3713,8 +3713,8 @@
       <c r="I160" s="11"/>
     </row>
     <row r="161" spans="1:9" ht="15.75">
-      <c r="A161" s="27"/>
-      <c r="B161" s="25"/>
+      <c r="A161" s="33"/>
+      <c r="B161" s="38"/>
       <c r="C161" s="7" t="s">
         <v>168</v>
       </c>
@@ -3728,8 +3728,8 @@
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="1:9" ht="15.75">
-      <c r="A162" s="27"/>
-      <c r="B162" s="25"/>
+      <c r="A162" s="33"/>
+      <c r="B162" s="38"/>
       <c r="C162" s="7" t="s">
         <v>169</v>
       </c>
@@ -3743,8 +3743,8 @@
       <c r="I162" s="11"/>
     </row>
     <row r="163" spans="1:9" ht="15.75">
-      <c r="A163" s="27"/>
-      <c r="B163" s="25"/>
+      <c r="A163" s="33"/>
+      <c r="B163" s="38"/>
       <c r="C163" s="7" t="s">
         <v>170</v>
       </c>
@@ -3758,8 +3758,8 @@
       <c r="I163" s="11"/>
     </row>
     <row r="164" spans="1:9" ht="15.75">
-      <c r="A164" s="27"/>
-      <c r="B164" s="25"/>
+      <c r="A164" s="33"/>
+      <c r="B164" s="38"/>
       <c r="C164" s="7" t="s">
         <v>171</v>
       </c>
@@ -3773,8 +3773,8 @@
       <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" ht="15.75">
-      <c r="A165" s="27"/>
-      <c r="B165" s="25"/>
+      <c r="A165" s="33"/>
+      <c r="B165" s="38"/>
       <c r="C165" s="7" t="s">
         <v>173</v>
       </c>
@@ -3788,8 +3788,8 @@
       <c r="I165" s="11"/>
     </row>
     <row r="166" spans="1:9" ht="15.75">
-      <c r="A166" s="27"/>
-      <c r="B166" s="25"/>
+      <c r="A166" s="33"/>
+      <c r="B166" s="38"/>
       <c r="C166" s="9" t="s">
         <v>172</v>
       </c>
@@ -3803,13 +3803,13 @@
       <c r="I166" s="11"/>
     </row>
     <row r="167" spans="1:9" ht="15.75">
-      <c r="A167" s="26">
+      <c r="A167" s="32">
         <v>6</v>
       </c>
-      <c r="B167" s="29" t="s">
+      <c r="B167" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="C167" s="31" t="s">
+      <c r="C167" s="24" t="s">
         <v>19</v>
       </c>
       <c r="D167" s="2"/>
@@ -3820,8 +3820,8 @@
       <c r="I167" s="11"/>
     </row>
     <row r="168" spans="1:9" ht="15.75">
-      <c r="A168" s="27"/>
-      <c r="B168" s="30"/>
+      <c r="A168" s="33"/>
+      <c r="B168" s="36"/>
       <c r="C168" s="7" t="s">
         <v>174</v>
       </c>
@@ -3833,8 +3833,8 @@
       <c r="I168" s="11"/>
     </row>
     <row r="169" spans="1:9" ht="15.75">
-      <c r="A169" s="27"/>
-      <c r="B169" s="30"/>
+      <c r="A169" s="33"/>
+      <c r="B169" s="36"/>
       <c r="C169" s="20" t="s">
         <v>175</v>
       </c>
@@ -3848,9 +3848,9 @@
       <c r="I169" s="11"/>
     </row>
     <row r="170" spans="1:9" ht="15.75">
-      <c r="A170" s="27"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="34" t="s">
+      <c r="A170" s="33"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="27" t="s">
         <v>176</v>
       </c>
       <c r="D170" s="2"/>
@@ -3861,8 +3861,8 @@
       <c r="I170" s="11"/>
     </row>
     <row r="171" spans="1:9" ht="15.75">
-      <c r="A171" s="27"/>
-      <c r="B171" s="30"/>
+      <c r="A171" s="33"/>
+      <c r="B171" s="36"/>
       <c r="C171" s="21" t="s">
         <v>178</v>
       </c>
@@ -3876,8 +3876,8 @@
       <c r="I171" s="11"/>
     </row>
     <row r="172" spans="1:9" ht="15.75">
-      <c r="A172" s="27"/>
-      <c r="B172" s="30"/>
+      <c r="A172" s="33"/>
+      <c r="B172" s="36"/>
       <c r="C172" s="23" t="s">
         <v>177</v>
       </c>
@@ -3891,8 +3891,8 @@
       <c r="I172" s="11"/>
     </row>
     <row r="173" spans="1:9" ht="15.75">
-      <c r="A173" s="27"/>
-      <c r="B173" s="30"/>
+      <c r="A173" s="33"/>
+      <c r="B173" s="36"/>
       <c r="C173" s="21" t="s">
         <v>179</v>
       </c>
@@ -3906,8 +3906,8 @@
       <c r="I173" s="11"/>
     </row>
     <row r="174" spans="1:9" ht="15.75">
-      <c r="A174" s="27"/>
-      <c r="B174" s="30"/>
+      <c r="A174" s="33"/>
+      <c r="B174" s="36"/>
       <c r="C174" s="21" t="s">
         <v>180</v>
       </c>
@@ -3921,8 +3921,8 @@
       <c r="I174" s="11"/>
     </row>
     <row r="175" spans="1:9" ht="15.75">
-      <c r="A175" s="27"/>
-      <c r="B175" s="30"/>
+      <c r="A175" s="33"/>
+      <c r="B175" s="36"/>
       <c r="C175" s="21" t="s">
         <v>181</v>
       </c>
@@ -3936,8 +3936,8 @@
       <c r="I175" s="11"/>
     </row>
     <row r="176" spans="1:9" ht="15.75">
-      <c r="A176" s="27"/>
-      <c r="B176" s="30"/>
+      <c r="A176" s="33"/>
+      <c r="B176" s="36"/>
       <c r="C176" s="21" t="s">
         <v>182</v>
       </c>
@@ -3951,9 +3951,9 @@
       <c r="I176" s="11"/>
     </row>
     <row r="177" spans="1:9" ht="15.75">
-      <c r="A177" s="27"/>
-      <c r="B177" s="30"/>
-      <c r="C177" s="34" t="s">
+      <c r="A177" s="33"/>
+      <c r="B177" s="36"/>
+      <c r="C177" s="27" t="s">
         <v>183</v>
       </c>
       <c r="D177" s="2"/>
@@ -3964,8 +3964,8 @@
       <c r="I177" s="11"/>
     </row>
     <row r="178" spans="1:9" ht="15.75">
-      <c r="A178" s="27"/>
-      <c r="B178" s="30"/>
+      <c r="A178" s="33"/>
+      <c r="B178" s="36"/>
       <c r="C178" s="21" t="s">
         <v>184</v>
       </c>
@@ -3979,8 +3979,8 @@
       <c r="I178" s="11"/>
     </row>
     <row r="179" spans="1:9" ht="15.75">
-      <c r="A179" s="27"/>
-      <c r="B179" s="30"/>
+      <c r="A179" s="33"/>
+      <c r="B179" s="36"/>
       <c r="C179" s="21" t="s">
         <v>185</v>
       </c>
@@ -3994,8 +3994,8 @@
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:9" ht="15.75">
-      <c r="A180" s="27"/>
-      <c r="B180" s="30"/>
+      <c r="A180" s="33"/>
+      <c r="B180" s="36"/>
       <c r="C180" s="21" t="s">
         <v>186</v>
       </c>
@@ -4009,8 +4009,8 @@
       <c r="I180" s="11"/>
     </row>
     <row r="181" spans="1:9" ht="15.75">
-      <c r="A181" s="27"/>
-      <c r="B181" s="30"/>
+      <c r="A181" s="33"/>
+      <c r="B181" s="36"/>
       <c r="C181" s="21" t="s">
         <v>187</v>
       </c>
@@ -4024,8 +4024,8 @@
       <c r="I181" s="11"/>
     </row>
     <row r="182" spans="1:9" ht="15.75">
-      <c r="A182" s="27"/>
-      <c r="B182" s="30"/>
+      <c r="A182" s="33"/>
+      <c r="B182" s="36"/>
       <c r="C182" s="21" t="s">
         <v>188</v>
       </c>
@@ -4039,8 +4039,8 @@
       <c r="I182" s="11"/>
     </row>
     <row r="183" spans="1:9" ht="15.75">
-      <c r="A183" s="27"/>
-      <c r="B183" s="30"/>
+      <c r="A183" s="33"/>
+      <c r="B183" s="36"/>
       <c r="C183" s="20" t="s">
         <v>189</v>
       </c>
@@ -4054,8 +4054,8 @@
       <c r="I183" s="11"/>
     </row>
     <row r="184" spans="1:9" ht="15.75">
-      <c r="A184" s="27"/>
-      <c r="B184" s="30"/>
+      <c r="A184" s="33"/>
+      <c r="B184" s="36"/>
       <c r="C184" s="7" t="s">
         <v>190</v>
       </c>
@@ -4069,9 +4069,9 @@
       <c r="I184" s="11"/>
     </row>
     <row r="185" spans="1:9" ht="15.75">
-      <c r="A185" s="27"/>
-      <c r="B185" s="30"/>
-      <c r="C185" s="31" t="s">
+      <c r="A185" s="33"/>
+      <c r="B185" s="36"/>
+      <c r="C185" s="24" t="s">
         <v>20</v>
       </c>
       <c r="D185" s="2"/>
@@ -4082,9 +4082,9 @@
       <c r="I185" s="11"/>
     </row>
     <row r="186" spans="1:9" ht="15.75">
-      <c r="A186" s="27"/>
-      <c r="B186" s="30"/>
-      <c r="C186" s="33" t="s">
+      <c r="A186" s="33"/>
+      <c r="B186" s="36"/>
+      <c r="C186" s="26" t="s">
         <v>191</v>
       </c>
       <c r="D186" s="2"/>
@@ -4095,8 +4095,8 @@
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" ht="15.75">
-      <c r="A187" s="27"/>
-      <c r="B187" s="30"/>
+      <c r="A187" s="33"/>
+      <c r="B187" s="36"/>
       <c r="C187" s="20" t="s">
         <v>192</v>
       </c>
@@ -4110,8 +4110,8 @@
       <c r="I187" s="11"/>
     </row>
     <row r="188" spans="1:9" ht="15.75">
-      <c r="A188" s="27"/>
-      <c r="B188" s="30"/>
+      <c r="A188" s="33"/>
+      <c r="B188" s="36"/>
       <c r="C188" s="20" t="s">
         <v>84</v>
       </c>
@@ -4125,8 +4125,8 @@
       <c r="I188" s="11"/>
     </row>
     <row r="189" spans="1:9" ht="15.75">
-      <c r="A189" s="27"/>
-      <c r="B189" s="30"/>
+      <c r="A189" s="33"/>
+      <c r="B189" s="36"/>
       <c r="C189" s="20" t="s">
         <v>194</v>
       </c>
@@ -4140,8 +4140,8 @@
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" ht="15.75">
-      <c r="A190" s="27"/>
-      <c r="B190" s="30"/>
+      <c r="A190" s="33"/>
+      <c r="B190" s="36"/>
       <c r="C190" s="20" t="s">
         <v>195</v>
       </c>
@@ -4155,9 +4155,9 @@
       <c r="I190" s="11"/>
     </row>
     <row r="191" spans="1:9" ht="15.75">
-      <c r="A191" s="27"/>
-      <c r="B191" s="30"/>
-      <c r="C191" s="33" t="s">
+      <c r="A191" s="33"/>
+      <c r="B191" s="36"/>
+      <c r="C191" s="26" t="s">
         <v>193</v>
       </c>
       <c r="D191" s="2"/>
@@ -4168,8 +4168,8 @@
       <c r="I191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="15.75">
-      <c r="A192" s="27"/>
-      <c r="B192" s="30"/>
+      <c r="A192" s="33"/>
+      <c r="B192" s="36"/>
       <c r="C192" s="20" t="s">
         <v>196</v>
       </c>
@@ -4183,8 +4183,8 @@
       <c r="I192" s="11"/>
     </row>
     <row r="193" spans="1:9" ht="15.75">
-      <c r="A193" s="27"/>
-      <c r="B193" s="30"/>
+      <c r="A193" s="33"/>
+      <c r="B193" s="36"/>
       <c r="C193" s="20" t="s">
         <v>197</v>
       </c>
@@ -4198,9 +4198,9 @@
       <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" ht="15.75">
-      <c r="A194" s="27"/>
-      <c r="B194" s="30"/>
-      <c r="C194" s="33" t="s">
+      <c r="A194" s="33"/>
+      <c r="B194" s="36"/>
+      <c r="C194" s="26" t="s">
         <v>198</v>
       </c>
       <c r="D194" s="2"/>
@@ -4211,8 +4211,8 @@
       <c r="I194" s="11"/>
     </row>
     <row r="195" spans="1:9" ht="15.75">
-      <c r="A195" s="27"/>
-      <c r="B195" s="30"/>
+      <c r="A195" s="33"/>
+      <c r="B195" s="36"/>
       <c r="C195" s="20" t="s">
         <v>79</v>
       </c>
@@ -4226,8 +4226,8 @@
       <c r="I195" s="11"/>
     </row>
     <row r="196" spans="1:9" ht="15.75">
-      <c r="A196" s="27"/>
-      <c r="B196" s="30"/>
+      <c r="A196" s="33"/>
+      <c r="B196" s="36"/>
       <c r="C196" s="20" t="s">
         <v>199</v>
       </c>
@@ -4241,8 +4241,8 @@
       <c r="I196" s="11"/>
     </row>
     <row r="197" spans="1:9" ht="15.75">
-      <c r="A197" s="27"/>
-      <c r="B197" s="30"/>
+      <c r="A197" s="33"/>
+      <c r="B197" s="36"/>
       <c r="C197" s="20" t="s">
         <v>200</v>
       </c>
@@ -4256,8 +4256,8 @@
       <c r="I197" s="11"/>
     </row>
     <row r="198" spans="1:9" ht="15.75">
-      <c r="A198" s="27"/>
-      <c r="B198" s="30"/>
+      <c r="A198" s="33"/>
+      <c r="B198" s="36"/>
       <c r="C198" s="20" t="s">
         <v>201</v>
       </c>
@@ -4271,8 +4271,8 @@
       <c r="I198" s="11"/>
     </row>
     <row r="199" spans="1:9" ht="15.75">
-      <c r="A199" s="27"/>
-      <c r="B199" s="30"/>
+      <c r="A199" s="33"/>
+      <c r="B199" s="36"/>
       <c r="C199" s="20" t="s">
         <v>202</v>
       </c>
@@ -4286,8 +4286,8 @@
       <c r="I199" s="11"/>
     </row>
     <row r="200" spans="1:9" ht="15.75">
-      <c r="A200" s="28"/>
-      <c r="B200" s="24"/>
+      <c r="A200" s="34"/>
+      <c r="B200" s="37"/>
       <c r="C200" s="9" t="s">
         <v>21</v>
       </c>
@@ -4523,18 +4523,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B2:B16"/>
+    <mergeCell ref="A2:A16"/>
+    <mergeCell ref="B17:B44"/>
+    <mergeCell ref="B45:B68"/>
+    <mergeCell ref="A45:A68"/>
+    <mergeCell ref="A17:A44"/>
     <mergeCell ref="A167:A200"/>
     <mergeCell ref="B167:B200"/>
     <mergeCell ref="B150:B166"/>
     <mergeCell ref="A150:A166"/>
     <mergeCell ref="B69:B149"/>
     <mergeCell ref="A69:A149"/>
-    <mergeCell ref="B2:B16"/>
-    <mergeCell ref="A2:A16"/>
-    <mergeCell ref="B17:B44"/>
-    <mergeCell ref="B45:B68"/>
-    <mergeCell ref="A45:A68"/>
-    <mergeCell ref="A17:A44"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G221">

--- a/Report/TasksheetFinal.xlsx
+++ b/Report/TasksheetFinal.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="20115" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -100,7 +100,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="232">
   <si>
     <t>No.</t>
   </si>
@@ -163,9 +163,6 @@
   </si>
   <si>
     <t>User’s Guide</t>
-  </si>
-  <si>
-    <t>Other</t>
   </si>
   <si>
     <t>Problem Definition</t>
@@ -751,6 +748,90 @@
       </rPr>
       <t xml:space="preserve"> </t>
     </r>
+  </si>
+  <si>
+    <t>All connection of the system</t>
+  </si>
+  <si>
+    <t>System features implementation</t>
+  </si>
+  <si>
+    <t>Sampling Background Color</t>
+  </si>
+  <si>
+    <t>Sampling The Following Image Color</t>
+  </si>
+  <si>
+    <t>Integration</t>
+  </si>
+  <si>
+    <t>Find the biggest contour</t>
+  </si>
+  <si>
+    <t>Process</t>
+  </si>
+  <si>
+    <t>Remove unnecessary elements</t>
+  </si>
+  <si>
+    <t>Detecting Hand</t>
+  </si>
+  <si>
+    <t>Create images containing features</t>
+  </si>
+  <si>
+    <t>Extract features</t>
+  </si>
+  <si>
+    <t>Hand Sign Recognition</t>
+  </si>
+  <si>
+    <t>Create SVM (Support Vector Machine) model by LIBSVM library</t>
+  </si>
+  <si>
+    <t>Recognize hand signs from its features</t>
+  </si>
+  <si>
+    <t>Selecting Function By Hand Gesture</t>
+  </si>
+  <si>
+    <t>Define position of hand gesture</t>
+  </si>
+  <si>
+    <t>Define which function is selected</t>
+  </si>
+  <si>
+    <t>Text to speech</t>
+  </si>
+  <si>
+    <t>Construct</t>
+  </si>
+  <si>
+    <t>Use espeak library to speak the content</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Hardware components to supply power</t>
+  </si>
+  <si>
+    <t>Monitor Battery Capacity Circuit</t>
+  </si>
+  <si>
+    <t>Notify Battery Capacity on LEDs</t>
+  </si>
+  <si>
+    <t>Notify Battery Capacity on the application</t>
+  </si>
+  <si>
+    <t>Connect hardware components</t>
+  </si>
+  <si>
+    <t>Handle the signal from hardware components</t>
+  </si>
+  <si>
+    <t>Design GUI</t>
   </si>
 </sst>
 </file>
@@ -922,7 +1003,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1001,6 +1082,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1016,11 +1103,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1324,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I223"/>
+  <dimension ref="A1:I269"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B133" workbookViewId="0">
-      <selection activeCell="F141" sqref="F141"/>
+    <sheetView tabSelected="1" topLeftCell="B220" workbookViewId="0">
+      <selection activeCell="G239" sqref="G239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1351,29 +1441,29 @@
         <v>2</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="F1" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="15" t="s">
+      <c r="G1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="15" t="s">
-        <v>38</v>
-      </c>
       <c r="H1" s="10" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="37">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="B2" s="37" t="s">
+      <c r="B2" s="32" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1389,25 +1479,25 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="38"/>
-      <c r="B3" s="38"/>
+      <c r="A3" s="33"/>
+      <c r="B3" s="33"/>
       <c r="C3" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H3" s="11"/>
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="38"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="33"/>
+      <c r="B4" s="33"/>
       <c r="C4" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
@@ -1419,10 +1509,10 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="38"/>
-      <c r="B5" s="38"/>
+      <c r="A5" s="33"/>
+      <c r="B5" s="33"/>
       <c r="C5" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
@@ -1434,10 +1524,10 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
+      <c r="A6" s="33"/>
+      <c r="B6" s="33"/>
       <c r="C6" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1447,40 +1537,40 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="38"/>
-      <c r="B7" s="38"/>
+      <c r="A7" s="33"/>
+      <c r="B7" s="33"/>
       <c r="C7" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D7" s="2"/>
+        <v>40</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="11"/>
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="38"/>
-      <c r="B8" s="38"/>
+      <c r="A8" s="33"/>
+      <c r="B8" s="33"/>
       <c r="C8" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="2"/>
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="38"/>
-      <c r="B9" s="38"/>
+      <c r="A9" s="33"/>
+      <c r="B9" s="33"/>
       <c r="C9" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -1490,10 +1580,10 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="38"/>
-      <c r="B10" s="38"/>
+      <c r="A10" s="33"/>
+      <c r="B10" s="33"/>
       <c r="C10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>8</v>
@@ -1505,10 +1595,10 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="38"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="33"/>
+      <c r="B11" s="33"/>
       <c r="C11" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>8</v>
@@ -1520,10 +1610,10 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="38"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="33"/>
+      <c r="B12" s="33"/>
       <c r="C12" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -1535,10 +1625,10 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="38"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="33"/>
+      <c r="B13" s="33"/>
       <c r="C13" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -1550,10 +1640,10 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="38"/>
-      <c r="B14" s="38"/>
+      <c r="A14" s="33"/>
+      <c r="B14" s="33"/>
       <c r="C14" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -1565,10 +1655,10 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
+      <c r="A15" s="33"/>
+      <c r="B15" s="33"/>
       <c r="C15" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -1580,10 +1670,10 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
       <c r="C16" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>8</v>
@@ -1595,14 +1685,14 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="38">
+      <c r="A17" s="33">
         <v>2</v>
       </c>
-      <c r="B17" s="38" t="s">
+      <c r="B17" s="33" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
@@ -1612,10 +1702,10 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
+      <c r="A18" s="33"/>
+      <c r="B18" s="33"/>
       <c r="C18" s="7" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>8</v>
@@ -1627,25 +1717,25 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="33"/>
+      <c r="B19" s="33"/>
       <c r="C19" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="D19" s="2"/>
+        <v>51</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E19" s="2"/>
-      <c r="F19" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="11"/>
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="33"/>
+      <c r="B20" s="33"/>
       <c r="C20" s="26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1655,10 +1745,10 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="33"/>
       <c r="C21" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -1670,25 +1760,23 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="33"/>
+      <c r="B22" s="33"/>
       <c r="C22" s="27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G22" s="2"/>
       <c r="H22" s="11"/>
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="38"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="33"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1700,10 +1788,10 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="33"/>
+      <c r="B24" s="33"/>
       <c r="C24" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
@@ -1715,10 +1803,10 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="33"/>
       <c r="C25" s="21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>8</v>
@@ -1730,10 +1818,10 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+      <c r="A26" s="33"/>
+      <c r="B26" s="33"/>
       <c r="C26" s="21" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2" t="s">
@@ -1745,10 +1833,10 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="33"/>
       <c r="C27" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1758,10 +1846,10 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+      <c r="A28" s="33"/>
+      <c r="B28" s="33"/>
       <c r="C28" s="21" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>8</v>
@@ -1773,25 +1861,25 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H29" s="11"/>
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="33"/>
+      <c r="B30" s="33"/>
       <c r="C30" s="27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
@@ -1801,10 +1889,10 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="33"/>
       <c r="C31" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
@@ -1816,10 +1904,10 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+      <c r="A32" s="33"/>
+      <c r="B32" s="33"/>
       <c r="C32" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
@@ -1831,8 +1919,8 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="38"/>
-      <c r="B33" s="38"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="33"/>
       <c r="C33" s="25" t="s">
         <v>10</v>
       </c>
@@ -1844,10 +1932,10 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="38"/>
-      <c r="B34" s="38"/>
+      <c r="A34" s="33"/>
+      <c r="B34" s="33"/>
       <c r="C34" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1857,10 +1945,10 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
+      <c r="A35" s="33"/>
+      <c r="B35" s="33"/>
       <c r="C35" s="20" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
@@ -1872,10 +1960,10 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="38"/>
-      <c r="B36" s="38"/>
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
       <c r="C36" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
@@ -1887,10 +1975,10 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="38"/>
-      <c r="B37" s="38"/>
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
       <c r="C37" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
@@ -1902,10 +1990,10 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="38"/>
-      <c r="B38" s="38"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="33"/>
       <c r="C38" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>8</v>
@@ -1917,10 +2005,10 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="38"/>
-      <c r="B39" s="38"/>
+      <c r="A39" s="33"/>
+      <c r="B39" s="33"/>
       <c r="C39" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>8</v>
@@ -1932,10 +2020,10 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="38"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="33"/>
+      <c r="B40" s="33"/>
       <c r="C40" s="24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
@@ -1945,10 +2033,10 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
+      <c r="A41" s="33"/>
+      <c r="B41" s="33"/>
       <c r="C41" s="7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
@@ -1960,10 +2048,10 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="38"/>
-      <c r="B42" s="38"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="33"/>
       <c r="C42" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2" t="s">
@@ -1975,40 +2063,40 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="38"/>
-      <c r="B43" s="38"/>
+      <c r="A43" s="33"/>
+      <c r="B43" s="33"/>
       <c r="C43" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="2"/>
+        <v>59</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
-      <c r="G43" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="11"/>
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="38"/>
-      <c r="B44" s="38"/>
+      <c r="A44" s="33"/>
+      <c r="B44" s="33"/>
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="G44" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H44" s="11"/>
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="38">
+      <c r="A45" s="33">
         <v>3</v>
       </c>
-      <c r="B45" s="38" t="s">
+      <c r="B45" s="33" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2024,8 +2112,8 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="38"/>
-      <c r="B46" s="38"/>
+      <c r="A46" s="33"/>
+      <c r="B46" s="33"/>
       <c r="C46" s="25" t="s">
         <v>13</v>
       </c>
@@ -2037,8 +2125,8 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="38"/>
-      <c r="B47" s="38"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="33"/>
       <c r="C47" s="28" t="s">
         <v>14</v>
       </c>
@@ -2050,10 +2138,10 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="38"/>
-      <c r="B48" s="38"/>
+      <c r="A48" s="33"/>
+      <c r="B48" s="33"/>
       <c r="C48" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2" t="s">
@@ -2065,10 +2153,10 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="38"/>
-      <c r="B49" s="38"/>
+      <c r="A49" s="33"/>
+      <c r="B49" s="33"/>
       <c r="C49" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
@@ -2080,10 +2168,10 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="38"/>
-      <c r="B50" s="38"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="33"/>
       <c r="C50" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2095,10 +2183,10 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="38"/>
-      <c r="B51" s="38"/>
+      <c r="A51" s="33"/>
+      <c r="B51" s="33"/>
       <c r="C51" s="5" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D51" s="2" t="s">
         <v>8</v>
@@ -2110,10 +2198,10 @@
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="38"/>
-      <c r="B52" s="38"/>
+      <c r="A52" s="33"/>
+      <c r="B52" s="33"/>
       <c r="C52" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
@@ -2123,10 +2211,10 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="38"/>
-      <c r="B53" s="38"/>
+      <c r="A53" s="33"/>
+      <c r="B53" s="33"/>
       <c r="C53" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D53" s="2" t="s">
         <v>8</v>
@@ -2138,10 +2226,10 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="38"/>
-      <c r="B54" s="38"/>
+      <c r="A54" s="33"/>
+      <c r="B54" s="33"/>
       <c r="C54" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D54" s="2" t="s">
         <v>8</v>
@@ -2153,10 +2241,10 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="38"/>
-      <c r="B55" s="38"/>
+      <c r="A55" s="33"/>
+      <c r="B55" s="33"/>
       <c r="C55" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
@@ -2168,10 +2256,10 @@
       <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="38"/>
-      <c r="B56" s="38"/>
+      <c r="A56" s="33"/>
+      <c r="B56" s="33"/>
       <c r="C56" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
@@ -2183,10 +2271,10 @@
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="38"/>
-      <c r="B57" s="38"/>
+      <c r="A57" s="33"/>
+      <c r="B57" s="33"/>
       <c r="C57" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
@@ -2198,10 +2286,10 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="38"/>
-      <c r="B58" s="38"/>
+      <c r="A58" s="33"/>
+      <c r="B58" s="33"/>
       <c r="C58" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2" t="s">
@@ -2213,10 +2301,10 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="38"/>
-      <c r="B59" s="38"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="33"/>
       <c r="C59" s="29" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
@@ -2226,10 +2314,10 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="38"/>
-      <c r="B60" s="38"/>
+      <c r="A60" s="33"/>
+      <c r="B60" s="33"/>
       <c r="C60" s="28" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
@@ -2239,10 +2327,10 @@
       <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="38"/>
-      <c r="B61" s="38"/>
+      <c r="A61" s="33"/>
+      <c r="B61" s="33"/>
       <c r="C61" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
@@ -2254,10 +2342,10 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="38"/>
-      <c r="B62" s="38"/>
+      <c r="A62" s="33"/>
+      <c r="B62" s="33"/>
       <c r="C62" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2" t="s">
@@ -2269,10 +2357,10 @@
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="38"/>
-      <c r="B63" s="38"/>
+      <c r="A63" s="33"/>
+      <c r="B63" s="33"/>
       <c r="C63" s="6" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
@@ -2284,8 +2372,8 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="38"/>
-      <c r="B64" s="38"/>
+      <c r="A64" s="33"/>
+      <c r="B64" s="33"/>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
@@ -2299,8 +2387,8 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="38"/>
-      <c r="B65" s="38"/>
+      <c r="A65" s="33"/>
+      <c r="B65" s="33"/>
       <c r="C65" s="5" t="s">
         <v>16</v>
       </c>
@@ -2314,10 +2402,10 @@
       <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="38"/>
-      <c r="B66" s="38"/>
+      <c r="A66" s="33"/>
+      <c r="B66" s="33"/>
       <c r="C66" s="5" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2" t="s">
@@ -2329,10 +2417,10 @@
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="38"/>
-      <c r="B67" s="38"/>
+      <c r="A67" s="33"/>
+      <c r="B67" s="33"/>
       <c r="C67" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
@@ -2344,10 +2432,10 @@
       <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="38"/>
-      <c r="B68" s="38"/>
+      <c r="A68" s="33"/>
+      <c r="B68" s="33"/>
       <c r="C68" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>8</v>
@@ -2359,14 +2447,14 @@
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="35">
+      <c r="A69" s="37">
         <v>4</v>
       </c>
-      <c r="B69" s="35" t="s">
+      <c r="B69" s="37" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
@@ -2378,10 +2466,10 @@
       <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="36"/>
-      <c r="B70" s="36"/>
+      <c r="A70" s="38"/>
+      <c r="B70" s="38"/>
       <c r="C70" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
@@ -2393,8 +2481,8 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="36"/>
-      <c r="B71" s="36"/>
+      <c r="A71" s="38"/>
+      <c r="B71" s="38"/>
       <c r="C71" s="8" t="s">
         <v>17</v>
       </c>
@@ -2408,10 +2496,10 @@
       <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="36"/>
-      <c r="B72" s="36"/>
+      <c r="A72" s="38"/>
+      <c r="B72" s="38"/>
       <c r="C72" s="24" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
@@ -2421,10 +2509,10 @@
       <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="36"/>
-      <c r="B73" s="36"/>
+      <c r="A73" s="38"/>
+      <c r="B73" s="38"/>
       <c r="C73" s="26" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
@@ -2434,10 +2522,10 @@
       <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="36"/>
-      <c r="B74" s="36"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="38"/>
       <c r="C74" s="20" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D74" s="2" t="s">
         <v>8</v>
@@ -2449,10 +2537,10 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="36"/>
-      <c r="B75" s="36"/>
+      <c r="A75" s="38"/>
+      <c r="B75" s="38"/>
       <c r="C75" s="30" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
@@ -2462,40 +2550,40 @@
       <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="36"/>
-      <c r="B76" s="36"/>
+      <c r="A76" s="38"/>
+      <c r="B76" s="38"/>
       <c r="C76" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76" s="2"/>
-      <c r="E76" s="2"/>
+      <c r="E76" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F76" s="2"/>
-      <c r="G76" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G76" s="2"/>
       <c r="H76" s="11"/>
       <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="36"/>
-      <c r="B77" s="36"/>
+      <c r="A77" s="38"/>
+      <c r="B77" s="38"/>
       <c r="C77" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77" s="2"/>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
       <c r="H77" s="11"/>
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="36"/>
-      <c r="B78" s="36"/>
+      <c r="A78" s="38"/>
+      <c r="B78" s="38"/>
       <c r="C78" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D78" s="2" t="s">
         <v>8</v>
@@ -2507,10 +2595,10 @@
       <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="36"/>
-      <c r="B79" s="36"/>
+      <c r="A79" s="38"/>
+      <c r="B79" s="38"/>
       <c r="C79" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D79" s="2" t="s">
         <v>8</v>
@@ -2522,10 +2610,10 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="36"/>
-      <c r="B80" s="36"/>
+      <c r="A80" s="38"/>
+      <c r="B80" s="38"/>
       <c r="C80" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
@@ -2537,10 +2625,10 @@
       <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="36"/>
-      <c r="B81" s="36"/>
+      <c r="A81" s="38"/>
+      <c r="B81" s="38"/>
       <c r="C81" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D81" s="2" t="s">
         <v>8</v>
@@ -2552,25 +2640,25 @@
       <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="36"/>
-      <c r="B82" s="36"/>
+      <c r="A82" s="38"/>
+      <c r="B82" s="38"/>
       <c r="C82" s="22" t="s">
-        <v>105</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E82" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
       <c r="H82" s="11"/>
       <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="36"/>
-      <c r="B83" s="36"/>
+      <c r="A83" s="38"/>
+      <c r="B83" s="38"/>
       <c r="C83" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
@@ -2582,40 +2670,40 @@
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="36"/>
-      <c r="B84" s="36"/>
+      <c r="A84" s="38"/>
+      <c r="B84" s="38"/>
       <c r="C84" s="22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D84" s="2"/>
-      <c r="E84" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
+      <c r="G84" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H84" s="11"/>
       <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="36"/>
-      <c r="B85" s="36"/>
+      <c r="A85" s="38"/>
+      <c r="B85" s="38"/>
       <c r="C85" s="22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2"/>
-      <c r="F85" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H85" s="11"/>
       <c r="I85" s="11"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="36"/>
-      <c r="B86" s="36"/>
+      <c r="A86" s="38"/>
+      <c r="B86" s="38"/>
       <c r="C86" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2"/>
@@ -2627,25 +2715,25 @@
       <c r="I86" s="11"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="36"/>
-      <c r="B87" s="36"/>
+      <c r="A87" s="38"/>
+      <c r="B87" s="38"/>
       <c r="C87" s="22" t="s">
-        <v>110</v>
-      </c>
-      <c r="D87" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E87" s="2"/>
+        <v>109</v>
+      </c>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F87" s="2"/>
       <c r="G87" s="2"/>
       <c r="H87" s="11"/>
       <c r="I87" s="11"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="36"/>
-      <c r="B88" s="36"/>
+      <c r="A88" s="38"/>
+      <c r="B88" s="38"/>
       <c r="C88" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
@@ -2657,10 +2745,10 @@
       <c r="I88" s="11"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="36"/>
-      <c r="B89" s="36"/>
+      <c r="A89" s="38"/>
+      <c r="B89" s="38"/>
       <c r="C89" s="22" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D89" s="2" t="s">
         <v>8</v>
@@ -2672,10 +2760,10 @@
       <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="36"/>
-      <c r="B90" s="36"/>
+      <c r="A90" s="38"/>
+      <c r="B90" s="38"/>
       <c r="C90" s="22" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D90" s="2" t="s">
         <v>8</v>
@@ -2687,10 +2775,10 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="36"/>
-      <c r="B91" s="36"/>
+      <c r="A91" s="38"/>
+      <c r="B91" s="38"/>
       <c r="C91" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D91" s="2" t="s">
         <v>8</v>
@@ -2702,10 +2790,10 @@
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="36"/>
-      <c r="B92" s="36"/>
+      <c r="A92" s="38"/>
+      <c r="B92" s="38"/>
       <c r="C92" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
@@ -2717,8 +2805,8 @@
       <c r="I92" s="11"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="36"/>
-      <c r="B93" s="36"/>
+      <c r="A93" s="38"/>
+      <c r="B93" s="38"/>
       <c r="C93" s="30" t="s">
         <v>18</v>
       </c>
@@ -2730,10 +2818,10 @@
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="36"/>
-      <c r="B94" s="36"/>
+      <c r="A94" s="38"/>
+      <c r="B94" s="38"/>
       <c r="C94" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
@@ -2745,10 +2833,10 @@
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="36"/>
-      <c r="B95" s="36"/>
+      <c r="A95" s="38"/>
+      <c r="B95" s="38"/>
       <c r="C95" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>8</v>
@@ -2760,10 +2848,10 @@
       <c r="I95" s="11"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="36"/>
-      <c r="B96" s="36"/>
+      <c r="A96" s="38"/>
+      <c r="B96" s="38"/>
       <c r="C96" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
@@ -2775,10 +2863,10 @@
       <c r="I96" s="11"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="36"/>
-      <c r="B97" s="36"/>
+      <c r="A97" s="38"/>
+      <c r="B97" s="38"/>
       <c r="C97" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2"/>
@@ -2790,10 +2878,10 @@
       <c r="I97" s="11"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="36"/>
-      <c r="B98" s="36"/>
+      <c r="A98" s="38"/>
+      <c r="B98" s="38"/>
       <c r="C98" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2"/>
@@ -2805,10 +2893,10 @@
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="36"/>
-      <c r="B99" s="36"/>
+      <c r="A99" s="38"/>
+      <c r="B99" s="38"/>
       <c r="C99" s="22" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
@@ -2820,10 +2908,10 @@
       <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="36"/>
-      <c r="B100" s="36"/>
+      <c r="A100" s="38"/>
+      <c r="B100" s="38"/>
       <c r="C100" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" s="2"/>
@@ -2833,10 +2921,10 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="36"/>
-      <c r="B101" s="36"/>
+      <c r="A101" s="38"/>
+      <c r="B101" s="38"/>
       <c r="C101" s="20" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" s="2"/>
@@ -2848,10 +2936,10 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="36"/>
-      <c r="B102" s="36"/>
+      <c r="A102" s="38"/>
+      <c r="B102" s="38"/>
       <c r="C102" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2863,10 +2951,10 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="36"/>
-      <c r="B103" s="36"/>
+      <c r="A103" s="38"/>
+      <c r="B103" s="38"/>
       <c r="C103" s="27" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
@@ -2876,10 +2964,10 @@
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="36"/>
-      <c r="B104" s="36"/>
+      <c r="A104" s="38"/>
+      <c r="B104" s="38"/>
       <c r="C104" s="22" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
@@ -2891,10 +2979,10 @@
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="36"/>
-      <c r="B105" s="36"/>
+      <c r="A105" s="38"/>
+      <c r="B105" s="38"/>
       <c r="C105" s="22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
@@ -2906,10 +2994,10 @@
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="36"/>
-      <c r="B106" s="36"/>
+      <c r="A106" s="38"/>
+      <c r="B106" s="38"/>
       <c r="C106" s="22" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
@@ -2921,10 +3009,10 @@
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="36"/>
-      <c r="B107" s="36"/>
+      <c r="A107" s="38"/>
+      <c r="B107" s="38"/>
       <c r="C107" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -2936,10 +3024,10 @@
       <c r="I107" s="11"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="36"/>
-      <c r="B108" s="36"/>
+      <c r="A108" s="38"/>
+      <c r="B108" s="38"/>
       <c r="C108" s="24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
@@ -2949,10 +3037,10 @@
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="36"/>
-      <c r="B109" s="36"/>
+      <c r="A109" s="38"/>
+      <c r="B109" s="38"/>
       <c r="C109" s="26" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
@@ -2962,10 +3050,10 @@
       <c r="I109" s="11"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="36"/>
-      <c r="B110" s="36"/>
+      <c r="A110" s="38"/>
+      <c r="B110" s="38"/>
       <c r="C110" s="20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>8</v>
@@ -2977,10 +3065,10 @@
       <c r="I110" s="11"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="36"/>
-      <c r="B111" s="36"/>
+      <c r="A111" s="38"/>
+      <c r="B111" s="38"/>
       <c r="C111" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D111" s="2" t="s">
         <v>8</v>
@@ -2992,10 +3080,10 @@
       <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="36"/>
-      <c r="B112" s="36"/>
+      <c r="A112" s="38"/>
+      <c r="B112" s="38"/>
       <c r="C112" s="20" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
@@ -3007,10 +3095,10 @@
       <c r="I112" s="11"/>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="36"/>
-      <c r="B113" s="36"/>
+      <c r="A113" s="38"/>
+      <c r="B113" s="38"/>
       <c r="C113" s="20" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
@@ -3022,10 +3110,10 @@
       <c r="I113" s="11"/>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="36"/>
-      <c r="B114" s="36"/>
+      <c r="A114" s="38"/>
+      <c r="B114" s="38"/>
       <c r="C114" s="20" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" s="2"/>
@@ -3037,10 +3125,10 @@
       <c r="I114" s="11"/>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="36"/>
-      <c r="B115" s="36"/>
+      <c r="A115" s="38"/>
+      <c r="B115" s="38"/>
       <c r="C115" s="7" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2"/>
@@ -3052,10 +3140,10 @@
       <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="36"/>
-      <c r="B116" s="36"/>
+      <c r="A116" s="38"/>
+      <c r="B116" s="38"/>
       <c r="C116" s="24" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
@@ -3065,10 +3153,10 @@
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="36"/>
-      <c r="B117" s="36"/>
+      <c r="A117" s="38"/>
+      <c r="B117" s="38"/>
       <c r="C117" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
@@ -3080,10 +3168,10 @@
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="36"/>
-      <c r="B118" s="36"/>
+      <c r="A118" s="38"/>
+      <c r="B118" s="38"/>
       <c r="C118" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
@@ -3095,10 +3183,10 @@
       <c r="I118" s="11"/>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="36"/>
-      <c r="B119" s="36"/>
+      <c r="A119" s="38"/>
+      <c r="B119" s="38"/>
       <c r="C119" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" s="2"/>
@@ -3108,10 +3196,10 @@
       <c r="I119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="36"/>
-      <c r="B120" s="36"/>
+      <c r="A120" s="38"/>
+      <c r="B120" s="38"/>
       <c r="C120" s="26" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" s="2"/>
@@ -3121,10 +3209,10 @@
       <c r="I120" s="11"/>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="36"/>
-      <c r="B121" s="36"/>
+      <c r="A121" s="38"/>
+      <c r="B121" s="38"/>
       <c r="C121" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D121" s="2" t="s">
         <v>8</v>
@@ -3136,10 +3224,10 @@
       <c r="I121" s="11"/>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="36"/>
-      <c r="B122" s="36"/>
+      <c r="A122" s="38"/>
+      <c r="B122" s="38"/>
       <c r="C122" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D122" s="2" t="s">
         <v>8</v>
@@ -3151,10 +3239,10 @@
       <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="36"/>
-      <c r="B123" s="36"/>
+      <c r="A123" s="38"/>
+      <c r="B123" s="38"/>
       <c r="C123" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>8</v>
@@ -3166,10 +3254,10 @@
       <c r="I123" s="11"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="36"/>
-      <c r="B124" s="36"/>
+      <c r="A124" s="38"/>
+      <c r="B124" s="38"/>
       <c r="C124" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>8</v>
@@ -3181,10 +3269,10 @@
       <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="36"/>
-      <c r="B125" s="36"/>
+      <c r="A125" s="38"/>
+      <c r="B125" s="38"/>
       <c r="C125" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
@@ -3196,10 +3284,10 @@
       <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="36"/>
-      <c r="B126" s="36"/>
+      <c r="A126" s="38"/>
+      <c r="B126" s="38"/>
       <c r="C126" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2"/>
@@ -3209,10 +3297,10 @@
       <c r="I126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="36"/>
-      <c r="B127" s="36"/>
+      <c r="A127" s="38"/>
+      <c r="B127" s="38"/>
       <c r="C127" s="21" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D127" s="2" t="s">
         <v>8</v>
@@ -3224,10 +3312,10 @@
       <c r="I127" s="11"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="36"/>
-      <c r="B128" s="36"/>
+      <c r="A128" s="38"/>
+      <c r="B128" s="38"/>
       <c r="C128" s="21" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
@@ -3239,10 +3327,10 @@
       <c r="I128" s="11"/>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="36"/>
-      <c r="B129" s="36"/>
+      <c r="A129" s="38"/>
+      <c r="B129" s="38"/>
       <c r="C129" s="21" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
@@ -3254,10 +3342,10 @@
       <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="36"/>
-      <c r="B130" s="36"/>
+      <c r="A130" s="38"/>
+      <c r="B130" s="38"/>
       <c r="C130" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
@@ -3269,10 +3357,10 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="36"/>
-      <c r="B131" s="36"/>
+      <c r="A131" s="38"/>
+      <c r="B131" s="38"/>
       <c r="C131" s="20" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D131" s="2" t="s">
         <v>8</v>
@@ -3284,10 +3372,10 @@
       <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="36"/>
-      <c r="B132" s="36"/>
+      <c r="A132" s="38"/>
+      <c r="B132" s="38"/>
       <c r="C132" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D132" s="2" t="s">
         <v>8</v>
@@ -3299,10 +3387,10 @@
       <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="36"/>
-      <c r="B133" s="36"/>
+      <c r="A133" s="38"/>
+      <c r="B133" s="38"/>
       <c r="C133" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
@@ -3312,10 +3400,10 @@
       <c r="I133" s="11"/>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="36"/>
-      <c r="B134" s="36"/>
+      <c r="A134" s="38"/>
+      <c r="B134" s="38"/>
       <c r="C134" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>8</v>
@@ -3327,10 +3415,10 @@
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="36"/>
-      <c r="B135" s="36"/>
+      <c r="A135" s="38"/>
+      <c r="B135" s="38"/>
       <c r="C135" s="20" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D135" s="2" t="s">
         <v>8</v>
@@ -3342,10 +3430,10 @@
       <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="36"/>
-      <c r="B136" s="36"/>
+      <c r="A136" s="38"/>
+      <c r="B136" s="38"/>
       <c r="C136" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>8</v>
@@ -3357,10 +3445,10 @@
       <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="36"/>
-      <c r="B137" s="36"/>
+      <c r="A137" s="38"/>
+      <c r="B137" s="38"/>
       <c r="C137" s="20" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>8</v>
@@ -3372,10 +3460,10 @@
       <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="36"/>
-      <c r="B138" s="36"/>
+      <c r="A138" s="38"/>
+      <c r="B138" s="38"/>
       <c r="C138" s="20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>8</v>
@@ -3387,25 +3475,25 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="36"/>
-      <c r="B139" s="36"/>
+      <c r="A139" s="38"/>
+      <c r="B139" s="38"/>
       <c r="C139" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D139" s="2"/>
-      <c r="E139" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>149</v>
+      </c>
+      <c r="D139" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E139" s="2"/>
       <c r="F139" s="2"/>
       <c r="G139" s="2"/>
       <c r="H139" s="11"/>
       <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="36"/>
-      <c r="B140" s="36"/>
+      <c r="A140" s="38"/>
+      <c r="B140" s="38"/>
       <c r="C140" s="21" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
@@ -3417,10 +3505,10 @@
       <c r="I140" s="11"/>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="36"/>
-      <c r="B141" s="36"/>
+      <c r="A141" s="38"/>
+      <c r="B141" s="38"/>
       <c r="C141" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
@@ -3432,10 +3520,10 @@
       <c r="I141" s="11"/>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="36"/>
-      <c r="B142" s="36"/>
+      <c r="A142" s="38"/>
+      <c r="B142" s="38"/>
       <c r="C142" s="21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
@@ -3447,10 +3535,10 @@
       <c r="I142" s="11"/>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="36"/>
-      <c r="B143" s="36"/>
+      <c r="A143" s="38"/>
+      <c r="B143" s="38"/>
       <c r="C143" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D143" s="2" t="s">
         <v>8</v>
@@ -3462,10 +3550,10 @@
       <c r="I143" s="11"/>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="36"/>
-      <c r="B144" s="36"/>
+      <c r="A144" s="38"/>
+      <c r="B144" s="38"/>
       <c r="C144" s="20" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D144" s="2" t="s">
         <v>8</v>
@@ -3477,10 +3565,10 @@
       <c r="I144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="36"/>
-      <c r="B145" s="36"/>
+      <c r="A145" s="38"/>
+      <c r="B145" s="38"/>
       <c r="C145" s="26" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" s="2"/>
@@ -3490,10 +3578,10 @@
       <c r="I145" s="11"/>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="36"/>
-      <c r="B146" s="36"/>
+      <c r="A146" s="38"/>
+      <c r="B146" s="38"/>
       <c r="C146" s="20" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
@@ -3505,10 +3593,10 @@
       <c r="I146" s="11"/>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="36"/>
-      <c r="B147" s="36"/>
+      <c r="A147" s="38"/>
+      <c r="B147" s="38"/>
       <c r="C147" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D147" s="2" t="s">
         <v>8</v>
@@ -3520,10 +3608,10 @@
       <c r="I147" s="11"/>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="36"/>
-      <c r="B148" s="36"/>
+      <c r="A148" s="38"/>
+      <c r="B148" s="38"/>
       <c r="C148" s="20" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>8</v>
@@ -3535,10 +3623,10 @@
       <c r="I148" s="11"/>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="36"/>
-      <c r="B149" s="36"/>
+      <c r="A149" s="38"/>
+      <c r="B149" s="38"/>
       <c r="C149" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>8</v>
@@ -3550,14 +3638,14 @@
       <c r="I149" s="11"/>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="32">
+      <c r="A150" s="34">
         <v>5</v>
       </c>
-      <c r="B150" s="38" t="s">
-        <v>24</v>
+      <c r="B150" s="33" t="s">
+        <v>23</v>
       </c>
       <c r="C150" s="25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2"/>
@@ -3567,10 +3655,10 @@
       <c r="I150" s="11"/>
     </row>
     <row r="151" spans="1:9" ht="15.75">
-      <c r="A151" s="33"/>
-      <c r="B151" s="38"/>
+      <c r="A151" s="35"/>
+      <c r="B151" s="33"/>
       <c r="C151" s="7" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2"/>
@@ -3582,10 +3670,10 @@
       <c r="I151" s="11"/>
     </row>
     <row r="152" spans="1:9" ht="15.75">
-      <c r="A152" s="33"/>
-      <c r="B152" s="38"/>
+      <c r="A152" s="35"/>
+      <c r="B152" s="33"/>
       <c r="C152" s="7" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
@@ -3597,10 +3685,10 @@
       <c r="I152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="15.75">
-      <c r="A153" s="33"/>
-      <c r="B153" s="38"/>
+      <c r="A153" s="35"/>
+      <c r="B153" s="33"/>
       <c r="C153" s="9" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
@@ -3612,10 +3700,10 @@
       <c r="I153" s="11"/>
     </row>
     <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="33"/>
-      <c r="B154" s="38"/>
+      <c r="A154" s="35"/>
+      <c r="B154" s="33"/>
       <c r="C154" s="25" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
@@ -3625,10 +3713,10 @@
       <c r="I154" s="11"/>
     </row>
     <row r="155" spans="1:9" ht="15.75">
-      <c r="A155" s="33"/>
-      <c r="B155" s="38"/>
+      <c r="A155" s="35"/>
+      <c r="B155" s="33"/>
       <c r="C155" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
@@ -3640,10 +3728,10 @@
       <c r="I155" s="11"/>
     </row>
     <row r="156" spans="1:9" ht="15.75">
-      <c r="A156" s="33"/>
-      <c r="B156" s="38"/>
+      <c r="A156" s="35"/>
+      <c r="B156" s="33"/>
       <c r="C156" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2" t="s">
@@ -3655,10 +3743,10 @@
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:9" ht="15.75">
-      <c r="A157" s="33"/>
-      <c r="B157" s="38"/>
+      <c r="A157" s="35"/>
+      <c r="B157" s="33"/>
       <c r="C157" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
@@ -3670,10 +3758,10 @@
       <c r="I157" s="11"/>
     </row>
     <row r="158" spans="1:9" ht="15.75">
-      <c r="A158" s="33"/>
-      <c r="B158" s="38"/>
+      <c r="A158" s="35"/>
+      <c r="B158" s="33"/>
       <c r="C158" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
@@ -3685,10 +3773,10 @@
       <c r="I158" s="11"/>
     </row>
     <row r="159" spans="1:9" ht="15.75">
-      <c r="A159" s="33"/>
-      <c r="B159" s="38"/>
+      <c r="A159" s="35"/>
+      <c r="B159" s="33"/>
       <c r="C159" s="24" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
@@ -3698,55 +3786,55 @@
       <c r="I159" s="11"/>
     </row>
     <row r="160" spans="1:9" ht="15.75">
-      <c r="A160" s="33"/>
-      <c r="B160" s="38"/>
+      <c r="A160" s="35"/>
+      <c r="B160" s="33"/>
       <c r="C160" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="D160" s="2"/>
-      <c r="E160" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="D160" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E160" s="2"/>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
     </row>
     <row r="161" spans="1:9" ht="15.75">
-      <c r="A161" s="33"/>
-      <c r="B161" s="38"/>
+      <c r="A161" s="35"/>
+      <c r="B161" s="33"/>
       <c r="C161" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D161" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E161" s="2"/>
+        <v>167</v>
+      </c>
+      <c r="D161" s="2"/>
+      <c r="E161" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="1:9" ht="15.75">
-      <c r="A162" s="33"/>
-      <c r="B162" s="38"/>
+      <c r="A162" s="35"/>
+      <c r="B162" s="33"/>
       <c r="C162" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="D162" s="2"/>
-      <c r="E162" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="D162" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E162" s="2"/>
       <c r="F162" s="2"/>
       <c r="G162" s="2"/>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
     </row>
     <row r="163" spans="1:9" ht="15.75">
-      <c r="A163" s="33"/>
-      <c r="B163" s="38"/>
+      <c r="A163" s="35"/>
+      <c r="B163" s="33"/>
       <c r="C163" s="7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2"/>
@@ -3758,10 +3846,10 @@
       <c r="I163" s="11"/>
     </row>
     <row r="164" spans="1:9" ht="15.75">
-      <c r="A164" s="33"/>
-      <c r="B164" s="38"/>
+      <c r="A164" s="35"/>
+      <c r="B164" s="33"/>
       <c r="C164" s="7" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
@@ -3773,10 +3861,10 @@
       <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" ht="15.75">
-      <c r="A165" s="33"/>
-      <c r="B165" s="38"/>
+      <c r="A165" s="35"/>
+      <c r="B165" s="33"/>
       <c r="C165" s="7" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2"/>
@@ -3788,10 +3876,10 @@
       <c r="I165" s="11"/>
     </row>
     <row r="166" spans="1:9" ht="15.75">
-      <c r="A166" s="33"/>
-      <c r="B166" s="38"/>
+      <c r="A166" s="35"/>
+      <c r="B166" s="33"/>
       <c r="C166" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D166" s="2" t="s">
         <v>8</v>
@@ -3803,10 +3891,10 @@
       <c r="I166" s="11"/>
     </row>
     <row r="167" spans="1:9" ht="15.75">
-      <c r="A167" s="32">
+      <c r="A167" s="34">
         <v>6</v>
       </c>
-      <c r="B167" s="35" t="s">
+      <c r="B167" s="37" t="s">
         <v>7</v>
       </c>
       <c r="C167" s="24" t="s">
@@ -3820,10 +3908,10 @@
       <c r="I167" s="11"/>
     </row>
     <row r="168" spans="1:9" ht="15.75">
-      <c r="A168" s="33"/>
-      <c r="B168" s="36"/>
-      <c r="C168" s="7" t="s">
-        <v>174</v>
+      <c r="A168" s="35"/>
+      <c r="B168" s="38"/>
+      <c r="C168" s="26" t="s">
+        <v>173</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2"/>
@@ -3833,10 +3921,10 @@
       <c r="I168" s="11"/>
     </row>
     <row r="169" spans="1:9" ht="15.75">
-      <c r="A169" s="33"/>
-      <c r="B169" s="36"/>
+      <c r="A169" s="35"/>
+      <c r="B169" s="38"/>
       <c r="C169" s="20" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2"/>
@@ -3848,10 +3936,10 @@
       <c r="I169" s="11"/>
     </row>
     <row r="170" spans="1:9" ht="15.75">
-      <c r="A170" s="33"/>
-      <c r="B170" s="36"/>
+      <c r="A170" s="35"/>
+      <c r="B170" s="38"/>
       <c r="C170" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
@@ -3861,10 +3949,10 @@
       <c r="I170" s="11"/>
     </row>
     <row r="171" spans="1:9" ht="15.75">
-      <c r="A171" s="33"/>
-      <c r="B171" s="36"/>
+      <c r="A171" s="35"/>
+      <c r="B171" s="38"/>
       <c r="C171" s="21" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3876,10 +3964,10 @@
       <c r="I171" s="11"/>
     </row>
     <row r="172" spans="1:9" ht="15.75">
-      <c r="A172" s="33"/>
-      <c r="B172" s="36"/>
+      <c r="A172" s="35"/>
+      <c r="B172" s="38"/>
       <c r="C172" s="23" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
@@ -3891,10 +3979,10 @@
       <c r="I172" s="11"/>
     </row>
     <row r="173" spans="1:9" ht="15.75">
-      <c r="A173" s="33"/>
-      <c r="B173" s="36"/>
+      <c r="A173" s="35"/>
+      <c r="B173" s="38"/>
       <c r="C173" s="21" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
@@ -3906,10 +3994,10 @@
       <c r="I173" s="11"/>
     </row>
     <row r="174" spans="1:9" ht="15.75">
-      <c r="A174" s="33"/>
-      <c r="B174" s="36"/>
+      <c r="A174" s="35"/>
+      <c r="B174" s="38"/>
       <c r="C174" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
@@ -3921,10 +4009,10 @@
       <c r="I174" s="11"/>
     </row>
     <row r="175" spans="1:9" ht="15.75">
-      <c r="A175" s="33"/>
-      <c r="B175" s="36"/>
+      <c r="A175" s="35"/>
+      <c r="B175" s="38"/>
       <c r="C175" s="21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
@@ -3936,10 +4024,10 @@
       <c r="I175" s="11"/>
     </row>
     <row r="176" spans="1:9" ht="15.75">
-      <c r="A176" s="33"/>
-      <c r="B176" s="36"/>
+      <c r="A176" s="35"/>
+      <c r="B176" s="38"/>
       <c r="C176" s="21" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
@@ -3951,27 +4039,27 @@
       <c r="I176" s="11"/>
     </row>
     <row r="177" spans="1:9" ht="15.75">
-      <c r="A177" s="33"/>
-      <c r="B177" s="36"/>
-      <c r="C177" s="27" t="s">
-        <v>183</v>
+      <c r="A177" s="35"/>
+      <c r="B177" s="38"/>
+      <c r="C177" s="21" t="s">
+        <v>204</v>
       </c>
       <c r="D177" s="2"/>
-      <c r="E177" s="2"/>
+      <c r="E177" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
     </row>
     <row r="178" spans="1:9" ht="15.75">
-      <c r="A178" s="33"/>
-      <c r="B178" s="36"/>
-      <c r="C178" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A178" s="35"/>
+      <c r="B178" s="38"/>
+      <c r="C178" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
       <c r="G178" s="2"/>
@@ -3979,10 +4067,10 @@
       <c r="I178" s="11"/>
     </row>
     <row r="179" spans="1:9" ht="15.75">
-      <c r="A179" s="33"/>
-      <c r="B179" s="36"/>
+      <c r="A179" s="35"/>
+      <c r="B179" s="38"/>
       <c r="C179" s="21" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D179" s="2" t="s">
         <v>8</v>
@@ -3994,10 +4082,10 @@
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:9" ht="15.75">
-      <c r="A180" s="33"/>
-      <c r="B180" s="36"/>
+      <c r="A180" s="35"/>
+      <c r="B180" s="38"/>
       <c r="C180" s="21" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D180" s="2" t="s">
         <v>8</v>
@@ -4009,10 +4097,10 @@
       <c r="I180" s="11"/>
     </row>
     <row r="181" spans="1:9" ht="15.75">
-      <c r="A181" s="33"/>
-      <c r="B181" s="36"/>
+      <c r="A181" s="35"/>
+      <c r="B181" s="38"/>
       <c r="C181" s="21" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D181" s="2" t="s">
         <v>8</v>
@@ -4024,10 +4112,10 @@
       <c r="I181" s="11"/>
     </row>
     <row r="182" spans="1:9" ht="15.75">
-      <c r="A182" s="33"/>
-      <c r="B182" s="36"/>
+      <c r="A182" s="35"/>
+      <c r="B182" s="38"/>
       <c r="C182" s="21" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D182" s="2" t="s">
         <v>8</v>
@@ -4039,10 +4127,10 @@
       <c r="I182" s="11"/>
     </row>
     <row r="183" spans="1:9" ht="15.75">
-      <c r="A183" s="33"/>
-      <c r="B183" s="36"/>
-      <c r="C183" s="20" t="s">
-        <v>189</v>
+      <c r="A183" s="35"/>
+      <c r="B183" s="38"/>
+      <c r="C183" s="21" t="s">
+        <v>187</v>
       </c>
       <c r="D183" s="2" t="s">
         <v>8</v>
@@ -4054,10 +4142,10 @@
       <c r="I183" s="11"/>
     </row>
     <row r="184" spans="1:9" ht="15.75">
-      <c r="A184" s="33"/>
-      <c r="B184" s="36"/>
-      <c r="C184" s="7" t="s">
-        <v>190</v>
+      <c r="A184" s="35"/>
+      <c r="B184" s="38"/>
+      <c r="C184" s="20" t="s">
+        <v>188</v>
       </c>
       <c r="D184" s="2" t="s">
         <v>8</v>
@@ -4069,12 +4157,14 @@
       <c r="I184" s="11"/>
     </row>
     <row r="185" spans="1:9" ht="15.75">
-      <c r="A185" s="33"/>
-      <c r="B185" s="36"/>
-      <c r="C185" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D185" s="2"/>
+      <c r="A185" s="35"/>
+      <c r="B185" s="38"/>
+      <c r="C185" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -4082,10 +4172,10 @@
       <c r="I185" s="11"/>
     </row>
     <row r="186" spans="1:9" ht="15.75">
-      <c r="A186" s="33"/>
-      <c r="B186" s="36"/>
-      <c r="C186" s="26" t="s">
-        <v>191</v>
+      <c r="A186" s="35"/>
+      <c r="B186" s="38"/>
+      <c r="C186" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2"/>
@@ -4095,25 +4185,23 @@
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" ht="15.75">
-      <c r="A187" s="33"/>
-      <c r="B187" s="36"/>
-      <c r="C187" s="20" t="s">
-        <v>192</v>
+      <c r="A187" s="35"/>
+      <c r="B187" s="38"/>
+      <c r="C187" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="D187" s="2"/>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
-      <c r="G187" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G187" s="2"/>
       <c r="H187" s="11"/>
       <c r="I187" s="11"/>
     </row>
     <row r="188" spans="1:9" ht="15.75">
-      <c r="A188" s="33"/>
-      <c r="B188" s="36"/>
+      <c r="A188" s="35"/>
+      <c r="B188" s="38"/>
       <c r="C188" s="20" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
       <c r="D188" s="2"/>
       <c r="E188" s="2"/>
@@ -4125,100 +4213,100 @@
       <c r="I188" s="11"/>
     </row>
     <row r="189" spans="1:9" ht="15.75">
-      <c r="A189" s="33"/>
-      <c r="B189" s="36"/>
+      <c r="A189" s="35"/>
+      <c r="B189" s="38"/>
       <c r="C189" s="20" t="s">
-        <v>194</v>
+        <v>83</v>
       </c>
       <c r="D189" s="2"/>
-      <c r="E189" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F189" s="2"/>
+      <c r="E189" s="2"/>
+      <c r="F189" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G189" s="2"/>
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" ht="15.75">
-      <c r="A190" s="33"/>
-      <c r="B190" s="36"/>
+      <c r="A190" s="35"/>
+      <c r="B190" s="38"/>
       <c r="C190" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D190" s="2"/>
-      <c r="E190" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F190" s="2"/>
+      <c r="E190" s="2"/>
+      <c r="F190" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G190" s="2"/>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
     </row>
     <row r="191" spans="1:9" ht="15.75">
-      <c r="A191" s="33"/>
-      <c r="B191" s="36"/>
-      <c r="C191" s="26" t="s">
-        <v>193</v>
+      <c r="A191" s="35"/>
+      <c r="B191" s="38"/>
+      <c r="C191" s="20" t="s">
+        <v>194</v>
       </c>
       <c r="D191" s="2"/>
       <c r="E191" s="2"/>
-      <c r="F191" s="2"/>
+      <c r="F191" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G191" s="2"/>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="15.75">
-      <c r="A192" s="33"/>
-      <c r="B192" s="36"/>
-      <c r="C192" s="20" t="s">
-        <v>196</v>
+      <c r="A192" s="35"/>
+      <c r="B192" s="38"/>
+      <c r="C192" s="26" t="s">
+        <v>192</v>
       </c>
       <c r="D192" s="2"/>
       <c r="E192" s="2"/>
-      <c r="F192" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F192" s="2"/>
       <c r="G192" s="2"/>
       <c r="H192" s="11"/>
       <c r="I192" s="11"/>
     </row>
     <row r="193" spans="1:9" ht="15.75">
-      <c r="A193" s="33"/>
-      <c r="B193" s="36"/>
+      <c r="A193" s="35"/>
+      <c r="B193" s="38"/>
       <c r="C193" s="20" t="s">
-        <v>197</v>
-      </c>
-      <c r="D193" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E193" s="2"/>
+        <v>195</v>
+      </c>
+      <c r="D193" s="2"/>
+      <c r="E193" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" ht="15.75">
-      <c r="A194" s="33"/>
-      <c r="B194" s="36"/>
-      <c r="C194" s="26" t="s">
-        <v>198</v>
+      <c r="A194" s="35"/>
+      <c r="B194" s="38"/>
+      <c r="C194" s="20" t="s">
+        <v>196</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="2"/>
+      <c r="G194" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
     </row>
     <row r="195" spans="1:9" ht="15.75">
-      <c r="A195" s="33"/>
-      <c r="B195" s="36"/>
-      <c r="C195" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D195" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A195" s="35"/>
+      <c r="B195" s="38"/>
+      <c r="C195" s="26" t="s">
+        <v>197</v>
+      </c>
+      <c r="D195" s="2"/>
       <c r="E195" s="2"/>
       <c r="F195" s="2"/>
       <c r="G195" s="2"/>
@@ -4226,25 +4314,25 @@
       <c r="I195" s="11"/>
     </row>
     <row r="196" spans="1:9" ht="15.75">
-      <c r="A196" s="33"/>
-      <c r="B196" s="36"/>
+      <c r="A196" s="35"/>
+      <c r="B196" s="38"/>
       <c r="C196" s="20" t="s">
-        <v>199</v>
+        <v>78</v>
       </c>
       <c r="D196" s="2"/>
-      <c r="E196" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E196" s="2"/>
       <c r="F196" s="2"/>
-      <c r="G196" s="2"/>
+      <c r="G196" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
     </row>
     <row r="197" spans="1:9" ht="15.75">
-      <c r="A197" s="33"/>
-      <c r="B197" s="36"/>
+      <c r="A197" s="35"/>
+      <c r="B197" s="38"/>
       <c r="C197" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D197" s="2"/>
       <c r="E197" s="2" t="s">
@@ -4256,288 +4344,1008 @@
       <c r="I197" s="11"/>
     </row>
     <row r="198" spans="1:9" ht="15.75">
-      <c r="A198" s="33"/>
-      <c r="B198" s="36"/>
+      <c r="A198" s="35"/>
+      <c r="B198" s="38"/>
       <c r="C198" s="20" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D198" s="2"/>
-      <c r="E198" s="2"/>
+      <c r="E198" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F198" s="2"/>
-      <c r="G198" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G198" s="2"/>
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
     </row>
     <row r="199" spans="1:9" ht="15.75">
-      <c r="A199" s="33"/>
-      <c r="B199" s="36"/>
+      <c r="A199" s="35"/>
+      <c r="B199" s="38"/>
       <c r="C199" s="20" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D199" s="2"/>
-      <c r="E199" s="2"/>
-      <c r="F199" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E199" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
     </row>
     <row r="200" spans="1:9" ht="15.75">
-      <c r="A200" s="34"/>
-      <c r="B200" s="37"/>
-      <c r="C200" s="9" t="s">
-        <v>21</v>
+      <c r="A200" s="35"/>
+      <c r="B200" s="38"/>
+      <c r="C200" s="20" t="s">
+        <v>201</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2"/>
       <c r="F200" s="2"/>
-      <c r="G200" s="2"/>
+      <c r="G200" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
     </row>
-    <row r="201" spans="1:9">
-      <c r="A201" s="3"/>
-      <c r="B201" s="3"/>
-      <c r="C201" s="1"/>
-      <c r="D201" s="3"/>
-      <c r="E201" s="3"/>
-      <c r="F201" s="3"/>
-      <c r="G201" s="3"/>
-      <c r="I201" s="3"/>
-    </row>
-    <row r="202" spans="1:9">
-      <c r="A202" s="16" t="s">
+    <row r="201" spans="1:9" ht="15.75">
+      <c r="A201" s="36"/>
+      <c r="B201" s="32"/>
+      <c r="C201" s="9"/>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
+      <c r="F201" s="2"/>
+      <c r="G201" s="2"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="11"/>
+    </row>
+    <row r="202" spans="1:9" ht="15.75">
+      <c r="A202" s="34">
+        <v>5</v>
+      </c>
+      <c r="B202" s="33" t="s">
+        <v>205</v>
+      </c>
+      <c r="C202" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
+      <c r="F202" s="2"/>
+      <c r="G202" s="2"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="11"/>
+    </row>
+    <row r="203" spans="1:9" ht="15.75">
+      <c r="A203" s="35"/>
+      <c r="B203" s="33"/>
+      <c r="C203" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D203" s="2"/>
+      <c r="E203" s="2"/>
+      <c r="F203" s="2"/>
+      <c r="G203" s="2"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="11"/>
+    </row>
+    <row r="204" spans="1:9" s="41" customFormat="1" ht="15.75">
+      <c r="A204" s="35"/>
+      <c r="B204" s="33"/>
+      <c r="C204" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="D204" s="39"/>
+      <c r="E204" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="39"/>
+      <c r="G204" s="39"/>
+      <c r="H204" s="40"/>
+      <c r="I204" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" s="41" customFormat="1" ht="15.75">
+      <c r="A205" s="35"/>
+      <c r="B205" s="33"/>
+      <c r="C205" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D205" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="E205" s="39"/>
+      <c r="F205" s="39"/>
+      <c r="G205" s="39"/>
+      <c r="H205" s="40"/>
+      <c r="I205" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" s="41" customFormat="1" ht="15.75">
+      <c r="A206" s="35"/>
+      <c r="B206" s="33"/>
+      <c r="C206" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="D206" s="39"/>
+      <c r="E206" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="39"/>
+      <c r="G206" s="39"/>
+      <c r="H206" s="40"/>
+      <c r="I206" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" ht="15.75">
+      <c r="A207" s="35"/>
+      <c r="B207" s="33"/>
+      <c r="C207" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E207" s="2"/>
+      <c r="F207" s="2"/>
+      <c r="G207" s="2"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" ht="15.75">
+      <c r="A208" s="35"/>
+      <c r="B208" s="33"/>
+      <c r="C208" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="D208" s="2"/>
+      <c r="E208" s="2"/>
+      <c r="F208" s="2"/>
+      <c r="G208" s="2"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="11"/>
+    </row>
+    <row r="209" spans="1:9" ht="15.75">
+      <c r="A209" s="35"/>
+      <c r="B209" s="33"/>
+      <c r="C209" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D209" s="2"/>
+      <c r="E209" s="2"/>
+      <c r="F209" s="2"/>
+      <c r="G209" s="2"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="11"/>
+    </row>
+    <row r="210" spans="1:9" ht="15.75">
+      <c r="A210" s="35"/>
+      <c r="B210" s="33"/>
+      <c r="C210" s="20" t="s">
+        <v>209</v>
+      </c>
+      <c r="D210" s="2"/>
+      <c r="E210" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F210" s="2"/>
+      <c r="G210" s="2"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" ht="15.75">
+      <c r="A211" s="35"/>
+      <c r="B211" s="33"/>
+      <c r="C211" s="20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D211" s="2"/>
+      <c r="E211" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="2"/>
+      <c r="G211" s="2"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" ht="15.75">
+      <c r="A212" s="35"/>
+      <c r="B212" s="33"/>
+      <c r="C212" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="2"/>
+      <c r="F212" s="2"/>
+      <c r="G212" s="2"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="15.75">
+      <c r="A213" s="35"/>
+      <c r="B213" s="33"/>
+      <c r="C213" s="25" t="s">
+        <v>148</v>
+      </c>
+      <c r="D213" s="2"/>
+      <c r="E213" s="2"/>
+      <c r="F213" s="2"/>
+      <c r="G213" s="2"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="11"/>
+    </row>
+    <row r="214" spans="1:9" ht="15.75">
+      <c r="A214" s="35"/>
+      <c r="B214" s="33"/>
+      <c r="C214" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D214" s="2"/>
+      <c r="E214" s="2"/>
+      <c r="F214" s="2"/>
+      <c r="G214" s="2"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="11"/>
+    </row>
+    <row r="215" spans="1:9" ht="15.75">
+      <c r="A215" s="35"/>
+      <c r="B215" s="33"/>
+      <c r="C215" s="20" t="s">
+        <v>213</v>
+      </c>
+      <c r="D215" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E215" s="2"/>
+      <c r="F215" s="2"/>
+      <c r="G215" s="2"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="15.75">
+      <c r="A216" s="35"/>
+      <c r="B216" s="33"/>
+      <c r="C216" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D216" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E216" s="2"/>
+      <c r="F216" s="2"/>
+      <c r="G216" s="2"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="15.75">
+      <c r="A217" s="35"/>
+      <c r="B217" s="33"/>
+      <c r="C217" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D217" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E217" s="2"/>
+      <c r="F217" s="2"/>
+      <c r="G217" s="2"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="15.75">
+      <c r="A218" s="35"/>
+      <c r="B218" s="33"/>
+      <c r="C218" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="D218" s="2"/>
+      <c r="E218" s="2"/>
+      <c r="F218" s="2"/>
+      <c r="G218" s="2"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="11"/>
+    </row>
+    <row r="219" spans="1:9" ht="15.75">
+      <c r="A219" s="35"/>
+      <c r="B219" s="33"/>
+      <c r="C219" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D219" s="2"/>
+      <c r="E219" s="2"/>
+      <c r="F219" s="2"/>
+      <c r="G219" s="2"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="11"/>
+    </row>
+    <row r="220" spans="1:9" ht="15.75">
+      <c r="A220" s="35"/>
+      <c r="B220" s="33"/>
+      <c r="C220" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E220" s="2"/>
+      <c r="F220" s="2"/>
+      <c r="G220" s="2"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" ht="15.75">
+      <c r="A221" s="35"/>
+      <c r="B221" s="33"/>
+      <c r="C221" s="20" t="s">
+        <v>217</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E221" s="2"/>
+      <c r="F221" s="2"/>
+      <c r="G221" s="2"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" ht="15.75">
+      <c r="A222" s="35"/>
+      <c r="B222" s="33"/>
+      <c r="C222" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E222" s="2"/>
+      <c r="F222" s="2"/>
+      <c r="G222" s="2"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" ht="15.75">
+      <c r="A223" s="35"/>
+      <c r="B223" s="33"/>
+      <c r="C223" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="D223" s="2"/>
+      <c r="E223" s="2"/>
+      <c r="F223" s="2"/>
+      <c r="G223" s="2"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="11"/>
+    </row>
+    <row r="224" spans="1:9" ht="15.75">
+      <c r="A224" s="35"/>
+      <c r="B224" s="33"/>
+      <c r="C224" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D224" s="2"/>
+      <c r="E224" s="2"/>
+      <c r="F224" s="2"/>
+      <c r="G224" s="2"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="11"/>
+    </row>
+    <row r="225" spans="1:9" ht="15.75">
+      <c r="A225" s="35"/>
+      <c r="B225" s="33"/>
+      <c r="C225" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="D225" s="2"/>
+      <c r="E225" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F225" s="2"/>
+      <c r="G225" s="2"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" ht="15.75">
+      <c r="A226" s="35"/>
+      <c r="B226" s="33"/>
+      <c r="C226" s="20" t="s">
+        <v>220</v>
+      </c>
+      <c r="D226" s="2"/>
+      <c r="E226" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F226" s="2"/>
+      <c r="G226" s="2"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" ht="15.75">
+      <c r="A227" s="35"/>
+      <c r="B227" s="33"/>
+      <c r="C227" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D227" s="2"/>
+      <c r="E227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F227" s="2"/>
+      <c r="G227" s="2"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" ht="15.75">
+      <c r="A228" s="35"/>
+      <c r="B228" s="33"/>
+      <c r="C228" s="25" t="s">
+        <v>221</v>
+      </c>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="11"/>
+    </row>
+    <row r="229" spans="1:9" ht="15.75">
+      <c r="A229" s="35"/>
+      <c r="B229" s="33"/>
+      <c r="C229" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="11"/>
+    </row>
+    <row r="230" spans="1:9" ht="15.75">
+      <c r="A230" s="35"/>
+      <c r="B230" s="33"/>
+      <c r="C230" s="20" t="s">
+        <v>222</v>
+      </c>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H230" s="11"/>
+      <c r="I230" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" ht="15.75">
+      <c r="A231" s="35"/>
+      <c r="B231" s="33"/>
+      <c r="C231" s="20" t="s">
+        <v>223</v>
+      </c>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H231" s="11"/>
+      <c r="I231" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" ht="15.75">
+      <c r="A232" s="35"/>
+      <c r="B232" s="33"/>
+      <c r="C232" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H232" s="11"/>
+      <c r="I232" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" ht="15.75">
+      <c r="A233" s="35"/>
+      <c r="B233" s="33"/>
+      <c r="C233" s="25" t="s">
+        <v>224</v>
+      </c>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="11"/>
+    </row>
+    <row r="234" spans="1:9" ht="15.75">
+      <c r="A234" s="35"/>
+      <c r="B234" s="33"/>
+      <c r="C234" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="11"/>
+    </row>
+    <row r="235" spans="1:9" ht="15.75">
+      <c r="A235" s="35"/>
+      <c r="B235" s="33"/>
+      <c r="C235" s="20" t="s">
+        <v>225</v>
+      </c>
+      <c r="D235" s="2"/>
+      <c r="E235" s="2"/>
+      <c r="F235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235" s="2"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" ht="15.75">
+      <c r="A236" s="35"/>
+      <c r="B236" s="33"/>
+      <c r="C236" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D236" s="2"/>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G236" s="2"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="15.75">
+      <c r="A237" s="35"/>
+      <c r="B237" s="33"/>
+      <c r="C237" s="20" t="s">
+        <v>226</v>
+      </c>
+      <c r="D237" s="2"/>
+      <c r="E237" s="2"/>
+      <c r="F237" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G237" s="2"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" ht="15.75">
+      <c r="A238" s="35"/>
+      <c r="B238" s="33"/>
+      <c r="C238" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D238" s="2"/>
+      <c r="E238" s="2"/>
+      <c r="F238" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G238" s="2"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" ht="15.75">
+      <c r="A239" s="35"/>
+      <c r="B239" s="33"/>
+      <c r="C239" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D239" s="2"/>
+      <c r="E239" s="2"/>
+      <c r="F239" s="2"/>
+      <c r="G239" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H239" s="11"/>
+      <c r="I239" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" ht="15.75">
+      <c r="A240" s="35"/>
+      <c r="B240" s="33"/>
+      <c r="C240" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="D240" s="2"/>
+      <c r="E240" s="2"/>
+      <c r="F240" s="2"/>
+      <c r="G240" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H240" s="11"/>
+      <c r="I240" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" ht="15.75">
+      <c r="A241" s="35"/>
+      <c r="B241" s="33"/>
+      <c r="C241" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D241" s="2"/>
+      <c r="E241" s="2"/>
+      <c r="F241" s="2"/>
+      <c r="G241" s="2"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="11"/>
+    </row>
+    <row r="242" spans="1:9" ht="15.75">
+      <c r="A242" s="35"/>
+      <c r="B242" s="33"/>
+      <c r="C242" s="26" t="s">
+        <v>210</v>
+      </c>
+      <c r="D242" s="2"/>
+      <c r="E242" s="2"/>
+      <c r="F242" s="2"/>
+      <c r="G242" s="2"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="11"/>
+    </row>
+    <row r="243" spans="1:9" ht="15.75">
+      <c r="A243" s="35"/>
+      <c r="B243" s="33"/>
+      <c r="C243" s="20" t="s">
+        <v>229</v>
+      </c>
+      <c r="D243" s="2"/>
+      <c r="E243" s="2"/>
+      <c r="F243" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G243" s="2"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" ht="15.75">
+      <c r="A244" s="35"/>
+      <c r="B244" s="33"/>
+      <c r="C244" s="20" t="s">
+        <v>230</v>
+      </c>
+      <c r="D244" s="2"/>
+      <c r="E244" s="2"/>
+      <c r="F244" s="2"/>
+      <c r="G244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H244" s="11"/>
+      <c r="I244" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" ht="15.75">
+      <c r="A245" s="35"/>
+      <c r="B245" s="33"/>
+      <c r="C245" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D245" s="2"/>
+      <c r="E245" s="2"/>
+      <c r="F245" s="2"/>
+      <c r="G245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H245" s="11"/>
+      <c r="I245" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" ht="15.75">
+      <c r="A246" s="35"/>
+      <c r="B246" s="33"/>
+      <c r="C246" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D246" s="2"/>
+      <c r="E246" s="2"/>
+      <c r="F246" s="2"/>
+      <c r="G246" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H246" s="11"/>
+      <c r="I246" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
+      <c r="A247" s="3"/>
+      <c r="B247" s="3"/>
+      <c r="C247" s="1"/>
+      <c r="D247" s="3"/>
+      <c r="E247" s="3"/>
+      <c r="F247" s="3"/>
+      <c r="G247" s="3"/>
+      <c r="I247" s="3"/>
+    </row>
+    <row r="248" spans="1:9">
+      <c r="A248" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B248" s="3"/>
+      <c r="C248" s="1"/>
+      <c r="D248" s="3"/>
+      <c r="E248" s="3"/>
+      <c r="F248" s="3"/>
+      <c r="G248" s="3"/>
+      <c r="I248" s="3"/>
+    </row>
+    <row r="249" spans="1:9">
+      <c r="A249" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B249" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B202" s="3"/>
-      <c r="C202" s="1"/>
-      <c r="D202" s="3"/>
-      <c r="E202" s="3"/>
-      <c r="F202" s="3"/>
-      <c r="G202" s="3"/>
-      <c r="I202" s="3"/>
-    </row>
-    <row r="203" spans="1:9">
-      <c r="A203" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B203" s="17" t="s">
+      <c r="C249" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C203" s="4" t="s">
+      <c r="D249" s="3"/>
+      <c r="E249" s="3"/>
+      <c r="F249" s="3"/>
+      <c r="G249" s="3"/>
+      <c r="I249" s="3"/>
+    </row>
+    <row r="250" spans="1:9" ht="60">
+      <c r="A250" s="17">
+        <v>1</v>
+      </c>
+      <c r="B250" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C250" s="4">
+        <v>1</v>
+      </c>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="I250" s="3"/>
+    </row>
+    <row r="251" spans="1:9" ht="30">
+      <c r="A251" s="19">
+        <v>2</v>
+      </c>
+      <c r="B251" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D203" s="3"/>
-      <c r="E203" s="3"/>
-      <c r="F203" s="3"/>
-      <c r="G203" s="3"/>
-      <c r="I203" s="3"/>
-    </row>
-    <row r="204" spans="1:9" ht="60">
-      <c r="A204" s="17">
-        <v>1</v>
-      </c>
-      <c r="B204" s="18" t="s">
+      <c r="C251" s="19">
+        <v>2</v>
+      </c>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="I251" s="3"/>
+    </row>
+    <row r="252" spans="1:9" ht="30">
+      <c r="A252" s="19">
+        <v>3</v>
+      </c>
+      <c r="B252" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C252" s="19">
+        <v>3</v>
+      </c>
+      <c r="D252" s="3"/>
+      <c r="E252" s="3"/>
+      <c r="F252" s="3"/>
+      <c r="G252" s="3"/>
+      <c r="I252" s="3"/>
+    </row>
+    <row r="253" spans="1:9" ht="30">
+      <c r="A253" s="19">
+        <v>4</v>
+      </c>
+      <c r="B253" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C253" s="19">
+        <v>4</v>
+      </c>
+      <c r="D253" s="3"/>
+      <c r="E253" s="3"/>
+      <c r="F253" s="3"/>
+      <c r="G253" s="3"/>
+      <c r="I253" s="3"/>
+    </row>
+    <row r="254" spans="1:9" ht="30">
+      <c r="A254" s="19">
+        <v>5</v>
+      </c>
+      <c r="B254" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C204" s="4">
-        <v>1</v>
-      </c>
-      <c r="D204" s="3"/>
-      <c r="E204" s="3"/>
-      <c r="F204" s="3"/>
-      <c r="G204" s="3"/>
-      <c r="I204" s="3"/>
-    </row>
-    <row r="205" spans="1:9" ht="30">
-      <c r="A205" s="19">
-        <v>2</v>
-      </c>
-      <c r="B205" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C205" s="19">
-        <v>2</v>
-      </c>
-      <c r="D205" s="3"/>
-      <c r="E205" s="3"/>
-      <c r="F205" s="3"/>
-      <c r="G205" s="3"/>
-      <c r="I205" s="3"/>
-    </row>
-    <row r="206" spans="1:9" ht="30">
-      <c r="A206" s="19">
-        <v>3</v>
-      </c>
-      <c r="B206" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C206" s="19">
-        <v>3</v>
-      </c>
-      <c r="D206" s="3"/>
-      <c r="E206" s="3"/>
-      <c r="F206" s="3"/>
-      <c r="G206" s="3"/>
-      <c r="I206" s="3"/>
-    </row>
-    <row r="207" spans="1:9" ht="30">
-      <c r="A207" s="19">
-        <v>4</v>
-      </c>
-      <c r="B207" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="C207" s="19">
-        <v>4</v>
-      </c>
-      <c r="D207" s="3"/>
-      <c r="E207" s="3"/>
-      <c r="F207" s="3"/>
-      <c r="G207" s="3"/>
-      <c r="I207" s="3"/>
-    </row>
-    <row r="208" spans="1:9" ht="30">
-      <c r="A208" s="19">
+      <c r="C254" s="19">
         <v>5</v>
       </c>
-      <c r="B208" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C208" s="19">
-        <v>5</v>
-      </c>
-      <c r="D208" s="3"/>
-      <c r="E208" s="3"/>
-      <c r="F208" s="3"/>
-      <c r="G208" s="3"/>
-      <c r="I208" s="3"/>
-    </row>
-    <row r="209" spans="4:9">
-      <c r="D209" s="3"/>
-      <c r="E209" s="3"/>
-      <c r="F209" s="3"/>
-      <c r="G209" s="3"/>
-      <c r="I209" s="3"/>
-    </row>
-    <row r="210" spans="4:9">
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-      <c r="G210" s="3"/>
-      <c r="I210" s="3"/>
-    </row>
-    <row r="211" spans="4:9">
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-      <c r="G211" s="3"/>
-      <c r="I211" s="3"/>
-    </row>
-    <row r="212" spans="4:9">
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-      <c r="G212" s="3"/>
-      <c r="I212" s="3"/>
-    </row>
-    <row r="213" spans="4:9">
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-      <c r="G213" s="3"/>
-      <c r="I213" s="3"/>
-    </row>
-    <row r="214" spans="4:9">
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-      <c r="G214" s="3"/>
-      <c r="I214" s="3"/>
-    </row>
-    <row r="215" spans="4:9">
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-      <c r="G215" s="3"/>
-      <c r="I215" s="3"/>
-    </row>
-    <row r="216" spans="4:9">
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-      <c r="G216" s="3"/>
-      <c r="I216" s="3"/>
-    </row>
-    <row r="217" spans="4:9">
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-      <c r="G217" s="3"/>
-      <c r="I217" s="3"/>
-    </row>
-    <row r="218" spans="4:9">
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-      <c r="G218" s="3"/>
-      <c r="I218" s="3"/>
-    </row>
-    <row r="219" spans="4:9">
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-      <c r="G219" s="3"/>
-      <c r="I219" s="3"/>
-    </row>
-    <row r="220" spans="4:9">
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-      <c r="G220" s="3"/>
-      <c r="I220" s="3"/>
-    </row>
-    <row r="221" spans="4:9">
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-      <c r="G221" s="3"/>
-      <c r="I221" s="3"/>
-    </row>
-    <row r="222" spans="4:9">
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-      <c r="G222" s="3"/>
-      <c r="I222" s="3"/>
-    </row>
-    <row r="223" spans="4:9">
-      <c r="D223" s="3"/>
-      <c r="E223" s="3"/>
-      <c r="F223" s="3"/>
-      <c r="G223" s="3"/>
-      <c r="I223" s="3"/>
+      <c r="D254" s="3"/>
+      <c r="E254" s="3"/>
+      <c r="F254" s="3"/>
+      <c r="G254" s="3"/>
+      <c r="I254" s="3"/>
+    </row>
+    <row r="255" spans="1:9">
+      <c r="D255" s="3"/>
+      <c r="E255" s="3"/>
+      <c r="F255" s="3"/>
+      <c r="G255" s="3"/>
+      <c r="I255" s="3"/>
+    </row>
+    <row r="256" spans="1:9">
+      <c r="D256" s="3"/>
+      <c r="E256" s="3"/>
+      <c r="F256" s="3"/>
+      <c r="G256" s="3"/>
+      <c r="I256" s="3"/>
+    </row>
+    <row r="257" spans="4:9">
+      <c r="D257" s="3"/>
+      <c r="E257" s="3"/>
+      <c r="F257" s="3"/>
+      <c r="G257" s="3"/>
+      <c r="I257" s="3"/>
+    </row>
+    <row r="258" spans="4:9">
+      <c r="D258" s="3"/>
+      <c r="E258" s="3"/>
+      <c r="F258" s="3"/>
+      <c r="G258" s="3"/>
+      <c r="I258" s="3"/>
+    </row>
+    <row r="259" spans="4:9">
+      <c r="D259" s="3"/>
+      <c r="E259" s="3"/>
+      <c r="F259" s="3"/>
+      <c r="G259" s="3"/>
+      <c r="I259" s="3"/>
+    </row>
+    <row r="260" spans="4:9">
+      <c r="D260" s="3"/>
+      <c r="E260" s="3"/>
+      <c r="F260" s="3"/>
+      <c r="G260" s="3"/>
+      <c r="I260" s="3"/>
+    </row>
+    <row r="261" spans="4:9">
+      <c r="D261" s="3"/>
+      <c r="E261" s="3"/>
+      <c r="F261" s="3"/>
+      <c r="G261" s="3"/>
+      <c r="I261" s="3"/>
+    </row>
+    <row r="262" spans="4:9">
+      <c r="D262" s="3"/>
+      <c r="E262" s="3"/>
+      <c r="F262" s="3"/>
+      <c r="G262" s="3"/>
+      <c r="I262" s="3"/>
+    </row>
+    <row r="263" spans="4:9">
+      <c r="D263" s="3"/>
+      <c r="E263" s="3"/>
+      <c r="F263" s="3"/>
+      <c r="G263" s="3"/>
+      <c r="I263" s="3"/>
+    </row>
+    <row r="264" spans="4:9">
+      <c r="D264" s="3"/>
+      <c r="E264" s="3"/>
+      <c r="F264" s="3"/>
+      <c r="G264" s="3"/>
+      <c r="I264" s="3"/>
+    </row>
+    <row r="265" spans="4:9">
+      <c r="D265" s="3"/>
+      <c r="E265" s="3"/>
+      <c r="F265" s="3"/>
+      <c r="G265" s="3"/>
+      <c r="I265" s="3"/>
+    </row>
+    <row r="266" spans="4:9">
+      <c r="D266" s="3"/>
+      <c r="E266" s="3"/>
+      <c r="F266" s="3"/>
+      <c r="G266" s="3"/>
+      <c r="I266" s="3"/>
+    </row>
+    <row r="267" spans="4:9">
+      <c r="D267" s="3"/>
+      <c r="E267" s="3"/>
+      <c r="F267" s="3"/>
+      <c r="G267" s="3"/>
+      <c r="I267" s="3"/>
+    </row>
+    <row r="268" spans="4:9">
+      <c r="D268" s="3"/>
+      <c r="E268" s="3"/>
+      <c r="F268" s="3"/>
+      <c r="G268" s="3"/>
+      <c r="I268" s="3"/>
+    </row>
+    <row r="269" spans="4:9">
+      <c r="D269" s="3"/>
+      <c r="E269" s="3"/>
+      <c r="F269" s="3"/>
+      <c r="G269" s="3"/>
+      <c r="I269" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="14">
+    <mergeCell ref="B202:B246"/>
+    <mergeCell ref="A202:A246"/>
+    <mergeCell ref="A167:A201"/>
+    <mergeCell ref="B167:B201"/>
+    <mergeCell ref="B150:B166"/>
+    <mergeCell ref="A150:A166"/>
+    <mergeCell ref="B69:B149"/>
+    <mergeCell ref="A69:A149"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B17:B44"/>
     <mergeCell ref="B45:B68"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="A17:A44"/>
-    <mergeCell ref="A167:A200"/>
-    <mergeCell ref="B167:B200"/>
-    <mergeCell ref="B150:B166"/>
-    <mergeCell ref="A150:A166"/>
-    <mergeCell ref="B69:B149"/>
-    <mergeCell ref="A69:A149"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G221">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G267">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>

--- a/Report/TasksheetFinal.xlsx
+++ b/Report/TasksheetFinal.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="150" windowWidth="20115" windowHeight="7890"/>
@@ -11,6 +11,9 @@
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_Toc427430902" localSheetId="0">Sheet1!$C$156</definedName>
+  </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
@@ -100,7 +103,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="234">
   <si>
     <t>No.</t>
   </si>
@@ -450,9 +453,6 @@
     <t>Raspberry Pi B2</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a Portable System </t>
-  </si>
-  <si>
     <t>The Battery Capacity Display Circuit</t>
   </si>
   <si>
@@ -466,9 +466,6 @@
   </si>
   <si>
     <t>Turn Off Application</t>
-  </si>
-  <si>
-    <t>Connecting Components In System</t>
   </si>
   <si>
     <t>User Interface Design</t>
@@ -833,12 +830,24 @@
   <si>
     <t>Design GUI</t>
   </si>
+  <si>
+    <t>Camera – Logitech HD Webcam C270</t>
+  </si>
+  <si>
+    <t>LCD - Tontec® 7 Inch HD TFT Color Monitor</t>
+  </si>
+  <si>
+    <t>Components Connection</t>
+  </si>
+  <si>
+    <t>LIPO Battery Capacity Calculation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11">
+  <fonts count="12">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +918,12 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -1003,7 +1018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1082,8 +1097,17 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1103,14 +1127,11 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" indent="2"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1414,10 +1435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I269"/>
+  <dimension ref="A1:I276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B220" workbookViewId="0">
-      <selection activeCell="G239" sqref="G239"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G278" sqref="G278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1460,10 +1481,10 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75">
-      <c r="A2" s="32">
+      <c r="A2" s="42">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="42" t="s">
         <v>3</v>
       </c>
       <c r="C2" s="12" t="s">
@@ -1479,8 +1500,8 @@
       <c r="I2" s="13"/>
     </row>
     <row r="3" spans="1:9" ht="15.75">
-      <c r="A3" s="33"/>
-      <c r="B3" s="33"/>
+      <c r="A3" s="36"/>
+      <c r="B3" s="36"/>
       <c r="C3" s="4" t="s">
         <v>38</v>
       </c>
@@ -1494,8 +1515,8 @@
       <c r="I3" s="11"/>
     </row>
     <row r="4" spans="1:9" ht="15.75">
-      <c r="A4" s="33"/>
-      <c r="B4" s="33"/>
+      <c r="A4" s="36"/>
+      <c r="B4" s="36"/>
       <c r="C4" s="4" t="s">
         <v>39</v>
       </c>
@@ -1509,8 +1530,8 @@
       <c r="I4" s="11"/>
     </row>
     <row r="5" spans="1:9" ht="15.75">
-      <c r="A5" s="33"/>
-      <c r="B5" s="33"/>
+      <c r="A5" s="36"/>
+      <c r="B5" s="36"/>
       <c r="C5" s="4" t="s">
         <v>21</v>
       </c>
@@ -1524,10 +1545,10 @@
       <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:9" ht="15.75">
-      <c r="A6" s="33"/>
-      <c r="B6" s="33"/>
+      <c r="A6" s="36"/>
+      <c r="B6" s="36"/>
       <c r="C6" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
@@ -1537,8 +1558,8 @@
       <c r="I6" s="11"/>
     </row>
     <row r="7" spans="1:9" ht="15.75">
-      <c r="A7" s="33"/>
-      <c r="B7" s="33"/>
+      <c r="A7" s="36"/>
+      <c r="B7" s="36"/>
       <c r="C7" s="7" t="s">
         <v>40</v>
       </c>
@@ -1552,8 +1573,8 @@
       <c r="I7" s="11"/>
     </row>
     <row r="8" spans="1:9" ht="15.75">
-      <c r="A8" s="33"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="36"/>
+      <c r="B8" s="36"/>
       <c r="C8" s="7" t="s">
         <v>41</v>
       </c>
@@ -1567,8 +1588,8 @@
       <c r="I8" s="11"/>
     </row>
     <row r="9" spans="1:9" ht="15.75">
-      <c r="A9" s="33"/>
-      <c r="B9" s="33"/>
+      <c r="A9" s="36"/>
+      <c r="B9" s="36"/>
       <c r="C9" s="24" t="s">
         <v>42</v>
       </c>
@@ -1580,8 +1601,8 @@
       <c r="I9" s="11"/>
     </row>
     <row r="10" spans="1:9" ht="15.75">
-      <c r="A10" s="33"/>
-      <c r="B10" s="33"/>
+      <c r="A10" s="36"/>
+      <c r="B10" s="36"/>
       <c r="C10" s="7" t="s">
         <v>43</v>
       </c>
@@ -1595,8 +1616,8 @@
       <c r="I10" s="11"/>
     </row>
     <row r="11" spans="1:9" ht="15.75">
-      <c r="A11" s="33"/>
-      <c r="B11" s="33"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="36"/>
       <c r="C11" s="7" t="s">
         <v>44</v>
       </c>
@@ -1610,8 +1631,8 @@
       <c r="I11" s="11"/>
     </row>
     <row r="12" spans="1:9" ht="15.75">
-      <c r="A12" s="33"/>
-      <c r="B12" s="33"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="36"/>
       <c r="C12" s="7" t="s">
         <v>45</v>
       </c>
@@ -1625,8 +1646,8 @@
       <c r="I12" s="11"/>
     </row>
     <row r="13" spans="1:9" ht="15.75">
-      <c r="A13" s="33"/>
-      <c r="B13" s="33"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="36"/>
       <c r="C13" s="7" t="s">
         <v>46</v>
       </c>
@@ -1640,8 +1661,8 @@
       <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:9" ht="15.75">
-      <c r="A14" s="33"/>
-      <c r="B14" s="33"/>
+      <c r="A14" s="36"/>
+      <c r="B14" s="36"/>
       <c r="C14" s="7" t="s">
         <v>47</v>
       </c>
@@ -1655,8 +1676,8 @@
       <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:9" ht="15.75">
-      <c r="A15" s="33"/>
-      <c r="B15" s="33"/>
+      <c r="A15" s="36"/>
+      <c r="B15" s="36"/>
       <c r="C15" s="7" t="s">
         <v>48</v>
       </c>
@@ -1670,8 +1691,8 @@
       <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:9" ht="15.75">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
+      <c r="A16" s="36"/>
+      <c r="B16" s="36"/>
       <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
@@ -1685,10 +1706,10 @@
       <c r="I16" s="11"/>
     </row>
     <row r="17" spans="1:9" ht="15.75">
-      <c r="A17" s="33">
+      <c r="A17" s="36">
         <v>2</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="36" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="25" t="s">
@@ -1702,8 +1723,8 @@
       <c r="I17" s="11"/>
     </row>
     <row r="18" spans="1:9" ht="15.75">
-      <c r="A18" s="33"/>
-      <c r="B18" s="33"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
       <c r="C18" s="7" t="s">
         <v>50</v>
       </c>
@@ -1717,8 +1738,8 @@
       <c r="I18" s="11"/>
     </row>
     <row r="19" spans="1:9" ht="15.75">
-      <c r="A19" s="33"/>
-      <c r="B19" s="33"/>
+      <c r="A19" s="36"/>
+      <c r="B19" s="36"/>
       <c r="C19" s="7" t="s">
         <v>51</v>
       </c>
@@ -1732,8 +1753,8 @@
       <c r="I19" s="11"/>
     </row>
     <row r="20" spans="1:9" ht="15.75">
-      <c r="A20" s="33"/>
-      <c r="B20" s="33"/>
+      <c r="A20" s="36"/>
+      <c r="B20" s="36"/>
       <c r="C20" s="26" t="s">
         <v>52</v>
       </c>
@@ -1745,8 +1766,8 @@
       <c r="I20" s="11"/>
     </row>
     <row r="21" spans="1:9" ht="15.75">
-      <c r="A21" s="33"/>
-      <c r="B21" s="33"/>
+      <c r="A21" s="36"/>
+      <c r="B21" s="36"/>
       <c r="C21" s="20" t="s">
         <v>60</v>
       </c>
@@ -1760,8 +1781,8 @@
       <c r="I21" s="11"/>
     </row>
     <row r="22" spans="1:9" ht="15.75">
-      <c r="A22" s="33"/>
-      <c r="B22" s="33"/>
+      <c r="A22" s="36"/>
+      <c r="B22" s="36"/>
       <c r="C22" s="27" t="s">
         <v>61</v>
       </c>
@@ -1773,8 +1794,8 @@
       <c r="I22" s="11"/>
     </row>
     <row r="23" spans="1:9" ht="15.75">
-      <c r="A23" s="33"/>
-      <c r="B23" s="33"/>
+      <c r="A23" s="36"/>
+      <c r="B23" s="36"/>
       <c r="C23" s="21" t="s">
         <v>47</v>
       </c>
@@ -1788,8 +1809,8 @@
       <c r="I23" s="11"/>
     </row>
     <row r="24" spans="1:9" ht="15.75">
-      <c r="A24" s="33"/>
-      <c r="B24" s="33"/>
+      <c r="A24" s="36"/>
+      <c r="B24" s="36"/>
       <c r="C24" s="21" t="s">
         <v>62</v>
       </c>
@@ -1803,8 +1824,8 @@
       <c r="I24" s="11"/>
     </row>
     <row r="25" spans="1:9" ht="15.75">
-      <c r="A25" s="33"/>
-      <c r="B25" s="33"/>
+      <c r="A25" s="36"/>
+      <c r="B25" s="36"/>
       <c r="C25" s="21" t="s">
         <v>63</v>
       </c>
@@ -1818,8 +1839,8 @@
       <c r="I25" s="11"/>
     </row>
     <row r="26" spans="1:9" ht="15.75">
-      <c r="A26" s="33"/>
-      <c r="B26" s="33"/>
+      <c r="A26" s="36"/>
+      <c r="B26" s="36"/>
       <c r="C26" s="21" t="s">
         <v>64</v>
       </c>
@@ -1833,10 +1854,10 @@
       <c r="I26" s="11"/>
     </row>
     <row r="27" spans="1:9" ht="15.75">
-      <c r="A27" s="33"/>
-      <c r="B27" s="33"/>
+      <c r="A27" s="36"/>
+      <c r="B27" s="36"/>
       <c r="C27" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
@@ -1846,8 +1867,8 @@
       <c r="I27" s="11"/>
     </row>
     <row r="28" spans="1:9" ht="15.75">
-      <c r="A28" s="33"/>
-      <c r="B28" s="33"/>
+      <c r="A28" s="36"/>
+      <c r="B28" s="36"/>
       <c r="C28" s="21" t="s">
         <v>65</v>
       </c>
@@ -1861,8 +1882,8 @@
       <c r="I28" s="11"/>
     </row>
     <row r="29" spans="1:9" ht="15.75">
-      <c r="A29" s="33"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="36"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="21" t="s">
         <v>66</v>
       </c>
@@ -1876,8 +1897,8 @@
       <c r="I29" s="11"/>
     </row>
     <row r="30" spans="1:9" ht="15.75">
-      <c r="A30" s="33"/>
-      <c r="B30" s="33"/>
+      <c r="A30" s="36"/>
+      <c r="B30" s="36"/>
       <c r="C30" s="27" t="s">
         <v>67</v>
       </c>
@@ -1889,8 +1910,8 @@
       <c r="I30" s="11"/>
     </row>
     <row r="31" spans="1:9" ht="15.75">
-      <c r="A31" s="33"/>
-      <c r="B31" s="33"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="36"/>
       <c r="C31" s="21" t="s">
         <v>69</v>
       </c>
@@ -1904,8 +1925,8 @@
       <c r="I31" s="11"/>
     </row>
     <row r="32" spans="1:9" ht="15.75">
-      <c r="A32" s="33"/>
-      <c r="B32" s="33"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="36"/>
       <c r="C32" s="21" t="s">
         <v>68</v>
       </c>
@@ -1919,8 +1940,8 @@
       <c r="I32" s="11"/>
     </row>
     <row r="33" spans="1:9" ht="15.75">
-      <c r="A33" s="33"/>
-      <c r="B33" s="33"/>
+      <c r="A33" s="36"/>
+      <c r="B33" s="36"/>
       <c r="C33" s="25" t="s">
         <v>10</v>
       </c>
@@ -1932,8 +1953,8 @@
       <c r="I33" s="11"/>
     </row>
     <row r="34" spans="1:9" ht="15.75">
-      <c r="A34" s="33"/>
-      <c r="B34" s="33"/>
+      <c r="A34" s="36"/>
+      <c r="B34" s="36"/>
       <c r="C34" s="26" t="s">
         <v>53</v>
       </c>
@@ -1945,8 +1966,8 @@
       <c r="I34" s="11"/>
     </row>
     <row r="35" spans="1:9" ht="15.75">
-      <c r="A35" s="33"/>
-      <c r="B35" s="33"/>
+      <c r="A35" s="36"/>
+      <c r="B35" s="36"/>
       <c r="C35" s="20" t="s">
         <v>70</v>
       </c>
@@ -1960,8 +1981,8 @@
       <c r="I35" s="11"/>
     </row>
     <row r="36" spans="1:9" ht="15.75">
-      <c r="A36" s="33"/>
-      <c r="B36" s="33"/>
+      <c r="A36" s="36"/>
+      <c r="B36" s="36"/>
       <c r="C36" s="20" t="s">
         <v>71</v>
       </c>
@@ -1975,8 +1996,8 @@
       <c r="I36" s="11"/>
     </row>
     <row r="37" spans="1:9" ht="15.75">
-      <c r="A37" s="33"/>
-      <c r="B37" s="33"/>
+      <c r="A37" s="36"/>
+      <c r="B37" s="36"/>
       <c r="C37" s="20" t="s">
         <v>72</v>
       </c>
@@ -1990,8 +2011,8 @@
       <c r="I37" s="11"/>
     </row>
     <row r="38" spans="1:9" ht="15.75">
-      <c r="A38" s="33"/>
-      <c r="B38" s="33"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="36"/>
       <c r="C38" s="7" t="s">
         <v>54</v>
       </c>
@@ -2005,8 +2026,8 @@
       <c r="I38" s="11"/>
     </row>
     <row r="39" spans="1:9" ht="15.75">
-      <c r="A39" s="33"/>
-      <c r="B39" s="33"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="36"/>
       <c r="C39" s="7" t="s">
         <v>55</v>
       </c>
@@ -2020,8 +2041,8 @@
       <c r="I39" s="11"/>
     </row>
     <row r="40" spans="1:9" ht="15.75">
-      <c r="A40" s="33"/>
-      <c r="B40" s="33"/>
+      <c r="A40" s="36"/>
+      <c r="B40" s="36"/>
       <c r="C40" s="24" t="s">
         <v>56</v>
       </c>
@@ -2033,8 +2054,8 @@
       <c r="I40" s="11"/>
     </row>
     <row r="41" spans="1:9" ht="15.75">
-      <c r="A41" s="33"/>
-      <c r="B41" s="33"/>
+      <c r="A41" s="36"/>
+      <c r="B41" s="36"/>
       <c r="C41" s="7" t="s">
         <v>57</v>
       </c>
@@ -2048,8 +2069,8 @@
       <c r="I41" s="11"/>
     </row>
     <row r="42" spans="1:9" ht="15.75">
-      <c r="A42" s="33"/>
-      <c r="B42" s="33"/>
+      <c r="A42" s="36"/>
+      <c r="B42" s="36"/>
       <c r="C42" s="7" t="s">
         <v>58</v>
       </c>
@@ -2063,8 +2084,8 @@
       <c r="I42" s="11"/>
     </row>
     <row r="43" spans="1:9" ht="15.75">
-      <c r="A43" s="33"/>
-      <c r="B43" s="33"/>
+      <c r="A43" s="36"/>
+      <c r="B43" s="36"/>
       <c r="C43" s="7" t="s">
         <v>59</v>
       </c>
@@ -2078,8 +2099,8 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:9" ht="15.75">
-      <c r="A44" s="33"/>
-      <c r="B44" s="33"/>
+      <c r="A44" s="36"/>
+      <c r="B44" s="36"/>
       <c r="C44" s="9" t="s">
         <v>11</v>
       </c>
@@ -2093,10 +2114,10 @@
       <c r="I44" s="11"/>
     </row>
     <row r="45" spans="1:9" ht="15.75">
-      <c r="A45" s="33">
+      <c r="A45" s="36">
         <v>3</v>
       </c>
-      <c r="B45" s="33" t="s">
+      <c r="B45" s="36" t="s">
         <v>5</v>
       </c>
       <c r="C45" s="4" t="s">
@@ -2112,8 +2133,8 @@
       <c r="I45" s="11"/>
     </row>
     <row r="46" spans="1:9" ht="15.75">
-      <c r="A46" s="33"/>
-      <c r="B46" s="33"/>
+      <c r="A46" s="36"/>
+      <c r="B46" s="36"/>
       <c r="C46" s="25" t="s">
         <v>13</v>
       </c>
@@ -2125,8 +2146,8 @@
       <c r="I46" s="11"/>
     </row>
     <row r="47" spans="1:9" ht="15.75">
-      <c r="A47" s="33"/>
-      <c r="B47" s="33"/>
+      <c r="A47" s="36"/>
+      <c r="B47" s="36"/>
       <c r="C47" s="28" t="s">
         <v>14</v>
       </c>
@@ -2138,8 +2159,8 @@
       <c r="I47" s="11"/>
     </row>
     <row r="48" spans="1:9" ht="15.75">
-      <c r="A48" s="33"/>
-      <c r="B48" s="33"/>
+      <c r="A48" s="36"/>
+      <c r="B48" s="36"/>
       <c r="C48" s="6" t="s">
         <v>73</v>
       </c>
@@ -2153,8 +2174,8 @@
       <c r="I48" s="11"/>
     </row>
     <row r="49" spans="1:9" ht="15.75">
-      <c r="A49" s="33"/>
-      <c r="B49" s="33"/>
+      <c r="A49" s="36"/>
+      <c r="B49" s="36"/>
       <c r="C49" s="6" t="s">
         <v>74</v>
       </c>
@@ -2168,8 +2189,8 @@
       <c r="I49" s="11"/>
     </row>
     <row r="50" spans="1:9" ht="15.75">
-      <c r="A50" s="33"/>
-      <c r="B50" s="33"/>
+      <c r="A50" s="36"/>
+      <c r="B50" s="36"/>
       <c r="C50" s="6" t="s">
         <v>75</v>
       </c>
@@ -2183,8 +2204,8 @@
       <c r="I50" s="11"/>
     </row>
     <row r="51" spans="1:9" ht="15.75">
-      <c r="A51" s="33"/>
-      <c r="B51" s="33"/>
+      <c r="A51" s="36"/>
+      <c r="B51" s="36"/>
       <c r="C51" s="5" t="s">
         <v>76</v>
       </c>
@@ -2198,8 +2219,8 @@
       <c r="I51" s="11"/>
     </row>
     <row r="52" spans="1:9" ht="15.75">
-      <c r="A52" s="33"/>
-      <c r="B52" s="33"/>
+      <c r="A52" s="36"/>
+      <c r="B52" s="36"/>
       <c r="C52" s="28" t="s">
         <v>77</v>
       </c>
@@ -2211,8 +2232,8 @@
       <c r="I52" s="11"/>
     </row>
     <row r="53" spans="1:9" ht="15.75">
-      <c r="A53" s="33"/>
-      <c r="B53" s="33"/>
+      <c r="A53" s="36"/>
+      <c r="B53" s="36"/>
       <c r="C53" s="6" t="s">
         <v>78</v>
       </c>
@@ -2226,8 +2247,8 @@
       <c r="I53" s="11"/>
     </row>
     <row r="54" spans="1:9" ht="15.75">
-      <c r="A54" s="33"/>
-      <c r="B54" s="33"/>
+      <c r="A54" s="36"/>
+      <c r="B54" s="36"/>
       <c r="C54" s="6" t="s">
         <v>79</v>
       </c>
@@ -2241,8 +2262,8 @@
       <c r="I54" s="11"/>
     </row>
     <row r="55" spans="1:9" ht="15.75">
-      <c r="A55" s="33"/>
-      <c r="B55" s="33"/>
+      <c r="A55" s="36"/>
+      <c r="B55" s="36"/>
       <c r="C55" s="6" t="s">
         <v>80</v>
       </c>
@@ -2256,8 +2277,8 @@
       <c r="I55" s="11"/>
     </row>
     <row r="56" spans="1:9" ht="15.75">
-      <c r="A56" s="33"/>
-      <c r="B56" s="33"/>
+      <c r="A56" s="36"/>
+      <c r="B56" s="36"/>
       <c r="C56" s="6" t="s">
         <v>81</v>
       </c>
@@ -2271,8 +2292,8 @@
       <c r="I56" s="11"/>
     </row>
     <row r="57" spans="1:9" ht="15.75">
-      <c r="A57" s="33"/>
-      <c r="B57" s="33"/>
+      <c r="A57" s="36"/>
+      <c r="B57" s="36"/>
       <c r="C57" s="6" t="s">
         <v>82</v>
       </c>
@@ -2286,8 +2307,8 @@
       <c r="I57" s="11"/>
     </row>
     <row r="58" spans="1:9" ht="15.75">
-      <c r="A58" s="33"/>
-      <c r="B58" s="33"/>
+      <c r="A58" s="36"/>
+      <c r="B58" s="36"/>
       <c r="C58" s="6" t="s">
         <v>83</v>
       </c>
@@ -2301,8 +2322,8 @@
       <c r="I58" s="11"/>
     </row>
     <row r="59" spans="1:9" ht="15.75">
-      <c r="A59" s="33"/>
-      <c r="B59" s="33"/>
+      <c r="A59" s="36"/>
+      <c r="B59" s="36"/>
       <c r="C59" s="29" t="s">
         <v>84</v>
       </c>
@@ -2314,8 +2335,8 @@
       <c r="I59" s="11"/>
     </row>
     <row r="60" spans="1:9" ht="15.75">
-      <c r="A60" s="33"/>
-      <c r="B60" s="33"/>
+      <c r="A60" s="36"/>
+      <c r="B60" s="36"/>
       <c r="C60" s="28" t="s">
         <v>85</v>
       </c>
@@ -2327,8 +2348,8 @@
       <c r="I60" s="11"/>
     </row>
     <row r="61" spans="1:9" ht="15.75">
-      <c r="A61" s="33"/>
-      <c r="B61" s="33"/>
+      <c r="A61" s="36"/>
+      <c r="B61" s="36"/>
       <c r="C61" s="6" t="s">
         <v>86</v>
       </c>
@@ -2342,8 +2363,8 @@
       <c r="I61" s="11"/>
     </row>
     <row r="62" spans="1:9" ht="15.75">
-      <c r="A62" s="33"/>
-      <c r="B62" s="33"/>
+      <c r="A62" s="36"/>
+      <c r="B62" s="36"/>
       <c r="C62" s="6" t="s">
         <v>85</v>
       </c>
@@ -2357,8 +2378,8 @@
       <c r="I62" s="11"/>
     </row>
     <row r="63" spans="1:9" ht="15.75">
-      <c r="A63" s="33"/>
-      <c r="B63" s="33"/>
+      <c r="A63" s="36"/>
+      <c r="B63" s="36"/>
       <c r="C63" s="6" t="s">
         <v>87</v>
       </c>
@@ -2372,8 +2393,8 @@
       <c r="I63" s="11"/>
     </row>
     <row r="64" spans="1:9" ht="15.75">
-      <c r="A64" s="33"/>
-      <c r="B64" s="33"/>
+      <c r="A64" s="36"/>
+      <c r="B64" s="36"/>
       <c r="C64" s="5" t="s">
         <v>15</v>
       </c>
@@ -2387,8 +2408,8 @@
       <c r="I64" s="11"/>
     </row>
     <row r="65" spans="1:9" ht="15.75">
-      <c r="A65" s="33"/>
-      <c r="B65" s="33"/>
+      <c r="A65" s="36"/>
+      <c r="B65" s="36"/>
       <c r="C65" s="5" t="s">
         <v>16</v>
       </c>
@@ -2402,8 +2423,8 @@
       <c r="I65" s="11"/>
     </row>
     <row r="66" spans="1:9" ht="15.75">
-      <c r="A66" s="33"/>
-      <c r="B66" s="33"/>
+      <c r="A66" s="36"/>
+      <c r="B66" s="36"/>
       <c r="C66" s="5" t="s">
         <v>88</v>
       </c>
@@ -2417,8 +2438,8 @@
       <c r="I66" s="11"/>
     </row>
     <row r="67" spans="1:9" ht="15.75">
-      <c r="A67" s="33"/>
-      <c r="B67" s="33"/>
+      <c r="A67" s="36"/>
+      <c r="B67" s="36"/>
       <c r="C67" s="5" t="s">
         <v>89</v>
       </c>
@@ -2432,8 +2453,8 @@
       <c r="I67" s="11"/>
     </row>
     <row r="68" spans="1:9" ht="15.75">
-      <c r="A68" s="33"/>
-      <c r="B68" s="33"/>
+      <c r="A68" s="36"/>
+      <c r="B68" s="36"/>
       <c r="C68" s="5" t="s">
         <v>90</v>
       </c>
@@ -2447,10 +2468,10 @@
       <c r="I68" s="11"/>
     </row>
     <row r="69" spans="1:9" ht="15.75">
-      <c r="A69" s="37">
+      <c r="A69" s="40">
         <v>4</v>
       </c>
-      <c r="B69" s="37" t="s">
+      <c r="B69" s="40" t="s">
         <v>6</v>
       </c>
       <c r="C69" s="4" t="s">
@@ -2466,8 +2487,8 @@
       <c r="I69" s="11"/>
     </row>
     <row r="70" spans="1:9" ht="15.75">
-      <c r="A70" s="38"/>
-      <c r="B70" s="38"/>
+      <c r="A70" s="41"/>
+      <c r="B70" s="41"/>
       <c r="C70" s="4" t="s">
         <v>92</v>
       </c>
@@ -2481,8 +2502,8 @@
       <c r="I70" s="11"/>
     </row>
     <row r="71" spans="1:9" ht="15.75">
-      <c r="A71" s="38"/>
-      <c r="B71" s="38"/>
+      <c r="A71" s="41"/>
+      <c r="B71" s="41"/>
       <c r="C71" s="8" t="s">
         <v>17</v>
       </c>
@@ -2496,8 +2517,8 @@
       <c r="I71" s="11"/>
     </row>
     <row r="72" spans="1:9" ht="15.75">
-      <c r="A72" s="38"/>
-      <c r="B72" s="38"/>
+      <c r="A72" s="41"/>
+      <c r="B72" s="41"/>
       <c r="C72" s="24" t="s">
         <v>93</v>
       </c>
@@ -2509,8 +2530,8 @@
       <c r="I72" s="11"/>
     </row>
     <row r="73" spans="1:9" ht="15.75">
-      <c r="A73" s="38"/>
-      <c r="B73" s="38"/>
+      <c r="A73" s="41"/>
+      <c r="B73" s="41"/>
       <c r="C73" s="26" t="s">
         <v>94</v>
       </c>
@@ -2522,8 +2543,8 @@
       <c r="I73" s="11"/>
     </row>
     <row r="74" spans="1:9" ht="15.75">
-      <c r="A74" s="38"/>
-      <c r="B74" s="38"/>
+      <c r="A74" s="41"/>
+      <c r="B74" s="41"/>
       <c r="C74" s="20" t="s">
         <v>95</v>
       </c>
@@ -2537,8 +2558,8 @@
       <c r="I74" s="11"/>
     </row>
     <row r="75" spans="1:9" ht="15.75">
-      <c r="A75" s="38"/>
-      <c r="B75" s="38"/>
+      <c r="A75" s="41"/>
+      <c r="B75" s="41"/>
       <c r="C75" s="30" t="s">
         <v>96</v>
       </c>
@@ -2550,8 +2571,8 @@
       <c r="I75" s="11"/>
     </row>
     <row r="76" spans="1:9" ht="15.75">
-      <c r="A76" s="38"/>
-      <c r="B76" s="38"/>
+      <c r="A76" s="41"/>
+      <c r="B76" s="41"/>
       <c r="C76" s="22" t="s">
         <v>98</v>
       </c>
@@ -2565,8 +2586,8 @@
       <c r="I76" s="11"/>
     </row>
     <row r="77" spans="1:9" ht="15.75">
-      <c r="A77" s="38"/>
-      <c r="B77" s="38"/>
+      <c r="A77" s="41"/>
+      <c r="B77" s="41"/>
       <c r="C77" s="22" t="s">
         <v>99</v>
       </c>
@@ -2580,8 +2601,8 @@
       <c r="I77" s="11"/>
     </row>
     <row r="78" spans="1:9" ht="15.75">
-      <c r="A78" s="38"/>
-      <c r="B78" s="38"/>
+      <c r="A78" s="41"/>
+      <c r="B78" s="41"/>
       <c r="C78" s="22" t="s">
         <v>100</v>
       </c>
@@ -2595,8 +2616,8 @@
       <c r="I78" s="11"/>
     </row>
     <row r="79" spans="1:9" ht="15.75">
-      <c r="A79" s="38"/>
-      <c r="B79" s="38"/>
+      <c r="A79" s="41"/>
+      <c r="B79" s="41"/>
       <c r="C79" s="22" t="s">
         <v>101</v>
       </c>
@@ -2610,8 +2631,8 @@
       <c r="I79" s="11"/>
     </row>
     <row r="80" spans="1:9" ht="15.75">
-      <c r="A80" s="38"/>
-      <c r="B80" s="38"/>
+      <c r="A80" s="41"/>
+      <c r="B80" s="41"/>
       <c r="C80" s="22" t="s">
         <v>102</v>
       </c>
@@ -2625,8 +2646,8 @@
       <c r="I80" s="11"/>
     </row>
     <row r="81" spans="1:9" ht="15.75">
-      <c r="A81" s="38"/>
-      <c r="B81" s="38"/>
+      <c r="A81" s="41"/>
+      <c r="B81" s="41"/>
       <c r="C81" s="22" t="s">
         <v>103</v>
       </c>
@@ -2640,8 +2661,8 @@
       <c r="I81" s="11"/>
     </row>
     <row r="82" spans="1:9" ht="15.75">
-      <c r="A82" s="38"/>
-      <c r="B82" s="38"/>
+      <c r="A82" s="41"/>
+      <c r="B82" s="41"/>
       <c r="C82" s="22" t="s">
         <v>104</v>
       </c>
@@ -2655,8 +2676,8 @@
       <c r="I82" s="11"/>
     </row>
     <row r="83" spans="1:9" ht="15.75">
-      <c r="A83" s="38"/>
-      <c r="B83" s="38"/>
+      <c r="A83" s="41"/>
+      <c r="B83" s="41"/>
       <c r="C83" s="22" t="s">
         <v>105</v>
       </c>
@@ -2670,8 +2691,8 @@
       <c r="I83" s="11"/>
     </row>
     <row r="84" spans="1:9" ht="15.75">
-      <c r="A84" s="38"/>
-      <c r="B84" s="38"/>
+      <c r="A84" s="41"/>
+      <c r="B84" s="41"/>
       <c r="C84" s="22" t="s">
         <v>106</v>
       </c>
@@ -2685,8 +2706,8 @@
       <c r="I84" s="11"/>
     </row>
     <row r="85" spans="1:9" ht="15.75">
-      <c r="A85" s="38"/>
-      <c r="B85" s="38"/>
+      <c r="A85" s="41"/>
+      <c r="B85" s="41"/>
       <c r="C85" s="22" t="s">
         <v>107</v>
       </c>
@@ -2700,8 +2721,8 @@
       <c r="I85" s="11"/>
     </row>
     <row r="86" spans="1:9" ht="15.75">
-      <c r="A86" s="38"/>
-      <c r="B86" s="38"/>
+      <c r="A86" s="41"/>
+      <c r="B86" s="41"/>
       <c r="C86" s="22" t="s">
         <v>108</v>
       </c>
@@ -2715,8 +2736,8 @@
       <c r="I86" s="11"/>
     </row>
     <row r="87" spans="1:9" ht="15.75">
-      <c r="A87" s="38"/>
-      <c r="B87" s="38"/>
+      <c r="A87" s="41"/>
+      <c r="B87" s="41"/>
       <c r="C87" s="22" t="s">
         <v>109</v>
       </c>
@@ -2730,8 +2751,8 @@
       <c r="I87" s="11"/>
     </row>
     <row r="88" spans="1:9" ht="15.75">
-      <c r="A88" s="38"/>
-      <c r="B88" s="38"/>
+      <c r="A88" s="41"/>
+      <c r="B88" s="41"/>
       <c r="C88" s="22" t="s">
         <v>110</v>
       </c>
@@ -2745,8 +2766,8 @@
       <c r="I88" s="11"/>
     </row>
     <row r="89" spans="1:9" ht="15.75">
-      <c r="A89" s="38"/>
-      <c r="B89" s="38"/>
+      <c r="A89" s="41"/>
+      <c r="B89" s="41"/>
       <c r="C89" s="22" t="s">
         <v>111</v>
       </c>
@@ -2760,8 +2781,8 @@
       <c r="I89" s="11"/>
     </row>
     <row r="90" spans="1:9" ht="15.75">
-      <c r="A90" s="38"/>
-      <c r="B90" s="38"/>
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
       <c r="C90" s="22" t="s">
         <v>112</v>
       </c>
@@ -2775,8 +2796,8 @@
       <c r="I90" s="11"/>
     </row>
     <row r="91" spans="1:9" ht="15.75">
-      <c r="A91" s="38"/>
-      <c r="B91" s="38"/>
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
       <c r="C91" s="22" t="s">
         <v>113</v>
       </c>
@@ -2790,8 +2811,8 @@
       <c r="I91" s="11"/>
     </row>
     <row r="92" spans="1:9" ht="15.75">
-      <c r="A92" s="38"/>
-      <c r="B92" s="38"/>
+      <c r="A92" s="41"/>
+      <c r="B92" s="41"/>
       <c r="C92" s="22" t="s">
         <v>97</v>
       </c>
@@ -2805,8 +2826,8 @@
       <c r="I92" s="11"/>
     </row>
     <row r="93" spans="1:9" ht="15.75">
-      <c r="A93" s="38"/>
-      <c r="B93" s="38"/>
+      <c r="A93" s="41"/>
+      <c r="B93" s="41"/>
       <c r="C93" s="30" t="s">
         <v>18</v>
       </c>
@@ -2818,10 +2839,10 @@
       <c r="I93" s="11"/>
     </row>
     <row r="94" spans="1:9" ht="15.75">
-      <c r="A94" s="38"/>
-      <c r="B94" s="38"/>
+      <c r="A94" s="41"/>
+      <c r="B94" s="41"/>
       <c r="C94" s="22" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D94" s="2" t="s">
         <v>8</v>
@@ -2833,10 +2854,10 @@
       <c r="I94" s="11"/>
     </row>
     <row r="95" spans="1:9" ht="15.75">
-      <c r="A95" s="38"/>
-      <c r="B95" s="38"/>
+      <c r="A95" s="41"/>
+      <c r="B95" s="41"/>
       <c r="C95" s="22" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D95" s="2" t="s">
         <v>8</v>
@@ -2848,10 +2869,10 @@
       <c r="I95" s="11"/>
     </row>
     <row r="96" spans="1:9" ht="15.75">
-      <c r="A96" s="38"/>
-      <c r="B96" s="38"/>
+      <c r="A96" s="41"/>
+      <c r="B96" s="41"/>
       <c r="C96" s="22" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" s="2" t="s">
@@ -2863,8 +2884,8 @@
       <c r="I96" s="11"/>
     </row>
     <row r="97" spans="1:9" ht="15.75">
-      <c r="A97" s="38"/>
-      <c r="B97" s="38"/>
+      <c r="A97" s="41"/>
+      <c r="B97" s="41"/>
       <c r="C97" s="22" t="s">
         <v>82</v>
       </c>
@@ -2878,8 +2899,8 @@
       <c r="I97" s="11"/>
     </row>
     <row r="98" spans="1:9" ht="15.75">
-      <c r="A98" s="38"/>
-      <c r="B98" s="38"/>
+      <c r="A98" s="41"/>
+      <c r="B98" s="41"/>
       <c r="C98" s="22" t="s">
         <v>81</v>
       </c>
@@ -2893,10 +2914,10 @@
       <c r="I98" s="11"/>
     </row>
     <row r="99" spans="1:9" ht="15.75">
-      <c r="A99" s="38"/>
-      <c r="B99" s="38"/>
+      <c r="A99" s="41"/>
+      <c r="B99" s="41"/>
       <c r="C99" s="22" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
@@ -2908,8 +2929,8 @@
       <c r="I99" s="11"/>
     </row>
     <row r="100" spans="1:9" ht="15.75">
-      <c r="A100" s="38"/>
-      <c r="B100" s="38"/>
+      <c r="A100" s="41"/>
+      <c r="B100" s="41"/>
       <c r="C100" s="31" t="s">
         <v>114</v>
       </c>
@@ -2921,8 +2942,8 @@
       <c r="I100" s="11"/>
     </row>
     <row r="101" spans="1:9" ht="15.75">
-      <c r="A101" s="38"/>
-      <c r="B101" s="38"/>
+      <c r="A101" s="41"/>
+      <c r="B101" s="41"/>
       <c r="C101" s="20" t="s">
         <v>115</v>
       </c>
@@ -2936,10 +2957,10 @@
       <c r="I101" s="11"/>
     </row>
     <row r="102" spans="1:9" ht="15.75">
-      <c r="A102" s="38"/>
-      <c r="B102" s="38"/>
+      <c r="A102" s="41"/>
+      <c r="B102" s="41"/>
       <c r="C102" s="20" t="s">
-        <v>116</v>
+        <v>222</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2"/>
@@ -2951,51 +2972,51 @@
       <c r="I102" s="11"/>
     </row>
     <row r="103" spans="1:9" ht="15.75">
-      <c r="A103" s="38"/>
-      <c r="B103" s="38"/>
-      <c r="C103" s="27" t="s">
-        <v>117</v>
+      <c r="A103" s="41"/>
+      <c r="B103" s="41"/>
+      <c r="C103" s="20" t="s">
+        <v>230</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
-      <c r="G103" s="2"/>
+      <c r="G103" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H103" s="11"/>
       <c r="I103" s="11"/>
     </row>
     <row r="104" spans="1:9" ht="15.75">
-      <c r="A104" s="38"/>
-      <c r="B104" s="38"/>
-      <c r="C104" s="22" t="s">
-        <v>128</v>
+      <c r="A104" s="41"/>
+      <c r="B104" s="41"/>
+      <c r="C104" s="20" t="s">
+        <v>231</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2"/>
-      <c r="F104" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H104" s="11"/>
       <c r="I104" s="11"/>
     </row>
     <row r="105" spans="1:9" ht="15.75">
-      <c r="A105" s="38"/>
-      <c r="B105" s="38"/>
-      <c r="C105" s="22" t="s">
-        <v>127</v>
+      <c r="A105" s="41"/>
+      <c r="B105" s="41"/>
+      <c r="C105" s="27" t="s">
+        <v>116</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" s="2"/>
-      <c r="F105" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="2"/>
       <c r="H105" s="11"/>
       <c r="I105" s="11"/>
     </row>
     <row r="106" spans="1:9" ht="15.75">
-      <c r="A106" s="38"/>
-      <c r="B106" s="38"/>
+      <c r="A106" s="41"/>
+      <c r="B106" s="41"/>
       <c r="C106" s="22" t="s">
         <v>126</v>
       </c>
@@ -3009,10 +3030,10 @@
       <c r="I106" s="11"/>
     </row>
     <row r="107" spans="1:9" ht="15.75">
-      <c r="A107" s="38"/>
-      <c r="B107" s="38"/>
-      <c r="C107" s="20" t="s">
-        <v>122</v>
+      <c r="A107" s="41"/>
+      <c r="B107" s="41"/>
+      <c r="C107" s="22" t="s">
+        <v>125</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" s="2"/>
@@ -3024,40 +3045,42 @@
       <c r="I107" s="11"/>
     </row>
     <row r="108" spans="1:9" ht="15.75">
-      <c r="A108" s="38"/>
-      <c r="B108" s="38"/>
-      <c r="C108" s="24" t="s">
-        <v>123</v>
+      <c r="A108" s="41"/>
+      <c r="B108" s="41"/>
+      <c r="C108" s="22" t="s">
+        <v>124</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2"/>
-      <c r="F108" s="2"/>
+      <c r="F108" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G108" s="2"/>
       <c r="H108" s="11"/>
       <c r="I108" s="11"/>
     </row>
     <row r="109" spans="1:9" ht="15.75">
-      <c r="A109" s="38"/>
-      <c r="B109" s="38"/>
-      <c r="C109" s="26" t="s">
-        <v>124</v>
+      <c r="A109" s="41"/>
+      <c r="B109" s="41"/>
+      <c r="C109" s="20" t="s">
+        <v>232</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2"/>
-      <c r="F109" s="2"/>
+      <c r="F109" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G109" s="2"/>
       <c r="H109" s="11"/>
       <c r="I109" s="11"/>
     </row>
     <row r="110" spans="1:9" ht="15.75">
-      <c r="A110" s="38"/>
-      <c r="B110" s="38"/>
-      <c r="C110" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D110" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A110" s="41"/>
+      <c r="B110" s="41"/>
+      <c r="C110" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="D110" s="2"/>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
       <c r="G110" s="2"/>
@@ -3065,14 +3088,12 @@
       <c r="I110" s="11"/>
     </row>
     <row r="111" spans="1:9" ht="15.75">
-      <c r="A111" s="38"/>
-      <c r="B111" s="38"/>
-      <c r="C111" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D111" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A111" s="41"/>
+      <c r="B111" s="41"/>
+      <c r="C111" s="26" t="s">
+        <v>122</v>
+      </c>
+      <c r="D111" s="2"/>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
       <c r="G111" s="2"/>
@@ -3080,143 +3101,145 @@
       <c r="I111" s="11"/>
     </row>
     <row r="112" spans="1:9" ht="15.75">
-      <c r="A112" s="38"/>
-      <c r="B112" s="38"/>
+      <c r="A112" s="41"/>
+      <c r="B112" s="41"/>
       <c r="C112" s="20" t="s">
-        <v>129</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D112" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E112" s="2"/>
       <c r="F112" s="2"/>
       <c r="G112" s="2"/>
       <c r="H112" s="11"/>
       <c r="I112" s="11"/>
     </row>
     <row r="113" spans="1:9" ht="15.75">
-      <c r="A113" s="38"/>
-      <c r="B113" s="38"/>
+      <c r="A113" s="41"/>
+      <c r="B113" s="41"/>
       <c r="C113" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="D113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E113" s="2"/>
       <c r="F113" s="2"/>
       <c r="G113" s="2"/>
       <c r="H113" s="11"/>
       <c r="I113" s="11"/>
     </row>
     <row r="114" spans="1:9" ht="15.75">
-      <c r="A114" s="38"/>
-      <c r="B114" s="38"/>
+      <c r="A114" s="41"/>
+      <c r="B114" s="41"/>
       <c r="C114" s="20" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="E114" s="2"/>
+      <c r="E114" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F114" s="2"/>
-      <c r="G114" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G114" s="2"/>
       <c r="H114" s="11"/>
       <c r="I114" s="11"/>
     </row>
     <row r="115" spans="1:9" ht="15.75">
-      <c r="A115" s="38"/>
-      <c r="B115" s="38"/>
-      <c r="C115" s="7" t="s">
-        <v>74</v>
+      <c r="A115" s="41"/>
+      <c r="B115" s="41"/>
+      <c r="C115" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="E115" s="2"/>
+      <c r="E115" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F115" s="2"/>
-      <c r="G115" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G115" s="2"/>
       <c r="H115" s="11"/>
       <c r="I115" s="11"/>
     </row>
     <row r="116" spans="1:9" ht="15.75">
-      <c r="A116" s="38"/>
-      <c r="B116" s="38"/>
-      <c r="C116" s="24" t="s">
-        <v>132</v>
+      <c r="A116" s="41"/>
+      <c r="B116" s="41"/>
+      <c r="C116" s="20" t="s">
+        <v>129</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
-      <c r="G116" s="2"/>
+      <c r="G116" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H116" s="11"/>
       <c r="I116" s="11"/>
     </row>
     <row r="117" spans="1:9" ht="15.75">
-      <c r="A117" s="38"/>
-      <c r="B117" s="38"/>
+      <c r="A117" s="41"/>
+      <c r="B117" s="41"/>
       <c r="C117" s="7" t="s">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="E117" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E117" s="2"/>
       <c r="F117" s="2"/>
-      <c r="G117" s="2"/>
+      <c r="G117" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H117" s="11"/>
       <c r="I117" s="11"/>
     </row>
     <row r="118" spans="1:9" ht="15.75">
-      <c r="A118" s="38"/>
-      <c r="B118" s="38"/>
-      <c r="C118" s="7" t="s">
-        <v>134</v>
+      <c r="A118" s="41"/>
+      <c r="B118" s="41"/>
+      <c r="C118" s="24" t="s">
+        <v>130</v>
       </c>
       <c r="D118" s="2"/>
-      <c r="E118" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E118" s="2"/>
       <c r="F118" s="2"/>
       <c r="G118" s="2"/>
       <c r="H118" s="11"/>
       <c r="I118" s="11"/>
     </row>
     <row r="119" spans="1:9" ht="15.75">
-      <c r="A119" s="38"/>
-      <c r="B119" s="38"/>
-      <c r="C119" s="24" t="s">
-        <v>22</v>
+      <c r="A119" s="41"/>
+      <c r="B119" s="41"/>
+      <c r="C119" s="7" t="s">
+        <v>131</v>
       </c>
       <c r="D119" s="2"/>
-      <c r="E119" s="2"/>
+      <c r="E119" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F119" s="2"/>
       <c r="G119" s="2"/>
       <c r="H119" s="11"/>
       <c r="I119" s="11"/>
     </row>
     <row r="120" spans="1:9" ht="15.75">
-      <c r="A120" s="38"/>
-      <c r="B120" s="38"/>
-      <c r="C120" s="26" t="s">
-        <v>135</v>
+      <c r="A120" s="41"/>
+      <c r="B120" s="41"/>
+      <c r="C120" s="7" t="s">
+        <v>132</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="E120" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F120" s="2"/>
       <c r="G120" s="2"/>
       <c r="H120" s="11"/>
       <c r="I120" s="11"/>
     </row>
     <row r="121" spans="1:9" ht="15.75">
-      <c r="A121" s="38"/>
-      <c r="B121" s="38"/>
-      <c r="C121" s="20" t="s">
-        <v>138</v>
-      </c>
-      <c r="D121" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A121" s="41"/>
+      <c r="B121" s="41"/>
+      <c r="C121" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="D121" s="2"/>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
       <c r="G121" s="2"/>
@@ -3224,14 +3247,12 @@
       <c r="I121" s="11"/>
     </row>
     <row r="122" spans="1:9" ht="15.75">
-      <c r="A122" s="38"/>
-      <c r="B122" s="38"/>
-      <c r="C122" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D122" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A122" s="41"/>
+      <c r="B122" s="41"/>
+      <c r="C122" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="D122" s="2"/>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
       <c r="G122" s="2"/>
@@ -3239,10 +3260,10 @@
       <c r="I122" s="11"/>
     </row>
     <row r="123" spans="1:9" ht="15.75">
-      <c r="A123" s="38"/>
-      <c r="B123" s="38"/>
+      <c r="A123" s="41"/>
+      <c r="B123" s="41"/>
       <c r="C123" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D123" s="2" t="s">
         <v>8</v>
@@ -3254,10 +3275,10 @@
       <c r="I123" s="11"/>
     </row>
     <row r="124" spans="1:9" ht="15.75">
-      <c r="A124" s="38"/>
-      <c r="B124" s="38"/>
+      <c r="A124" s="41"/>
+      <c r="B124" s="41"/>
       <c r="C124" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D124" s="2" t="s">
         <v>8</v>
@@ -3269,27 +3290,29 @@
       <c r="I124" s="11"/>
     </row>
     <row r="125" spans="1:9" ht="15.75">
-      <c r="A125" s="38"/>
-      <c r="B125" s="38"/>
+      <c r="A125" s="41"/>
+      <c r="B125" s="41"/>
       <c r="C125" s="20" t="s">
-        <v>136</v>
-      </c>
-      <c r="D125" s="2"/>
-      <c r="E125" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="D125" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E125" s="2"/>
       <c r="F125" s="2"/>
       <c r="G125" s="2"/>
       <c r="H125" s="11"/>
       <c r="I125" s="11"/>
     </row>
     <row r="126" spans="1:9" ht="15.75">
-      <c r="A126" s="38"/>
-      <c r="B126" s="38"/>
-      <c r="C126" s="27" t="s">
-        <v>137</v>
-      </c>
-      <c r="D126" s="2"/>
+      <c r="A126" s="41"/>
+      <c r="B126" s="41"/>
+      <c r="C126" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="D126" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E126" s="2"/>
       <c r="F126" s="2"/>
       <c r="G126" s="2"/>
@@ -3297,55 +3320,53 @@
       <c r="I126" s="11"/>
     </row>
     <row r="127" spans="1:9" ht="15.75">
-      <c r="A127" s="38"/>
-      <c r="B127" s="38"/>
-      <c r="C127" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="D127" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E127" s="2"/>
+      <c r="A127" s="41"/>
+      <c r="B127" s="41"/>
+      <c r="C127" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F127" s="2"/>
       <c r="G127" s="2"/>
       <c r="H127" s="11"/>
       <c r="I127" s="11"/>
     </row>
     <row r="128" spans="1:9" ht="15.75">
-      <c r="A128" s="38"/>
-      <c r="B128" s="38"/>
-      <c r="C128" s="21" t="s">
-        <v>143</v>
+      <c r="A128" s="41"/>
+      <c r="B128" s="41"/>
+      <c r="C128" s="27" t="s">
+        <v>135</v>
       </c>
       <c r="D128" s="2"/>
-      <c r="E128" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E128" s="2"/>
       <c r="F128" s="2"/>
       <c r="G128" s="2"/>
       <c r="H128" s="11"/>
       <c r="I128" s="11"/>
     </row>
     <row r="129" spans="1:9" ht="15.75">
-      <c r="A129" s="38"/>
-      <c r="B129" s="38"/>
+      <c r="A129" s="41"/>
+      <c r="B129" s="41"/>
       <c r="C129" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="D129" s="2"/>
-      <c r="E129" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="D129" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E129" s="2"/>
       <c r="F129" s="2"/>
       <c r="G129" s="2"/>
       <c r="H129" s="11"/>
       <c r="I129" s="11"/>
     </row>
     <row r="130" spans="1:9" ht="15.75">
-      <c r="A130" s="38"/>
-      <c r="B130" s="38"/>
+      <c r="A130" s="41"/>
+      <c r="B130" s="41"/>
       <c r="C130" s="21" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
@@ -3357,42 +3378,44 @@
       <c r="I130" s="11"/>
     </row>
     <row r="131" spans="1:9" ht="15.75">
-      <c r="A131" s="38"/>
-      <c r="B131" s="38"/>
-      <c r="C131" s="20" t="s">
-        <v>146</v>
-      </c>
-      <c r="D131" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E131" s="2"/>
+      <c r="A131" s="41"/>
+      <c r="B131" s="41"/>
+      <c r="C131" s="21" t="s">
+        <v>142</v>
+      </c>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F131" s="2"/>
       <c r="G131" s="2"/>
       <c r="H131" s="11"/>
       <c r="I131" s="11"/>
     </row>
     <row r="132" spans="1:9" ht="15.75">
-      <c r="A132" s="38"/>
-      <c r="B132" s="38"/>
-      <c r="C132" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D132" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E132" s="2"/>
+      <c r="A132" s="41"/>
+      <c r="B132" s="41"/>
+      <c r="C132" s="21" t="s">
+        <v>143</v>
+      </c>
+      <c r="D132" s="2"/>
+      <c r="E132" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F132" s="2"/>
       <c r="G132" s="2"/>
       <c r="H132" s="11"/>
       <c r="I132" s="11"/>
     </row>
     <row r="133" spans="1:9" ht="15.75">
-      <c r="A133" s="38"/>
-      <c r="B133" s="38"/>
-      <c r="C133" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D133" s="2"/>
+      <c r="A133" s="41"/>
+      <c r="B133" s="41"/>
+      <c r="C133" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="D133" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E133" s="2"/>
       <c r="F133" s="2"/>
       <c r="G133" s="2"/>
@@ -3400,10 +3423,10 @@
       <c r="I133" s="11"/>
     </row>
     <row r="134" spans="1:9" ht="15.75">
-      <c r="A134" s="38"/>
-      <c r="B134" s="38"/>
+      <c r="A134" s="41"/>
+      <c r="B134" s="41"/>
       <c r="C134" s="20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D134" s="2" t="s">
         <v>8</v>
@@ -3415,14 +3438,12 @@
       <c r="I134" s="11"/>
     </row>
     <row r="135" spans="1:9" ht="15.75">
-      <c r="A135" s="38"/>
-      <c r="B135" s="38"/>
-      <c r="C135" s="20" t="s">
-        <v>139</v>
-      </c>
-      <c r="D135" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A135" s="41"/>
+      <c r="B135" s="41"/>
+      <c r="C135" s="26" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="2"/>
       <c r="E135" s="2"/>
       <c r="F135" s="2"/>
       <c r="G135" s="2"/>
@@ -3430,10 +3451,10 @@
       <c r="I135" s="11"/>
     </row>
     <row r="136" spans="1:9" ht="15.75">
-      <c r="A136" s="38"/>
-      <c r="B136" s="38"/>
+      <c r="A136" s="41"/>
+      <c r="B136" s="41"/>
       <c r="C136" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D136" s="2" t="s">
         <v>8</v>
@@ -3445,10 +3466,10 @@
       <c r="I136" s="11"/>
     </row>
     <row r="137" spans="1:9" ht="15.75">
-      <c r="A137" s="38"/>
-      <c r="B137" s="38"/>
+      <c r="A137" s="41"/>
+      <c r="B137" s="41"/>
       <c r="C137" s="20" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D137" s="2" t="s">
         <v>8</v>
@@ -3460,10 +3481,10 @@
       <c r="I137" s="11"/>
     </row>
     <row r="138" spans="1:9" ht="15.75">
-      <c r="A138" s="38"/>
-      <c r="B138" s="38"/>
+      <c r="A138" s="41"/>
+      <c r="B138" s="41"/>
       <c r="C138" s="20" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D138" s="2" t="s">
         <v>8</v>
@@ -3475,10 +3496,10 @@
       <c r="I138" s="11"/>
     </row>
     <row r="139" spans="1:9" ht="15.75">
-      <c r="A139" s="38"/>
-      <c r="B139" s="38"/>
-      <c r="C139" s="21" t="s">
-        <v>149</v>
+      <c r="A139" s="41"/>
+      <c r="B139" s="41"/>
+      <c r="C139" s="20" t="s">
+        <v>139</v>
       </c>
       <c r="D139" s="2" t="s">
         <v>8</v>
@@ -3490,40 +3511,40 @@
       <c r="I139" s="11"/>
     </row>
     <row r="140" spans="1:9" ht="15.75">
-      <c r="A140" s="38"/>
-      <c r="B140" s="38"/>
-      <c r="C140" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="D140" s="2"/>
-      <c r="E140" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A140" s="41"/>
+      <c r="B140" s="41"/>
+      <c r="C140" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E140" s="2"/>
       <c r="F140" s="2"/>
       <c r="G140" s="2"/>
       <c r="H140" s="11"/>
       <c r="I140" s="11"/>
     </row>
     <row r="141" spans="1:9" ht="15.75">
-      <c r="A141" s="38"/>
-      <c r="B141" s="38"/>
+      <c r="A141" s="41"/>
+      <c r="B141" s="41"/>
       <c r="C141" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="D141" s="2"/>
-      <c r="E141" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="D141" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E141" s="2"/>
       <c r="F141" s="2"/>
       <c r="G141" s="2"/>
       <c r="H141" s="11"/>
       <c r="I141" s="11"/>
     </row>
     <row r="142" spans="1:9" ht="15.75">
-      <c r="A142" s="38"/>
-      <c r="B142" s="38"/>
+      <c r="A142" s="41"/>
+      <c r="B142" s="41"/>
       <c r="C142" s="21" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
@@ -3535,42 +3556,44 @@
       <c r="I142" s="11"/>
     </row>
     <row r="143" spans="1:9" ht="15.75">
-      <c r="A143" s="38"/>
-      <c r="B143" s="38"/>
+      <c r="A143" s="41"/>
+      <c r="B143" s="41"/>
       <c r="C143" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="D143" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E143" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="D143" s="2"/>
+      <c r="E143" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F143" s="2"/>
       <c r="G143" s="2"/>
       <c r="H143" s="11"/>
       <c r="I143" s="11"/>
     </row>
     <row r="144" spans="1:9" ht="15.75">
-      <c r="A144" s="38"/>
-      <c r="B144" s="38"/>
-      <c r="C144" s="20" t="s">
-        <v>147</v>
-      </c>
-      <c r="D144" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E144" s="2"/>
+      <c r="A144" s="41"/>
+      <c r="B144" s="41"/>
+      <c r="C144" s="21" t="s">
+        <v>150</v>
+      </c>
+      <c r="D144" s="2"/>
+      <c r="E144" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F144" s="2"/>
       <c r="G144" s="2"/>
       <c r="H144" s="11"/>
       <c r="I144" s="11"/>
     </row>
     <row r="145" spans="1:9" ht="15.75">
-      <c r="A145" s="38"/>
-      <c r="B145" s="38"/>
-      <c r="C145" s="26" t="s">
-        <v>154</v>
-      </c>
-      <c r="D145" s="2"/>
+      <c r="A145" s="41"/>
+      <c r="B145" s="41"/>
+      <c r="C145" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="D145" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E145" s="2"/>
       <c r="F145" s="2"/>
       <c r="G145" s="2"/>
@@ -3578,10 +3601,10 @@
       <c r="I145" s="11"/>
     </row>
     <row r="146" spans="1:9" ht="15.75">
-      <c r="A146" s="38"/>
-      <c r="B146" s="38"/>
+      <c r="A146" s="41"/>
+      <c r="B146" s="41"/>
       <c r="C146" s="20" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D146" s="2" t="s">
         <v>8</v>
@@ -3593,14 +3616,12 @@
       <c r="I146" s="11"/>
     </row>
     <row r="147" spans="1:9" ht="15.75">
-      <c r="A147" s="38"/>
-      <c r="B147" s="38"/>
-      <c r="C147" s="20" t="s">
-        <v>155</v>
-      </c>
-      <c r="D147" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A147" s="41"/>
+      <c r="B147" s="41"/>
+      <c r="C147" s="26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D147" s="2"/>
       <c r="E147" s="2"/>
       <c r="F147" s="2"/>
       <c r="G147" s="2"/>
@@ -3608,10 +3629,10 @@
       <c r="I147" s="11"/>
     </row>
     <row r="148" spans="1:9" ht="15.75">
-      <c r="A148" s="38"/>
-      <c r="B148" s="38"/>
+      <c r="A148" s="41"/>
+      <c r="B148" s="41"/>
       <c r="C148" s="20" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="D148" s="2" t="s">
         <v>8</v>
@@ -3623,10 +3644,10 @@
       <c r="I148" s="11"/>
     </row>
     <row r="149" spans="1:9" ht="15.75">
-      <c r="A149" s="38"/>
-      <c r="B149" s="38"/>
+      <c r="A149" s="41"/>
+      <c r="B149" s="41"/>
       <c r="C149" s="20" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D149" s="2" t="s">
         <v>8</v>
@@ -3638,16 +3659,14 @@
       <c r="I149" s="11"/>
     </row>
     <row r="150" spans="1:9" ht="15.75">
-      <c r="A150" s="34">
-        <v>5</v>
-      </c>
-      <c r="B150" s="33" t="s">
-        <v>23</v>
-      </c>
-      <c r="C150" s="25" t="s">
-        <v>38</v>
-      </c>
-      <c r="D150" s="2"/>
+      <c r="A150" s="41"/>
+      <c r="B150" s="41"/>
+      <c r="C150" s="20" t="s">
+        <v>138</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E150" s="2"/>
       <c r="F150" s="2"/>
       <c r="G150" s="2"/>
@@ -3655,235 +3674,235 @@
       <c r="I150" s="11"/>
     </row>
     <row r="151" spans="1:9" ht="15.75">
-      <c r="A151" s="35"/>
-      <c r="B151" s="33"/>
-      <c r="C151" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="D151" s="2"/>
+      <c r="A151" s="41"/>
+      <c r="B151" s="41"/>
+      <c r="C151" s="20" t="s">
+        <v>154</v>
+      </c>
+      <c r="D151" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E151" s="2"/>
       <c r="F151" s="2"/>
-      <c r="G151" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G151" s="2"/>
       <c r="H151" s="11"/>
       <c r="I151" s="11"/>
     </row>
     <row r="152" spans="1:9" ht="15.75">
-      <c r="A152" s="35"/>
-      <c r="B152" s="33"/>
-      <c r="C152" s="7" t="s">
-        <v>158</v>
+      <c r="A152" s="32"/>
+      <c r="B152" s="32"/>
+      <c r="C152" s="26" t="s">
+        <v>233</v>
       </c>
       <c r="D152" s="2"/>
       <c r="E152" s="2"/>
-      <c r="F152" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F152" s="2"/>
       <c r="G152" s="2"/>
       <c r="H152" s="11"/>
       <c r="I152" s="11"/>
     </row>
     <row r="153" spans="1:9" ht="15.75">
-      <c r="A153" s="35"/>
-      <c r="B153" s="33"/>
-      <c r="C153" s="9" t="s">
-        <v>159</v>
+      <c r="A153" s="32"/>
+      <c r="B153" s="32"/>
+      <c r="C153" s="20" t="s">
+        <v>136</v>
       </c>
       <c r="D153" s="2"/>
-      <c r="E153" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F153" s="2"/>
+      <c r="E153" s="2"/>
+      <c r="F153" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G153" s="2"/>
       <c r="H153" s="11"/>
       <c r="I153" s="11"/>
     </row>
     <row r="154" spans="1:9" ht="15.75">
-      <c r="A154" s="35"/>
-      <c r="B154" s="33"/>
-      <c r="C154" s="25" t="s">
-        <v>160</v>
+      <c r="A154" s="32"/>
+      <c r="B154" s="32"/>
+      <c r="C154" s="20" t="s">
+        <v>153</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2"/>
-      <c r="F154" s="2"/>
+      <c r="F154" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G154" s="2"/>
       <c r="H154" s="11"/>
       <c r="I154" s="11"/>
     </row>
     <row r="155" spans="1:9" ht="15.75">
-      <c r="A155" s="35"/>
-      <c r="B155" s="33"/>
-      <c r="C155" s="7" t="s">
-        <v>161</v>
+      <c r="A155" s="32"/>
+      <c r="B155" s="32"/>
+      <c r="C155" s="20" t="s">
+        <v>138</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2"/>
-      <c r="F155" s="2"/>
-      <c r="G155" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F155" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G155" s="2"/>
       <c r="H155" s="11"/>
       <c r="I155" s="11"/>
     </row>
     <row r="156" spans="1:9" ht="15.75">
-      <c r="A156" s="35"/>
-      <c r="B156" s="33"/>
-      <c r="C156" s="7" t="s">
-        <v>162</v>
+      <c r="A156" s="32"/>
+      <c r="B156" s="32"/>
+      <c r="C156" s="43" t="s">
+        <v>139</v>
       </c>
       <c r="D156" s="2"/>
-      <c r="E156" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F156" s="2"/>
+      <c r="E156" s="2"/>
+      <c r="F156" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G156" s="2"/>
       <c r="H156" s="11"/>
       <c r="I156" s="11"/>
     </row>
     <row r="157" spans="1:9" ht="15.75">
-      <c r="A157" s="35"/>
-      <c r="B157" s="33"/>
-      <c r="C157" s="7" t="s">
-        <v>163</v>
+      <c r="A157" s="37">
+        <v>5</v>
+      </c>
+      <c r="B157" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C157" s="25" t="s">
+        <v>38</v>
       </c>
       <c r="D157" s="2"/>
       <c r="E157" s="2"/>
-      <c r="F157" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F157" s="2"/>
       <c r="G157" s="2"/>
       <c r="H157" s="11"/>
       <c r="I157" s="11"/>
     </row>
     <row r="158" spans="1:9" ht="15.75">
-      <c r="A158" s="35"/>
-      <c r="B158" s="33"/>
+      <c r="A158" s="38"/>
+      <c r="B158" s="36"/>
       <c r="C158" s="7" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="D158" s="2"/>
-      <c r="E158" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E158" s="2"/>
       <c r="F158" s="2"/>
-      <c r="G158" s="2"/>
+      <c r="G158" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H158" s="11"/>
       <c r="I158" s="11"/>
     </row>
     <row r="159" spans="1:9" ht="15.75">
-      <c r="A159" s="35"/>
-      <c r="B159" s="33"/>
-      <c r="C159" s="24" t="s">
-        <v>165</v>
+      <c r="A159" s="38"/>
+      <c r="B159" s="36"/>
+      <c r="C159" s="7" t="s">
+        <v>156</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2"/>
-      <c r="F159" s="2"/>
+      <c r="F159" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G159" s="2"/>
       <c r="H159" s="11"/>
       <c r="I159" s="11"/>
     </row>
     <row r="160" spans="1:9" ht="15.75">
-      <c r="A160" s="35"/>
-      <c r="B160" s="33"/>
-      <c r="C160" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="D160" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E160" s="2"/>
+      <c r="A160" s="38"/>
+      <c r="B160" s="36"/>
+      <c r="C160" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="D160" s="2"/>
+      <c r="E160" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F160" s="2"/>
       <c r="G160" s="2"/>
       <c r="H160" s="11"/>
       <c r="I160" s="11"/>
     </row>
     <row r="161" spans="1:9" ht="15.75">
-      <c r="A161" s="35"/>
-      <c r="B161" s="33"/>
-      <c r="C161" s="7" t="s">
-        <v>167</v>
+      <c r="A161" s="38"/>
+      <c r="B161" s="36"/>
+      <c r="C161" s="25" t="s">
+        <v>158</v>
       </c>
       <c r="D161" s="2"/>
-      <c r="E161" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E161" s="2"/>
       <c r="F161" s="2"/>
       <c r="G161" s="2"/>
       <c r="H161" s="11"/>
       <c r="I161" s="11"/>
     </row>
     <row r="162" spans="1:9" ht="15.75">
-      <c r="A162" s="35"/>
-      <c r="B162" s="33"/>
+      <c r="A162" s="38"/>
+      <c r="B162" s="36"/>
       <c r="C162" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="D162" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="D162" s="2"/>
       <c r="E162" s="2"/>
       <c r="F162" s="2"/>
-      <c r="G162" s="2"/>
+      <c r="G162" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H162" s="11"/>
       <c r="I162" s="11"/>
     </row>
     <row r="163" spans="1:9" ht="15.75">
-      <c r="A163" s="35"/>
-      <c r="B163" s="33"/>
+      <c r="A163" s="38"/>
+      <c r="B163" s="36"/>
       <c r="C163" s="7" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="D163" s="2"/>
-      <c r="E163" s="2"/>
-      <c r="F163" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E163" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F163" s="2"/>
       <c r="G163" s="2"/>
       <c r="H163" s="11"/>
       <c r="I163" s="11"/>
     </row>
     <row r="164" spans="1:9" ht="15.75">
-      <c r="A164" s="35"/>
-      <c r="B164" s="33"/>
+      <c r="A164" s="38"/>
+      <c r="B164" s="36"/>
       <c r="C164" s="7" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2"/>
-      <c r="F164" s="2"/>
-      <c r="G164" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F164" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="2"/>
       <c r="H164" s="11"/>
       <c r="I164" s="11"/>
     </row>
     <row r="165" spans="1:9" ht="15.75">
-      <c r="A165" s="35"/>
-      <c r="B165" s="33"/>
+      <c r="A165" s="38"/>
+      <c r="B165" s="36"/>
       <c r="C165" s="7" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="D165" s="2"/>
-      <c r="E165" s="2"/>
+      <c r="E165" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F165" s="2"/>
-      <c r="G165" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G165" s="2"/>
       <c r="H165" s="11"/>
       <c r="I165" s="11"/>
     </row>
     <row r="166" spans="1:9" ht="15.75">
-      <c r="A166" s="35"/>
-      <c r="B166" s="33"/>
-      <c r="C166" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="D166" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A166" s="38"/>
+      <c r="B166" s="36"/>
+      <c r="C166" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="D166" s="2"/>
       <c r="E166" s="2"/>
       <c r="F166" s="2"/>
       <c r="G166" s="2"/>
@@ -3891,16 +3910,14 @@
       <c r="I166" s="11"/>
     </row>
     <row r="167" spans="1:9" ht="15.75">
-      <c r="A167" s="34">
-        <v>6</v>
-      </c>
-      <c r="B167" s="37" t="s">
-        <v>7</v>
-      </c>
-      <c r="C167" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D167" s="2"/>
+      <c r="A167" s="38"/>
+      <c r="B167" s="36"/>
+      <c r="C167" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D167" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E167" s="2"/>
       <c r="F167" s="2"/>
       <c r="G167" s="2"/>
@@ -3908,51 +3925,55 @@
       <c r="I167" s="11"/>
     </row>
     <row r="168" spans="1:9" ht="15.75">
-      <c r="A168" s="35"/>
-      <c r="B168" s="38"/>
-      <c r="C168" s="26" t="s">
-        <v>173</v>
+      <c r="A168" s="38"/>
+      <c r="B168" s="36"/>
+      <c r="C168" s="7" t="s">
+        <v>165</v>
       </c>
       <c r="D168" s="2"/>
-      <c r="E168" s="2"/>
+      <c r="E168" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F168" s="2"/>
       <c r="G168" s="2"/>
       <c r="H168" s="11"/>
       <c r="I168" s="11"/>
     </row>
     <row r="169" spans="1:9" ht="15.75">
-      <c r="A169" s="35"/>
-      <c r="B169" s="38"/>
-      <c r="C169" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D169" s="2"/>
+      <c r="A169" s="38"/>
+      <c r="B169" s="36"/>
+      <c r="C169" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E169" s="2"/>
-      <c r="F169" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F169" s="2"/>
       <c r="G169" s="2"/>
       <c r="H169" s="11"/>
       <c r="I169" s="11"/>
     </row>
     <row r="170" spans="1:9" ht="15.75">
-      <c r="A170" s="35"/>
-      <c r="B170" s="38"/>
-      <c r="C170" s="27" t="s">
-        <v>175</v>
+      <c r="A170" s="38"/>
+      <c r="B170" s="36"/>
+      <c r="C170" s="7" t="s">
+        <v>167</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2"/>
-      <c r="F170" s="2"/>
+      <c r="F170" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G170" s="2"/>
       <c r="H170" s="11"/>
       <c r="I170" s="11"/>
     </row>
     <row r="171" spans="1:9" ht="15.75">
-      <c r="A171" s="35"/>
-      <c r="B171" s="38"/>
-      <c r="C171" s="21" t="s">
-        <v>177</v>
+      <c r="A171" s="38"/>
+      <c r="B171" s="36"/>
+      <c r="C171" s="7" t="s">
+        <v>168</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2"/>
@@ -3964,207 +3985,205 @@
       <c r="I171" s="11"/>
     </row>
     <row r="172" spans="1:9" ht="15.75">
-      <c r="A172" s="35"/>
-      <c r="B172" s="38"/>
-      <c r="C172" s="23" t="s">
-        <v>176</v>
+      <c r="A172" s="38"/>
+      <c r="B172" s="36"/>
+      <c r="C172" s="7" t="s">
+        <v>170</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2"/>
-      <c r="F172" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G172" s="2"/>
+      <c r="F172" s="2"/>
+      <c r="G172" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H172" s="11"/>
       <c r="I172" s="11"/>
     </row>
     <row r="173" spans="1:9" ht="15.75">
-      <c r="A173" s="35"/>
-      <c r="B173" s="38"/>
-      <c r="C173" s="21" t="s">
-        <v>178</v>
-      </c>
-      <c r="D173" s="2"/>
-      <c r="E173" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A173" s="38"/>
+      <c r="B173" s="36"/>
+      <c r="C173" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E173" s="2"/>
       <c r="F173" s="2"/>
       <c r="G173" s="2"/>
       <c r="H173" s="11"/>
       <c r="I173" s="11"/>
     </row>
     <row r="174" spans="1:9" ht="15.75">
-      <c r="A174" s="35"/>
-      <c r="B174" s="38"/>
-      <c r="C174" s="21" t="s">
-        <v>179</v>
+      <c r="A174" s="37">
+        <v>6</v>
+      </c>
+      <c r="B174" s="40" t="s">
+        <v>7</v>
+      </c>
+      <c r="C174" s="24" t="s">
+        <v>19</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2"/>
-      <c r="F174" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F174" s="2"/>
       <c r="G174" s="2"/>
       <c r="H174" s="11"/>
       <c r="I174" s="11"/>
     </row>
     <row r="175" spans="1:9" ht="15.75">
-      <c r="A175" s="35"/>
-      <c r="B175" s="38"/>
-      <c r="C175" s="21" t="s">
-        <v>180</v>
+      <c r="A175" s="38"/>
+      <c r="B175" s="41"/>
+      <c r="C175" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2"/>
       <c r="F175" s="2"/>
-      <c r="G175" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G175" s="2"/>
       <c r="H175" s="11"/>
       <c r="I175" s="11"/>
     </row>
     <row r="176" spans="1:9" ht="15.75">
-      <c r="A176" s="35"/>
-      <c r="B176" s="38"/>
-      <c r="C176" s="21" t="s">
-        <v>181</v>
+      <c r="A176" s="38"/>
+      <c r="B176" s="41"/>
+      <c r="C176" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2"/>
-      <c r="F176" s="2"/>
-      <c r="G176" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F176" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G176" s="2"/>
       <c r="H176" s="11"/>
       <c r="I176" s="11"/>
     </row>
     <row r="177" spans="1:9" ht="15.75">
-      <c r="A177" s="35"/>
-      <c r="B177" s="38"/>
-      <c r="C177" s="21" t="s">
-        <v>204</v>
+      <c r="A177" s="38"/>
+      <c r="B177" s="41"/>
+      <c r="C177" s="27" t="s">
+        <v>173</v>
       </c>
       <c r="D177" s="2"/>
-      <c r="E177" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E177" s="2"/>
       <c r="F177" s="2"/>
       <c r="G177" s="2"/>
       <c r="H177" s="11"/>
       <c r="I177" s="11"/>
     </row>
     <row r="178" spans="1:9" ht="15.75">
-      <c r="A178" s="35"/>
-      <c r="B178" s="38"/>
-      <c r="C178" s="27" t="s">
-        <v>182</v>
+      <c r="A178" s="38"/>
+      <c r="B178" s="41"/>
+      <c r="C178" s="21" t="s">
+        <v>175</v>
       </c>
       <c r="D178" s="2"/>
       <c r="E178" s="2"/>
       <c r="F178" s="2"/>
-      <c r="G178" s="2"/>
+      <c r="G178" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H178" s="11"/>
       <c r="I178" s="11"/>
     </row>
     <row r="179" spans="1:9" ht="15.75">
-      <c r="A179" s="35"/>
-      <c r="B179" s="38"/>
-      <c r="C179" s="21" t="s">
-        <v>183</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A179" s="38"/>
+      <c r="B179" s="41"/>
+      <c r="C179" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="D179" s="2"/>
       <c r="E179" s="2"/>
-      <c r="F179" s="2"/>
+      <c r="F179" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G179" s="2"/>
       <c r="H179" s="11"/>
       <c r="I179" s="11"/>
     </row>
     <row r="180" spans="1:9" ht="15.75">
-      <c r="A180" s="35"/>
-      <c r="B180" s="38"/>
+      <c r="A180" s="38"/>
+      <c r="B180" s="41"/>
       <c r="C180" s="21" t="s">
-        <v>184</v>
-      </c>
-      <c r="D180" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E180" s="2"/>
+        <v>176</v>
+      </c>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F180" s="2"/>
       <c r="G180" s="2"/>
       <c r="H180" s="11"/>
       <c r="I180" s="11"/>
     </row>
     <row r="181" spans="1:9" ht="15.75">
-      <c r="A181" s="35"/>
-      <c r="B181" s="38"/>
+      <c r="A181" s="38"/>
+      <c r="B181" s="41"/>
       <c r="C181" s="21" t="s">
-        <v>185</v>
-      </c>
-      <c r="D181" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D181" s="2"/>
       <c r="E181" s="2"/>
-      <c r="F181" s="2"/>
+      <c r="F181" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G181" s="2"/>
       <c r="H181" s="11"/>
       <c r="I181" s="11"/>
     </row>
     <row r="182" spans="1:9" ht="15.75">
-      <c r="A182" s="35"/>
-      <c r="B182" s="38"/>
+      <c r="A182" s="38"/>
+      <c r="B182" s="41"/>
       <c r="C182" s="21" t="s">
-        <v>186</v>
-      </c>
-      <c r="D182" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="D182" s="2"/>
       <c r="E182" s="2"/>
       <c r="F182" s="2"/>
-      <c r="G182" s="2"/>
+      <c r="G182" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H182" s="11"/>
       <c r="I182" s="11"/>
     </row>
     <row r="183" spans="1:9" ht="15.75">
-      <c r="A183" s="35"/>
-      <c r="B183" s="38"/>
+      <c r="A183" s="38"/>
+      <c r="B183" s="41"/>
       <c r="C183" s="21" t="s">
-        <v>187</v>
-      </c>
-      <c r="D183" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>179</v>
+      </c>
+      <c r="D183" s="2"/>
       <c r="E183" s="2"/>
       <c r="F183" s="2"/>
-      <c r="G183" s="2"/>
+      <c r="G183" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H183" s="11"/>
       <c r="I183" s="11"/>
     </row>
     <row r="184" spans="1:9" ht="15.75">
-      <c r="A184" s="35"/>
-      <c r="B184" s="38"/>
-      <c r="C184" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="D184" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E184" s="2"/>
+      <c r="A184" s="38"/>
+      <c r="B184" s="41"/>
+      <c r="C184" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="D184" s="2"/>
+      <c r="E184" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F184" s="2"/>
       <c r="G184" s="2"/>
       <c r="H184" s="11"/>
       <c r="I184" s="11"/>
     </row>
     <row r="185" spans="1:9" ht="15.75">
-      <c r="A185" s="35"/>
-      <c r="B185" s="38"/>
-      <c r="C185" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="D185" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A185" s="38"/>
+      <c r="B185" s="41"/>
+      <c r="C185" s="27" t="s">
+        <v>180</v>
+      </c>
+      <c r="D185" s="2"/>
       <c r="E185" s="2"/>
       <c r="F185" s="2"/>
       <c r="G185" s="2"/>
@@ -4172,12 +4191,14 @@
       <c r="I185" s="11"/>
     </row>
     <row r="186" spans="1:9" ht="15.75">
-      <c r="A186" s="35"/>
-      <c r="B186" s="38"/>
-      <c r="C186" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="D186" s="2"/>
+      <c r="A186" s="38"/>
+      <c r="B186" s="41"/>
+      <c r="C186" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E186" s="2"/>
       <c r="F186" s="2"/>
       <c r="G186" s="2"/>
@@ -4185,12 +4206,14 @@
       <c r="I186" s="11"/>
     </row>
     <row r="187" spans="1:9" ht="15.75">
-      <c r="A187" s="35"/>
-      <c r="B187" s="38"/>
-      <c r="C187" s="26" t="s">
-        <v>190</v>
-      </c>
-      <c r="D187" s="2"/>
+      <c r="A187" s="38"/>
+      <c r="B187" s="41"/>
+      <c r="C187" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D187" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E187" s="2"/>
       <c r="F187" s="2"/>
       <c r="G187" s="2"/>
@@ -4198,72 +4221,74 @@
       <c r="I187" s="11"/>
     </row>
     <row r="188" spans="1:9" ht="15.75">
-      <c r="A188" s="35"/>
-      <c r="B188" s="38"/>
-      <c r="C188" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="D188" s="2"/>
+      <c r="A188" s="38"/>
+      <c r="B188" s="41"/>
+      <c r="C188" s="21" t="s">
+        <v>183</v>
+      </c>
+      <c r="D188" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E188" s="2"/>
-      <c r="F188" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F188" s="2"/>
       <c r="G188" s="2"/>
       <c r="H188" s="11"/>
       <c r="I188" s="11"/>
     </row>
     <row r="189" spans="1:9" ht="15.75">
-      <c r="A189" s="35"/>
-      <c r="B189" s="38"/>
-      <c r="C189" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D189" s="2"/>
+      <c r="A189" s="38"/>
+      <c r="B189" s="41"/>
+      <c r="C189" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="D189" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E189" s="2"/>
-      <c r="F189" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F189" s="2"/>
       <c r="G189" s="2"/>
       <c r="H189" s="11"/>
       <c r="I189" s="11"/>
     </row>
     <row r="190" spans="1:9" ht="15.75">
-      <c r="A190" s="35"/>
-      <c r="B190" s="38"/>
-      <c r="C190" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="D190" s="2"/>
+      <c r="A190" s="38"/>
+      <c r="B190" s="41"/>
+      <c r="C190" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="D190" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E190" s="2"/>
-      <c r="F190" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F190" s="2"/>
       <c r="G190" s="2"/>
       <c r="H190" s="11"/>
       <c r="I190" s="11"/>
     </row>
     <row r="191" spans="1:9" ht="15.75">
-      <c r="A191" s="35"/>
-      <c r="B191" s="38"/>
+      <c r="A191" s="38"/>
+      <c r="B191" s="41"/>
       <c r="C191" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="D191" s="2"/>
+        <v>186</v>
+      </c>
+      <c r="D191" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E191" s="2"/>
-      <c r="F191" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F191" s="2"/>
       <c r="G191" s="2"/>
       <c r="H191" s="11"/>
       <c r="I191" s="11"/>
     </row>
     <row r="192" spans="1:9" ht="15.75">
-      <c r="A192" s="35"/>
-      <c r="B192" s="38"/>
-      <c r="C192" s="26" t="s">
-        <v>192</v>
-      </c>
-      <c r="D192" s="2"/>
+      <c r="A192" s="38"/>
+      <c r="B192" s="41"/>
+      <c r="C192" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="D192" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E192" s="2"/>
       <c r="F192" s="2"/>
       <c r="G192" s="2"/>
@@ -4271,143 +4296,139 @@
       <c r="I192" s="11"/>
     </row>
     <row r="193" spans="1:9" ht="15.75">
-      <c r="A193" s="35"/>
-      <c r="B193" s="38"/>
-      <c r="C193" s="20" t="s">
-        <v>195</v>
+      <c r="A193" s="38"/>
+      <c r="B193" s="41"/>
+      <c r="C193" s="24" t="s">
+        <v>20</v>
       </c>
       <c r="D193" s="2"/>
-      <c r="E193" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E193" s="2"/>
       <c r="F193" s="2"/>
       <c r="G193" s="2"/>
       <c r="H193" s="11"/>
       <c r="I193" s="11"/>
     </row>
     <row r="194" spans="1:9" ht="15.75">
-      <c r="A194" s="35"/>
-      <c r="B194" s="38"/>
-      <c r="C194" s="20" t="s">
-        <v>196</v>
+      <c r="A194" s="38"/>
+      <c r="B194" s="41"/>
+      <c r="C194" s="26" t="s">
+        <v>188</v>
       </c>
       <c r="D194" s="2"/>
       <c r="E194" s="2"/>
       <c r="F194" s="2"/>
-      <c r="G194" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G194" s="2"/>
       <c r="H194" s="11"/>
       <c r="I194" s="11"/>
     </row>
     <row r="195" spans="1:9" ht="15.75">
-      <c r="A195" s="35"/>
-      <c r="B195" s="38"/>
-      <c r="C195" s="26" t="s">
-        <v>197</v>
+      <c r="A195" s="38"/>
+      <c r="B195" s="41"/>
+      <c r="C195" s="20" t="s">
+        <v>189</v>
       </c>
       <c r="D195" s="2"/>
       <c r="E195" s="2"/>
-      <c r="F195" s="2"/>
+      <c r="F195" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G195" s="2"/>
       <c r="H195" s="11"/>
       <c r="I195" s="11"/>
     </row>
     <row r="196" spans="1:9" ht="15.75">
-      <c r="A196" s="35"/>
-      <c r="B196" s="38"/>
+      <c r="A196" s="38"/>
+      <c r="B196" s="41"/>
       <c r="C196" s="20" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="D196" s="2"/>
       <c r="E196" s="2"/>
-      <c r="F196" s="2"/>
-      <c r="G196" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F196" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G196" s="2"/>
       <c r="H196" s="11"/>
       <c r="I196" s="11"/>
     </row>
     <row r="197" spans="1:9" ht="15.75">
-      <c r="A197" s="35"/>
-      <c r="B197" s="38"/>
+      <c r="A197" s="38"/>
+      <c r="B197" s="41"/>
       <c r="C197" s="20" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D197" s="2"/>
-      <c r="E197" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F197" s="2"/>
+      <c r="E197" s="2"/>
+      <c r="F197" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G197" s="2"/>
       <c r="H197" s="11"/>
       <c r="I197" s="11"/>
     </row>
     <row r="198" spans="1:9" ht="15.75">
-      <c r="A198" s="35"/>
-      <c r="B198" s="38"/>
+      <c r="A198" s="38"/>
+      <c r="B198" s="41"/>
       <c r="C198" s="20" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D198" s="2"/>
-      <c r="E198" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F198" s="2"/>
+      <c r="E198" s="2"/>
+      <c r="F198" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G198" s="2"/>
       <c r="H198" s="11"/>
       <c r="I198" s="11"/>
     </row>
     <row r="199" spans="1:9" ht="15.75">
-      <c r="A199" s="35"/>
-      <c r="B199" s="38"/>
-      <c r="C199" s="20" t="s">
-        <v>200</v>
+      <c r="A199" s="38"/>
+      <c r="B199" s="41"/>
+      <c r="C199" s="26" t="s">
+        <v>190</v>
       </c>
       <c r="D199" s="2"/>
-      <c r="E199" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E199" s="2"/>
       <c r="F199" s="2"/>
       <c r="G199" s="2"/>
       <c r="H199" s="11"/>
       <c r="I199" s="11"/>
     </row>
     <row r="200" spans="1:9" ht="15.75">
-      <c r="A200" s="35"/>
-      <c r="B200" s="38"/>
+      <c r="A200" s="38"/>
+      <c r="B200" s="41"/>
       <c r="C200" s="20" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D200" s="2"/>
-      <c r="E200" s="2"/>
+      <c r="E200" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F200" s="2"/>
-      <c r="G200" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G200" s="2"/>
       <c r="H200" s="11"/>
       <c r="I200" s="11"/>
     </row>
     <row r="201" spans="1:9" ht="15.75">
-      <c r="A201" s="36"/>
-      <c r="B201" s="32"/>
-      <c r="C201" s="9"/>
+      <c r="A201" s="38"/>
+      <c r="B201" s="41"/>
+      <c r="C201" s="20" t="s">
+        <v>194</v>
+      </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2"/>
       <c r="F201" s="2"/>
-      <c r="G201" s="2"/>
+      <c r="G201" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H201" s="11"/>
       <c r="I201" s="11"/>
     </row>
     <row r="202" spans="1:9" ht="15.75">
-      <c r="A202" s="34">
-        <v>5</v>
-      </c>
-      <c r="B202" s="33" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="25" t="s">
-        <v>78</v>
+      <c r="A202" s="38"/>
+      <c r="B202" s="41"/>
+      <c r="C202" s="26" t="s">
+        <v>195</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2"/>
@@ -4417,92 +4438,84 @@
       <c r="I202" s="11"/>
     </row>
     <row r="203" spans="1:9" ht="15.75">
-      <c r="A203" s="35"/>
-      <c r="B203" s="33"/>
-      <c r="C203" s="26" t="s">
-        <v>210</v>
+      <c r="A203" s="38"/>
+      <c r="B203" s="41"/>
+      <c r="C203" s="20" t="s">
+        <v>78</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2"/>
       <c r="F203" s="2"/>
-      <c r="G203" s="2"/>
+      <c r="G203" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H203" s="11"/>
       <c r="I203" s="11"/>
     </row>
-    <row r="204" spans="1:9" s="41" customFormat="1" ht="15.75">
-      <c r="A204" s="35"/>
-      <c r="B204" s="33"/>
+    <row r="204" spans="1:9" ht="15.75">
+      <c r="A204" s="38"/>
+      <c r="B204" s="41"/>
       <c r="C204" s="20" t="s">
-        <v>206</v>
-      </c>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F204" s="39"/>
-      <c r="G204" s="39"/>
-      <c r="H204" s="40"/>
-      <c r="I204" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" s="41" customFormat="1" ht="15.75">
-      <c r="A205" s="35"/>
-      <c r="B205" s="33"/>
+        <v>196</v>
+      </c>
+      <c r="D204" s="2"/>
+      <c r="E204" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="11"/>
+    </row>
+    <row r="205" spans="1:9" ht="15.75">
+      <c r="A205" s="38"/>
+      <c r="B205" s="41"/>
       <c r="C205" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="D205" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="E205" s="39"/>
-      <c r="F205" s="39"/>
-      <c r="G205" s="39"/>
-      <c r="H205" s="40"/>
-      <c r="I205" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="206" spans="1:9" s="41" customFormat="1" ht="15.75">
-      <c r="A206" s="35"/>
-      <c r="B206" s="33"/>
+        <v>197</v>
+      </c>
+      <c r="D205" s="2"/>
+      <c r="E205" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F205" s="2"/>
+      <c r="G205" s="2"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="11"/>
+    </row>
+    <row r="206" spans="1:9" ht="15.75">
+      <c r="A206" s="38"/>
+      <c r="B206" s="41"/>
       <c r="C206" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="D206" s="39"/>
-      <c r="E206" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="F206" s="39"/>
-      <c r="G206" s="39"/>
-      <c r="H206" s="40"/>
-      <c r="I206" s="11">
-        <v>5</v>
-      </c>
+        <v>198</v>
+      </c>
+      <c r="D206" s="2"/>
+      <c r="E206" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F206" s="2"/>
+      <c r="G206" s="2"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="11"/>
     </row>
     <row r="207" spans="1:9" ht="15.75">
-      <c r="A207" s="35"/>
-      <c r="B207" s="33"/>
-      <c r="C207" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D207" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A207" s="38"/>
+      <c r="B207" s="41"/>
+      <c r="C207" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="D207" s="2"/>
       <c r="E207" s="2"/>
       <c r="F207" s="2"/>
-      <c r="G207" s="2"/>
+      <c r="G207" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H207" s="11"/>
-      <c r="I207" s="11">
-        <v>3</v>
-      </c>
+      <c r="I207" s="11"/>
     </row>
     <row r="208" spans="1:9" ht="15.75">
-      <c r="A208" s="35"/>
-      <c r="B208" s="33"/>
-      <c r="C208" s="25" t="s">
-        <v>212</v>
-      </c>
+      <c r="A208" s="39"/>
+      <c r="B208" s="42"/>
+      <c r="C208" s="9"/>
       <c r="D208" s="2"/>
       <c r="E208" s="2"/>
       <c r="F208" s="2"/>
@@ -4511,10 +4524,14 @@
       <c r="I208" s="11"/>
     </row>
     <row r="209" spans="1:9" ht="15.75">
-      <c r="A209" s="35"/>
-      <c r="B209" s="33"/>
-      <c r="C209" s="26" t="s">
-        <v>210</v>
+      <c r="A209" s="37">
+        <v>7</v>
+      </c>
+      <c r="B209" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C209" s="25" t="s">
+        <v>78</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2"/>
@@ -4524,198 +4541,194 @@
       <c r="I209" s="11"/>
     </row>
     <row r="210" spans="1:9" ht="15.75">
-      <c r="A210" s="35"/>
-      <c r="B210" s="33"/>
-      <c r="C210" s="20" t="s">
-        <v>209</v>
+      <c r="A210" s="38"/>
+      <c r="B210" s="36"/>
+      <c r="C210" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="D210" s="2"/>
-      <c r="E210" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E210" s="2"/>
       <c r="F210" s="2"/>
       <c r="G210" s="2"/>
       <c r="H210" s="11"/>
-      <c r="I210" s="11">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="211" spans="1:9" ht="15.75">
-      <c r="A211" s="35"/>
-      <c r="B211" s="33"/>
+      <c r="I210" s="11"/>
+    </row>
+    <row r="211" spans="1:9" s="35" customFormat="1" ht="15.75">
+      <c r="A211" s="38"/>
+      <c r="B211" s="36"/>
       <c r="C211" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="D211" s="2"/>
-      <c r="E211" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F211" s="2"/>
-      <c r="G211" s="2"/>
-      <c r="H211" s="11"/>
+        <v>204</v>
+      </c>
+      <c r="D211" s="33"/>
+      <c r="E211" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F211" s="33"/>
+      <c r="G211" s="33"/>
+      <c r="H211" s="34"/>
       <c r="I211" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="212" spans="1:9" ht="15.75">
-      <c r="A212" s="35"/>
-      <c r="B212" s="33"/>
-      <c r="C212" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D212" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E212" s="2"/>
-      <c r="F212" s="2"/>
-      <c r="G212" s="2"/>
-      <c r="H212" s="11"/>
+    <row r="212" spans="1:9" s="35" customFormat="1" ht="15.75">
+      <c r="A212" s="38"/>
+      <c r="B212" s="36"/>
+      <c r="C212" s="20" t="s">
+        <v>205</v>
+      </c>
+      <c r="D212" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E212" s="33"/>
+      <c r="F212" s="33"/>
+      <c r="G212" s="33"/>
+      <c r="H212" s="34"/>
       <c r="I212" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="213" spans="1:9" ht="15.75">
-      <c r="A213" s="35"/>
-      <c r="B213" s="33"/>
-      <c r="C213" s="25" t="s">
-        <v>148</v>
-      </c>
-      <c r="D213" s="2"/>
-      <c r="E213" s="2"/>
-      <c r="F213" s="2"/>
-      <c r="G213" s="2"/>
-      <c r="H213" s="11"/>
-      <c r="I213" s="11"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" s="35" customFormat="1" ht="15.75">
+      <c r="A213" s="38"/>
+      <c r="B213" s="36"/>
+      <c r="C213" s="20" t="s">
+        <v>123</v>
+      </c>
+      <c r="D213" s="33"/>
+      <c r="E213" s="33" t="s">
+        <v>8</v>
+      </c>
+      <c r="F213" s="33"/>
+      <c r="G213" s="33"/>
+      <c r="H213" s="34"/>
+      <c r="I213" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="214" spans="1:9" ht="15.75">
-      <c r="A214" s="35"/>
-      <c r="B214" s="33"/>
-      <c r="C214" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D214" s="2"/>
+      <c r="A214" s="38"/>
+      <c r="B214" s="36"/>
+      <c r="C214" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D214" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E214" s="2"/>
       <c r="F214" s="2"/>
       <c r="G214" s="2"/>
       <c r="H214" s="11"/>
-      <c r="I214" s="11"/>
+      <c r="I214" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="215" spans="1:9" ht="15.75">
-      <c r="A215" s="35"/>
-      <c r="B215" s="33"/>
-      <c r="C215" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A215" s="38"/>
+      <c r="B215" s="36"/>
+      <c r="C215" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D215" s="2"/>
       <c r="E215" s="2"/>
       <c r="F215" s="2"/>
       <c r="G215" s="2"/>
       <c r="H215" s="11"/>
-      <c r="I215" s="11">
-        <v>5</v>
-      </c>
+      <c r="I215" s="11"/>
     </row>
     <row r="216" spans="1:9" ht="15.75">
-      <c r="A216" s="35"/>
-      <c r="B216" s="33"/>
-      <c r="C216" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A216" s="38"/>
+      <c r="B216" s="36"/>
+      <c r="C216" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D216" s="2"/>
       <c r="E216" s="2"/>
       <c r="F216" s="2"/>
       <c r="G216" s="2"/>
       <c r="H216" s="11"/>
-      <c r="I216" s="11">
-        <v>5</v>
-      </c>
+      <c r="I216" s="11"/>
     </row>
     <row r="217" spans="1:9" ht="15.75">
-      <c r="A217" s="35"/>
-      <c r="B217" s="33"/>
-      <c r="C217" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E217" s="2"/>
+      <c r="A217" s="38"/>
+      <c r="B217" s="36"/>
+      <c r="C217" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D217" s="2"/>
+      <c r="E217" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F217" s="2"/>
       <c r="G217" s="2"/>
       <c r="H217" s="11"/>
       <c r="I217" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="15.75">
-      <c r="A218" s="35"/>
-      <c r="B218" s="33"/>
-      <c r="C218" s="25" t="s">
-        <v>215</v>
+      <c r="A218" s="38"/>
+      <c r="B218" s="36"/>
+      <c r="C218" s="20" t="s">
+        <v>209</v>
       </c>
       <c r="D218" s="2"/>
-      <c r="E218" s="2"/>
+      <c r="E218" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F218" s="2"/>
       <c r="G218" s="2"/>
       <c r="H218" s="11"/>
-      <c r="I218" s="11"/>
+      <c r="I218" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="219" spans="1:9" ht="15.75">
-      <c r="A219" s="35"/>
-      <c r="B219" s="33"/>
-      <c r="C219" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D219" s="2"/>
+      <c r="A219" s="38"/>
+      <c r="B219" s="36"/>
+      <c r="C219" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D219" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E219" s="2"/>
       <c r="F219" s="2"/>
       <c r="G219" s="2"/>
       <c r="H219" s="11"/>
-      <c r="I219" s="11"/>
+      <c r="I219" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="220" spans="1:9" ht="15.75">
-      <c r="A220" s="35"/>
-      <c r="B220" s="33"/>
-      <c r="C220" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="D220" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A220" s="38"/>
+      <c r="B220" s="36"/>
+      <c r="C220" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D220" s="2"/>
       <c r="E220" s="2"/>
       <c r="F220" s="2"/>
       <c r="G220" s="2"/>
       <c r="H220" s="11"/>
-      <c r="I220" s="11">
-        <v>3</v>
-      </c>
+      <c r="I220" s="11"/>
     </row>
     <row r="221" spans="1:9" ht="15.75">
-      <c r="A221" s="35"/>
-      <c r="B221" s="33"/>
-      <c r="C221" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D221" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A221" s="38"/>
+      <c r="B221" s="36"/>
+      <c r="C221" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D221" s="2"/>
       <c r="E221" s="2"/>
       <c r="F221" s="2"/>
       <c r="G221" s="2"/>
       <c r="H221" s="11"/>
-      <c r="I221" s="11">
-        <v>3</v>
-      </c>
+      <c r="I221" s="11"/>
     </row>
     <row r="222" spans="1:9" ht="15.75">
-      <c r="A222" s="35"/>
-      <c r="B222" s="33"/>
-      <c r="C222" s="7" t="s">
-        <v>208</v>
+      <c r="A222" s="38"/>
+      <c r="B222" s="36"/>
+      <c r="C222" s="20" t="s">
+        <v>211</v>
       </c>
       <c r="D222" s="2" t="s">
         <v>8</v>
@@ -4725,262 +4738,262 @@
       <c r="G222" s="2"/>
       <c r="H222" s="11"/>
       <c r="I222" s="11">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:9" ht="15.75">
-      <c r="A223" s="35"/>
-      <c r="B223" s="33"/>
-      <c r="C223" s="25" t="s">
-        <v>218</v>
-      </c>
-      <c r="D223" s="2"/>
+      <c r="A223" s="38"/>
+      <c r="B223" s="36"/>
+      <c r="C223" s="20" t="s">
+        <v>212</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E223" s="2"/>
       <c r="F223" s="2"/>
       <c r="G223" s="2"/>
       <c r="H223" s="11"/>
-      <c r="I223" s="11"/>
+      <c r="I223" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="224" spans="1:9" ht="15.75">
-      <c r="A224" s="35"/>
-      <c r="B224" s="33"/>
-      <c r="C224" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D224" s="2"/>
+      <c r="A224" s="38"/>
+      <c r="B224" s="36"/>
+      <c r="C224" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E224" s="2"/>
       <c r="F224" s="2"/>
       <c r="G224" s="2"/>
       <c r="H224" s="11"/>
-      <c r="I224" s="11"/>
+      <c r="I224" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="225" spans="1:9" ht="15.75">
-      <c r="A225" s="35"/>
-      <c r="B225" s="33"/>
-      <c r="C225" s="20" t="s">
-        <v>219</v>
+      <c r="A225" s="38"/>
+      <c r="B225" s="36"/>
+      <c r="C225" s="25" t="s">
+        <v>213</v>
       </c>
       <c r="D225" s="2"/>
-      <c r="E225" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E225" s="2"/>
       <c r="F225" s="2"/>
       <c r="G225" s="2"/>
       <c r="H225" s="11"/>
-      <c r="I225" s="11">
-        <v>2</v>
-      </c>
+      <c r="I225" s="11"/>
     </row>
     <row r="226" spans="1:9" ht="15.75">
-      <c r="A226" s="35"/>
-      <c r="B226" s="33"/>
-      <c r="C226" s="20" t="s">
-        <v>220</v>
+      <c r="A226" s="38"/>
+      <c r="B226" s="36"/>
+      <c r="C226" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="D226" s="2"/>
-      <c r="E226" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="E226" s="2"/>
       <c r="F226" s="2"/>
       <c r="G226" s="2"/>
       <c r="H226" s="11"/>
-      <c r="I226" s="11">
-        <v>2</v>
-      </c>
+      <c r="I226" s="11"/>
     </row>
     <row r="227" spans="1:9" ht="15.75">
-      <c r="A227" s="35"/>
-      <c r="B227" s="33"/>
-      <c r="C227" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="D227" s="2"/>
-      <c r="E227" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A227" s="38"/>
+      <c r="B227" s="36"/>
+      <c r="C227" s="20" t="s">
+        <v>214</v>
+      </c>
+      <c r="D227" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E227" s="2"/>
       <c r="F227" s="2"/>
       <c r="G227" s="2"/>
       <c r="H227" s="11"/>
       <c r="I227" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="228" spans="1:9" ht="15.75">
-      <c r="A228" s="35"/>
-      <c r="B228" s="33"/>
-      <c r="C228" s="25" t="s">
-        <v>221</v>
-      </c>
-      <c r="D228" s="2"/>
+      <c r="A228" s="38"/>
+      <c r="B228" s="36"/>
+      <c r="C228" s="20" t="s">
+        <v>215</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E228" s="2"/>
       <c r="F228" s="2"/>
       <c r="G228" s="2"/>
       <c r="H228" s="11"/>
-      <c r="I228" s="11"/>
+      <c r="I228" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="229" spans="1:9" ht="15.75">
-      <c r="A229" s="35"/>
-      <c r="B229" s="33"/>
-      <c r="C229" s="26" t="s">
-        <v>210</v>
-      </c>
-      <c r="D229" s="2"/>
+      <c r="A229" s="38"/>
+      <c r="B229" s="36"/>
+      <c r="C229" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="E229" s="2"/>
       <c r="F229" s="2"/>
       <c r="G229" s="2"/>
       <c r="H229" s="11"/>
-      <c r="I229" s="11"/>
+      <c r="I229" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="230" spans="1:9" ht="15.75">
-      <c r="A230" s="35"/>
-      <c r="B230" s="33"/>
-      <c r="C230" s="20" t="s">
-        <v>222</v>
+      <c r="A230" s="38"/>
+      <c r="B230" s="36"/>
+      <c r="C230" s="25" t="s">
+        <v>216</v>
       </c>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
       <c r="F230" s="2"/>
-      <c r="G230" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G230" s="2"/>
       <c r="H230" s="11"/>
-      <c r="I230" s="11">
-        <v>2</v>
-      </c>
+      <c r="I230" s="11"/>
     </row>
     <row r="231" spans="1:9" ht="15.75">
-      <c r="A231" s="35"/>
-      <c r="B231" s="33"/>
-      <c r="C231" s="20" t="s">
-        <v>223</v>
+      <c r="A231" s="38"/>
+      <c r="B231" s="36"/>
+      <c r="C231" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
       <c r="F231" s="2"/>
-      <c r="G231" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G231" s="2"/>
       <c r="H231" s="11"/>
-      <c r="I231" s="11">
-        <v>1</v>
-      </c>
+      <c r="I231" s="11"/>
     </row>
     <row r="232" spans="1:9" ht="15.75">
-      <c r="A232" s="35"/>
-      <c r="B232" s="33"/>
-      <c r="C232" s="7" t="s">
-        <v>208</v>
+      <c r="A232" s="38"/>
+      <c r="B232" s="36"/>
+      <c r="C232" s="20" t="s">
+        <v>217</v>
       </c>
       <c r="D232" s="2"/>
-      <c r="E232" s="2"/>
+      <c r="E232" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F232" s="2"/>
-      <c r="G232" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G232" s="2"/>
       <c r="H232" s="11"/>
       <c r="I232" s="11">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:9" ht="15.75">
-      <c r="A233" s="35"/>
-      <c r="B233" s="33"/>
-      <c r="C233" s="25" t="s">
-        <v>224</v>
+      <c r="A233" s="38"/>
+      <c r="B233" s="36"/>
+      <c r="C233" s="20" t="s">
+        <v>218</v>
       </c>
       <c r="D233" s="2"/>
-      <c r="E233" s="2"/>
+      <c r="E233" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F233" s="2"/>
       <c r="G233" s="2"/>
       <c r="H233" s="11"/>
-      <c r="I233" s="11"/>
+      <c r="I233" s="11">
+        <v>2</v>
+      </c>
     </row>
     <row r="234" spans="1:9" ht="15.75">
-      <c r="A234" s="35"/>
-      <c r="B234" s="33"/>
-      <c r="C234" s="26" t="s">
-        <v>210</v>
+      <c r="A234" s="38"/>
+      <c r="B234" s="36"/>
+      <c r="C234" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="D234" s="2"/>
-      <c r="E234" s="2"/>
+      <c r="E234" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="F234" s="2"/>
       <c r="G234" s="2"/>
       <c r="H234" s="11"/>
-      <c r="I234" s="11"/>
+      <c r="I234" s="11">
+        <v>1</v>
+      </c>
     </row>
     <row r="235" spans="1:9" ht="15.75">
-      <c r="A235" s="35"/>
-      <c r="B235" s="33"/>
-      <c r="C235" s="20" t="s">
-        <v>225</v>
+      <c r="A235" s="38"/>
+      <c r="B235" s="36"/>
+      <c r="C235" s="25" t="s">
+        <v>219</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F235" s="2"/>
       <c r="G235" s="2"/>
       <c r="H235" s="11"/>
-      <c r="I235" s="11">
-        <v>3</v>
-      </c>
+      <c r="I235" s="11"/>
     </row>
     <row r="236" spans="1:9" ht="15.75">
-      <c r="A236" s="35"/>
-      <c r="B236" s="33"/>
-      <c r="C236" s="20" t="s">
-        <v>229</v>
+      <c r="A236" s="38"/>
+      <c r="B236" s="36"/>
+      <c r="C236" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F236" s="2"/>
       <c r="G236" s="2"/>
       <c r="H236" s="11"/>
-      <c r="I236" s="11">
-        <v>3</v>
-      </c>
+      <c r="I236" s="11"/>
     </row>
     <row r="237" spans="1:9" ht="15.75">
-      <c r="A237" s="35"/>
-      <c r="B237" s="33"/>
+      <c r="A237" s="38"/>
+      <c r="B237" s="36"/>
       <c r="C237" s="20" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G237" s="2"/>
+      <c r="F237" s="2"/>
+      <c r="G237" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H237" s="11"/>
       <c r="I237" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="15.75">
-      <c r="A238" s="35"/>
-      <c r="B238" s="33"/>
+      <c r="A238" s="38"/>
+      <c r="B238" s="36"/>
       <c r="C238" s="20" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G238" s="2"/>
+      <c r="F238" s="2"/>
+      <c r="G238" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="H238" s="11"/>
       <c r="I238" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="15.75">
-      <c r="A239" s="35"/>
-      <c r="B239" s="33"/>
-      <c r="C239" s="20" t="s">
-        <v>228</v>
+      <c r="A239" s="38"/>
+      <c r="B239" s="36"/>
+      <c r="C239" s="7" t="s">
+        <v>206</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" s="2"/>
@@ -4990,31 +5003,27 @@
       </c>
       <c r="H239" s="11"/>
       <c r="I239" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="240" spans="1:9" ht="15.75">
-      <c r="A240" s="35"/>
-      <c r="B240" s="33"/>
-      <c r="C240" s="7" t="s">
-        <v>208</v>
+      <c r="A240" s="38"/>
+      <c r="B240" s="36"/>
+      <c r="C240" s="25" t="s">
+        <v>222</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" s="2"/>
       <c r="F240" s="2"/>
-      <c r="G240" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="G240" s="2"/>
       <c r="H240" s="11"/>
-      <c r="I240" s="11">
-        <v>1</v>
-      </c>
+      <c r="I240" s="11"/>
     </row>
     <row r="241" spans="1:9" ht="15.75">
-      <c r="A241" s="35"/>
-      <c r="B241" s="33"/>
-      <c r="C241" s="25" t="s">
-        <v>83</v>
+      <c r="A241" s="38"/>
+      <c r="B241" s="36"/>
+      <c r="C241" s="26" t="s">
+        <v>208</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" s="2"/>
@@ -5024,23 +5033,27 @@
       <c r="I241" s="11"/>
     </row>
     <row r="242" spans="1:9" ht="15.75">
-      <c r="A242" s="35"/>
-      <c r="B242" s="33"/>
-      <c r="C242" s="26" t="s">
-        <v>210</v>
+      <c r="A242" s="38"/>
+      <c r="B242" s="36"/>
+      <c r="C242" s="20" t="s">
+        <v>223</v>
       </c>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
-      <c r="F242" s="2"/>
+      <c r="F242" s="2" t="s">
+        <v>8</v>
+      </c>
       <c r="G242" s="2"/>
       <c r="H242" s="11"/>
-      <c r="I242" s="11"/>
+      <c r="I242" s="11">
+        <v>3</v>
+      </c>
     </row>
     <row r="243" spans="1:9" ht="15.75">
-      <c r="A243" s="35"/>
-      <c r="B243" s="33"/>
+      <c r="A243" s="38"/>
+      <c r="B243" s="36"/>
       <c r="C243" s="20" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -5050,48 +5063,48 @@
       <c r="G243" s="2"/>
       <c r="H243" s="11"/>
       <c r="I243" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="15.75">
-      <c r="A244" s="35"/>
-      <c r="B244" s="33"/>
+      <c r="A244" s="38"/>
+      <c r="B244" s="36"/>
       <c r="C244" s="20" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
-      <c r="G244" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F244" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G244" s="2"/>
       <c r="H244" s="11"/>
       <c r="I244" s="11">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="15.75">
-      <c r="A245" s="35"/>
-      <c r="B245" s="33"/>
+      <c r="A245" s="38"/>
+      <c r="B245" s="36"/>
       <c r="C245" s="20" t="s">
-        <v>83</v>
+        <v>225</v>
       </c>
       <c r="D245" s="2"/>
       <c r="E245" s="2"/>
-      <c r="F245" s="2"/>
-      <c r="G245" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F245" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G245" s="2"/>
       <c r="H245" s="11"/>
       <c r="I245" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="15.75">
-      <c r="A246" s="35"/>
-      <c r="B246" s="33"/>
-      <c r="C246" s="4" t="s">
-        <v>231</v>
+      <c r="A246" s="38"/>
+      <c r="B246" s="36"/>
+      <c r="C246" s="20" t="s">
+        <v>226</v>
       </c>
       <c r="D246" s="2"/>
       <c r="E246" s="2"/>
@@ -5101,121 +5114,124 @@
       </c>
       <c r="H246" s="11"/>
       <c r="I246" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" ht="15.75">
+      <c r="A247" s="38"/>
+      <c r="B247" s="36"/>
+      <c r="C247" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="D247" s="2"/>
+      <c r="E247" s="2"/>
+      <c r="F247" s="2"/>
+      <c r="G247" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H247" s="11"/>
+      <c r="I247" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" ht="15.75">
+      <c r="A248" s="38"/>
+      <c r="B248" s="36"/>
+      <c r="C248" s="25" t="s">
+        <v>83</v>
+      </c>
+      <c r="D248" s="2"/>
+      <c r="E248" s="2"/>
+      <c r="F248" s="2"/>
+      <c r="G248" s="2"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="11"/>
+    </row>
+    <row r="249" spans="1:9" ht="15.75">
+      <c r="A249" s="38"/>
+      <c r="B249" s="36"/>
+      <c r="C249" s="26" t="s">
+        <v>208</v>
+      </c>
+      <c r="D249" s="2"/>
+      <c r="E249" s="2"/>
+      <c r="F249" s="2"/>
+      <c r="G249" s="2"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="11"/>
+    </row>
+    <row r="250" spans="1:9" ht="15.75">
+      <c r="A250" s="38"/>
+      <c r="B250" s="36"/>
+      <c r="C250" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="D250" s="2"/>
+      <c r="E250" s="2"/>
+      <c r="F250" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="G250" s="2"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" ht="15.75">
+      <c r="A251" s="38"/>
+      <c r="B251" s="36"/>
+      <c r="C251" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="D251" s="2"/>
+      <c r="E251" s="2"/>
+      <c r="F251" s="2"/>
+      <c r="G251" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H251" s="11"/>
+      <c r="I251" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" ht="15.75">
+      <c r="A252" s="38"/>
+      <c r="B252" s="36"/>
+      <c r="C252" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="D252" s="2"/>
+      <c r="E252" s="2"/>
+      <c r="F252" s="2"/>
+      <c r="G252" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H252" s="11"/>
+      <c r="I252" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" ht="15.75">
+      <c r="A253" s="38"/>
+      <c r="B253" s="36"/>
+      <c r="C253" s="4" t="s">
+        <v>229</v>
+      </c>
+      <c r="D253" s="2"/>
+      <c r="E253" s="2"/>
+      <c r="F253" s="2"/>
+      <c r="G253" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H253" s="11"/>
+      <c r="I253" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
-      <c r="A247" s="3"/>
-      <c r="B247" s="3"/>
-      <c r="C247" s="1"/>
-      <c r="D247" s="3"/>
-      <c r="E247" s="3"/>
-      <c r="F247" s="3"/>
-      <c r="G247" s="3"/>
-      <c r="I247" s="3"/>
-    </row>
-    <row r="248" spans="1:9">
-      <c r="A248" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B248" s="3"/>
-      <c r="C248" s="1"/>
-      <c r="D248" s="3"/>
-      <c r="E248" s="3"/>
-      <c r="F248" s="3"/>
-      <c r="G248" s="3"/>
-      <c r="I248" s="3"/>
-    </row>
-    <row r="249" spans="1:9">
-      <c r="A249" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B249" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C249" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D249" s="3"/>
-      <c r="E249" s="3"/>
-      <c r="F249" s="3"/>
-      <c r="G249" s="3"/>
-      <c r="I249" s="3"/>
-    </row>
-    <row r="250" spans="1:9" ht="60">
-      <c r="A250" s="17">
-        <v>1</v>
-      </c>
-      <c r="B250" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="C250" s="4">
-        <v>1</v>
-      </c>
-      <c r="D250" s="3"/>
-      <c r="E250" s="3"/>
-      <c r="F250" s="3"/>
-      <c r="G250" s="3"/>
-      <c r="I250" s="3"/>
-    </row>
-    <row r="251" spans="1:9" ht="30">
-      <c r="A251" s="19">
-        <v>2</v>
-      </c>
-      <c r="B251" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C251" s="19">
-        <v>2</v>
-      </c>
-      <c r="D251" s="3"/>
-      <c r="E251" s="3"/>
-      <c r="F251" s="3"/>
-      <c r="G251" s="3"/>
-      <c r="I251" s="3"/>
-    </row>
-    <row r="252" spans="1:9" ht="30">
-      <c r="A252" s="19">
-        <v>3</v>
-      </c>
-      <c r="B252" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="C252" s="19">
-        <v>3</v>
-      </c>
-      <c r="D252" s="3"/>
-      <c r="E252" s="3"/>
-      <c r="F252" s="3"/>
-      <c r="G252" s="3"/>
-      <c r="I252" s="3"/>
-    </row>
-    <row r="253" spans="1:9" ht="30">
-      <c r="A253" s="19">
-        <v>4</v>
-      </c>
-      <c r="B253" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="C253" s="19">
-        <v>4</v>
-      </c>
-      <c r="D253" s="3"/>
-      <c r="E253" s="3"/>
-      <c r="F253" s="3"/>
-      <c r="G253" s="3"/>
-      <c r="I253" s="3"/>
-    </row>
-    <row r="254" spans="1:9" ht="30">
-      <c r="A254" s="19">
-        <v>5</v>
-      </c>
-      <c r="B254" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="C254" s="19">
-        <v>5</v>
-      </c>
+    <row r="254" spans="1:9">
+      <c r="A254" s="3"/>
+      <c r="B254" s="3"/>
+      <c r="C254" s="1"/>
       <c r="D254" s="3"/>
       <c r="E254" s="3"/>
       <c r="F254" s="3"/>
@@ -5223,6 +5239,11 @@
       <c r="I254" s="3"/>
     </row>
     <row r="255" spans="1:9">
+      <c r="A255" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B255" s="3"/>
+      <c r="C255" s="1"/>
       <c r="D255" s="3"/>
       <c r="E255" s="3"/>
       <c r="F255" s="3"/>
@@ -5230,122 +5251,225 @@
       <c r="I255" s="3"/>
     </row>
     <row r="256" spans="1:9">
+      <c r="A256" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B256" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C256" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="D256" s="3"/>
       <c r="E256" s="3"/>
       <c r="F256" s="3"/>
       <c r="G256" s="3"/>
       <c r="I256" s="3"/>
     </row>
-    <row r="257" spans="4:9">
+    <row r="257" spans="1:9" ht="60">
+      <c r="A257" s="17">
+        <v>1</v>
+      </c>
+      <c r="B257" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C257" s="4">
+        <v>1</v>
+      </c>
       <c r="D257" s="3"/>
       <c r="E257" s="3"/>
       <c r="F257" s="3"/>
       <c r="G257" s="3"/>
       <c r="I257" s="3"/>
     </row>
-    <row r="258" spans="4:9">
+    <row r="258" spans="1:9" ht="30">
+      <c r="A258" s="19">
+        <v>2</v>
+      </c>
+      <c r="B258" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C258" s="19">
+        <v>2</v>
+      </c>
       <c r="D258" s="3"/>
       <c r="E258" s="3"/>
       <c r="F258" s="3"/>
       <c r="G258" s="3"/>
       <c r="I258" s="3"/>
     </row>
-    <row r="259" spans="4:9">
+    <row r="259" spans="1:9" ht="30">
+      <c r="A259" s="19">
+        <v>3</v>
+      </c>
+      <c r="B259" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C259" s="19">
+        <v>3</v>
+      </c>
       <c r="D259" s="3"/>
       <c r="E259" s="3"/>
       <c r="F259" s="3"/>
       <c r="G259" s="3"/>
       <c r="I259" s="3"/>
     </row>
-    <row r="260" spans="4:9">
+    <row r="260" spans="1:9" ht="30">
+      <c r="A260" s="19">
+        <v>4</v>
+      </c>
+      <c r="B260" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C260" s="19">
+        <v>4</v>
+      </c>
       <c r="D260" s="3"/>
       <c r="E260" s="3"/>
       <c r="F260" s="3"/>
       <c r="G260" s="3"/>
       <c r="I260" s="3"/>
     </row>
-    <row r="261" spans="4:9">
+    <row r="261" spans="1:9" ht="30">
+      <c r="A261" s="19">
+        <v>5</v>
+      </c>
+      <c r="B261" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C261" s="19">
+        <v>5</v>
+      </c>
       <c r="D261" s="3"/>
       <c r="E261" s="3"/>
       <c r="F261" s="3"/>
       <c r="G261" s="3"/>
       <c r="I261" s="3"/>
     </row>
-    <row r="262" spans="4:9">
+    <row r="262" spans="1:9">
       <c r="D262" s="3"/>
       <c r="E262" s="3"/>
       <c r="F262" s="3"/>
       <c r="G262" s="3"/>
       <c r="I262" s="3"/>
     </row>
-    <row r="263" spans="4:9">
+    <row r="263" spans="1:9">
       <c r="D263" s="3"/>
       <c r="E263" s="3"/>
       <c r="F263" s="3"/>
       <c r="G263" s="3"/>
       <c r="I263" s="3"/>
     </row>
-    <row r="264" spans="4:9">
+    <row r="264" spans="1:9">
       <c r="D264" s="3"/>
       <c r="E264" s="3"/>
       <c r="F264" s="3"/>
       <c r="G264" s="3"/>
       <c r="I264" s="3"/>
     </row>
-    <row r="265" spans="4:9">
+    <row r="265" spans="1:9">
       <c r="D265" s="3"/>
       <c r="E265" s="3"/>
       <c r="F265" s="3"/>
       <c r="G265" s="3"/>
       <c r="I265" s="3"/>
     </row>
-    <row r="266" spans="4:9">
+    <row r="266" spans="1:9">
       <c r="D266" s="3"/>
       <c r="E266" s="3"/>
       <c r="F266" s="3"/>
       <c r="G266" s="3"/>
       <c r="I266" s="3"/>
     </row>
-    <row r="267" spans="4:9">
+    <row r="267" spans="1:9">
       <c r="D267" s="3"/>
       <c r="E267" s="3"/>
       <c r="F267" s="3"/>
       <c r="G267" s="3"/>
       <c r="I267" s="3"/>
     </row>
-    <row r="268" spans="4:9">
+    <row r="268" spans="1:9">
       <c r="D268" s="3"/>
       <c r="E268" s="3"/>
       <c r="F268" s="3"/>
       <c r="G268" s="3"/>
       <c r="I268" s="3"/>
     </row>
-    <row r="269" spans="4:9">
+    <row r="269" spans="1:9">
       <c r="D269" s="3"/>
       <c r="E269" s="3"/>
       <c r="F269" s="3"/>
       <c r="G269" s="3"/>
       <c r="I269" s="3"/>
     </row>
+    <row r="270" spans="1:9">
+      <c r="D270" s="3"/>
+      <c r="E270" s="3"/>
+      <c r="F270" s="3"/>
+      <c r="G270" s="3"/>
+      <c r="I270" s="3"/>
+    </row>
+    <row r="271" spans="1:9">
+      <c r="D271" s="3"/>
+      <c r="E271" s="3"/>
+      <c r="F271" s="3"/>
+      <c r="G271" s="3"/>
+      <c r="I271" s="3"/>
+    </row>
+    <row r="272" spans="1:9">
+      <c r="D272" s="3"/>
+      <c r="E272" s="3"/>
+      <c r="F272" s="3"/>
+      <c r="G272" s="3"/>
+      <c r="I272" s="3"/>
+    </row>
+    <row r="273" spans="4:9">
+      <c r="D273" s="3"/>
+      <c r="E273" s="3"/>
+      <c r="F273" s="3"/>
+      <c r="G273" s="3"/>
+      <c r="I273" s="3"/>
+    </row>
+    <row r="274" spans="4:9">
+      <c r="D274" s="3"/>
+      <c r="E274" s="3"/>
+      <c r="F274" s="3"/>
+      <c r="G274" s="3"/>
+      <c r="I274" s="3"/>
+    </row>
+    <row r="275" spans="4:9">
+      <c r="D275" s="3"/>
+      <c r="E275" s="3"/>
+      <c r="F275" s="3"/>
+      <c r="G275" s="3"/>
+      <c r="I275" s="3"/>
+    </row>
+    <row r="276" spans="4:9">
+      <c r="D276" s="3"/>
+      <c r="E276" s="3"/>
+      <c r="F276" s="3"/>
+      <c r="G276" s="3"/>
+      <c r="I276" s="3"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B202:B246"/>
-    <mergeCell ref="A202:A246"/>
-    <mergeCell ref="A167:A201"/>
-    <mergeCell ref="B167:B201"/>
-    <mergeCell ref="B150:B166"/>
-    <mergeCell ref="A150:A166"/>
-    <mergeCell ref="B69:B149"/>
-    <mergeCell ref="A69:A149"/>
+    <mergeCell ref="B69:B151"/>
+    <mergeCell ref="A69:A151"/>
     <mergeCell ref="B2:B16"/>
     <mergeCell ref="A2:A16"/>
     <mergeCell ref="B17:B44"/>
     <mergeCell ref="B45:B68"/>
     <mergeCell ref="A45:A68"/>
     <mergeCell ref="A17:A44"/>
+    <mergeCell ref="B209:B253"/>
+    <mergeCell ref="A209:A253"/>
+    <mergeCell ref="A174:A208"/>
+    <mergeCell ref="B174:B208"/>
+    <mergeCell ref="B157:B173"/>
+    <mergeCell ref="A157:A173"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G267">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:G274">
       <formula1>"O, "</formula1>
     </dataValidation>
   </dataValidations>
